--- a/docs/buk_map.xlsx
+++ b/docs/buk_map.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ivanyakovenko/Documents/Processor/docs/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{8D202D9B-2E63-5845-AFCB-F9B5780A9FD6}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EC6B0F2D-4257-E644-8043-DD17246170A1}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="540" yWindow="460" windowWidth="25600" windowHeight="17540" xr2:uid="{4A38C03B-82BA-544F-A426-5449FA3073AF}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="28340" xr2:uid="{4A38C03B-82BA-544F-A426-5449FA3073AF}"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="131" uniqueCount="86">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="206" uniqueCount="124">
   <si>
     <t>Начальные значения</t>
   </si>
@@ -42,15 +42,6 @@
     <t xml:space="preserve"> =</t>
   </si>
   <si>
-    <t>Dчт(A)</t>
-  </si>
-  <si>
-    <t>Fнч(A)</t>
-  </si>
-  <si>
-    <t>K®</t>
-  </si>
-  <si>
     <t>F</t>
   </si>
   <si>
@@ -61,9 +52,6 @@
   </si>
   <si>
     <t>0.101 (5/8)</t>
-  </si>
-  <si>
-    <t>Dчт(</t>
   </si>
   <si>
     <t>A0; A1</t>
@@ -1008,13 +996,139 @@
       </rPr>
       <t>1</t>
     </r>
+  </si>
+  <si>
+    <t>Dчт</t>
+  </si>
+  <si>
+    <t>OP</t>
+  </si>
+  <si>
+    <t>0.010</t>
+  </si>
+  <si>
+    <t xml:space="preserve">= </t>
+  </si>
+  <si>
+    <t>RP</t>
+  </si>
+  <si>
+    <t>0.100</t>
+  </si>
+  <si>
+    <t>*</t>
+  </si>
+  <si>
+    <t>(4/8)</t>
+  </si>
+  <si>
+    <t>(2/8)</t>
+  </si>
+  <si>
+    <t>K</t>
+  </si>
+  <si>
+    <t>1.110</t>
+  </si>
+  <si>
+    <t>(-2/8)</t>
+  </si>
+  <si>
+    <t>-| Dчт |</t>
+  </si>
+  <si>
+    <t>(P = 1)</t>
+  </si>
+  <si>
+    <t>JMP 9</t>
+  </si>
+  <si>
+    <t>0.1001</t>
+  </si>
+  <si>
+    <t>JS -9</t>
+  </si>
+  <si>
+    <t>1.0111</t>
+  </si>
+  <si>
+    <t>(P == 1) ?</t>
+  </si>
+  <si>
+    <t>Fнч</t>
+  </si>
+  <si>
+    <t>0.000</t>
+  </si>
+  <si>
+    <t>1.111</t>
+  </si>
+  <si>
+    <t>(-1/8)</t>
+  </si>
+  <si>
+    <t>=</t>
+  </si>
+  <si>
+    <t>-| Fнч |</t>
+  </si>
+  <si>
+    <t>(P = 0)</t>
+  </si>
+  <si>
+    <t>JMP -1</t>
+  </si>
+  <si>
+    <t>1.1111</t>
+  </si>
+  <si>
+    <t>(A28)</t>
+  </si>
+  <si>
+    <t>(R0)</t>
+  </si>
+  <si>
+    <t>(A29)</t>
+  </si>
+  <si>
+    <t>(A0)</t>
+  </si>
+  <si>
+    <t>(A3)</t>
+  </si>
+  <si>
+    <t>(A6)</t>
+  </si>
+  <si>
+    <t>(A16)</t>
+  </si>
+  <si>
+    <t>(A8)</t>
+  </si>
+  <si>
+    <t>(A12)</t>
+  </si>
+  <si>
+    <t>(A18)</t>
+  </si>
+  <si>
+    <t>Dчт(A28)</t>
+  </si>
+  <si>
+    <t>Fнч(A29)</t>
+  </si>
+  <si>
+    <t>K(R0)</t>
+  </si>
+  <si>
+    <t>(R1)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="14">
+  <fonts count="17">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -1110,6 +1224,30 @@
       <name val="Calibri (Основной текст)"/>
       <charset val="204"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="7" tint="-0.249977111117893"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF00B050"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -1137,11 +1275,8 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1164,6 +1299,27 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="14" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="15" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="49" fontId="16" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -1179,6 +1335,750 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>711200</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>711200</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>25400</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="3" name="Прямая со стрелкой 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2F2AEC77-073D-7149-B613-85F17091E048}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2997200" y="2438400"/>
+          <a:ext cx="0" cy="622300"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>711200</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>190500</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>711200</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>12700</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="4" name="Прямая со стрелкой 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F250B1B0-F84A-264C-8F13-7C5DAB01474A}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2997200" y="4038600"/>
+          <a:ext cx="0" cy="622300"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>698500</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>190500</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>698500</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>12700</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="5" name="Прямая со стрелкой 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{46B3BBD3-FE41-F945-BE5F-0DEE99C5454F}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2984500" y="5041900"/>
+          <a:ext cx="0" cy="622300"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>698500</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>698500</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>25400</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="6" name="Прямая со стрелкой 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{844D488F-E756-9C4B-8607-9B080ECFB293}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2984500" y="6057900"/>
+          <a:ext cx="0" cy="622300"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>698500</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>698500</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>25400</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="7" name="Прямая со стрелкой 6">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{38CB92EE-D179-0644-8A82-55BD99341C9C}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2984500" y="7670800"/>
+          <a:ext cx="0" cy="622300"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>723900</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>723900</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>25400</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="8" name="Прямая со стрелкой 7">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0FF65F6C-74D2-9147-945D-E7073C4CB835}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3009900" y="9283700"/>
+          <a:ext cx="0" cy="622300"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>736600</xdr:colOff>
+      <xdr:row>39</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>736600</xdr:colOff>
+      <xdr:row>40</xdr:row>
+      <xdr:rowOff>25400</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="9" name="Прямая со стрелкой 8">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{407F0449-2E30-5B44-85F9-7462E234AFB3}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3022600" y="10287000"/>
+          <a:ext cx="0" cy="622300"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>1331640</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>12440</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>248680</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>165860</xdr:rowOff>
+    </xdr:to>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+        <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+          <xdr14:nvContentPartPr>
+            <xdr14:cNvPr id="17" name="Рукописный ввод 16">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1FF6EBCA-E3D4-1148-A671-DE14E2979E72}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr14:cNvPr>
+            <xdr14:cNvContentPartPr/>
+          </xdr14:nvContentPartPr>
+          <xdr14:nvPr macro=""/>
+          <xdr14:xfrm>
+            <a:off x="1331640" y="2044440"/>
+            <a:ext cx="3590640" cy="1563120"/>
+          </xdr14:xfrm>
+        </xdr:contentPart>
+      </mc:Choice>
+      <mc:Fallback>
+        <xdr:pic>
+          <xdr:nvPicPr>
+            <xdr:cNvPr id="17" name="Рукописный ввод 16">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1FF6EBCA-E3D4-1148-A671-DE14E2979E72}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvPicPr/>
+          </xdr:nvPicPr>
+          <xdr:blipFill>
+            <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+            <a:stretch>
+              <a:fillRect/>
+            </a:stretch>
+          </xdr:blipFill>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="1323000" y="2035800"/>
+              <a:ext cx="3608280" cy="1580760"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+          </xdr:spPr>
+        </xdr:pic>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>615960</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>111180</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>240580</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>11720</xdr:rowOff>
+    </xdr:to>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+        <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3">
+          <xdr14:nvContentPartPr>
+            <xdr14:cNvPr id="18" name="Рукописный ввод 17">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EF2AEE57-069F-414B-9E9D-FE0A40043BAA}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr14:cNvPr>
+            <xdr14:cNvContentPartPr/>
+          </xdr14:nvContentPartPr>
+          <xdr14:nvPr macro=""/>
+          <xdr14:xfrm>
+            <a:off x="615960" y="3959280"/>
+            <a:ext cx="3269520" cy="3113640"/>
+          </xdr14:xfrm>
+        </xdr:contentPart>
+      </mc:Choice>
+      <mc:Fallback>
+        <xdr:pic>
+          <xdr:nvPicPr>
+            <xdr:cNvPr id="18" name="Рукописный ввод 17">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EF2AEE57-069F-414B-9E9D-FE0A40043BAA}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvPicPr/>
+          </xdr:nvPicPr>
+          <xdr:blipFill>
+            <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4"/>
+            <a:stretch>
+              <a:fillRect/>
+            </a:stretch>
+          </xdr:blipFill>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="607320" y="3950640"/>
+              <a:ext cx="3287160" cy="3131280"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+          </xdr:spPr>
+        </xdr:pic>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>1342440</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>93640</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>999100</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>47260</xdr:rowOff>
+    </xdr:to>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+        <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId5">
+          <xdr14:nvContentPartPr>
+            <xdr14:cNvPr id="19" name="Рукописный ввод 18">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3279129D-2F62-1548-ABB8-FC066AFB6514}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr14:cNvPr>
+            <xdr14:cNvContentPartPr/>
+          </xdr14:nvContentPartPr>
+          <xdr14:nvPr macro=""/>
+          <xdr14:xfrm>
+            <a:off x="1342440" y="7358040"/>
+            <a:ext cx="3301560" cy="1363320"/>
+          </xdr14:xfrm>
+        </xdr:contentPart>
+      </mc:Choice>
+      <mc:Fallback>
+        <xdr:pic>
+          <xdr:nvPicPr>
+            <xdr:cNvPr id="19" name="Рукописный ввод 18">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3279129D-2F62-1548-ABB8-FC066AFB6514}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvPicPr/>
+          </xdr:nvPicPr>
+          <xdr:blipFill>
+            <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId6"/>
+            <a:stretch>
+              <a:fillRect/>
+            </a:stretch>
+          </xdr:blipFill>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="1333800" y="7349040"/>
+              <a:ext cx="3319200" cy="1380960"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+          </xdr:spPr>
+        </xdr:pic>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>24840</xdr:colOff>
+      <xdr:row>41</xdr:row>
+      <xdr:rowOff>84060</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>682560</xdr:colOff>
+      <xdr:row>43</xdr:row>
+      <xdr:rowOff>144940</xdr:rowOff>
+    </xdr:to>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+        <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId7">
+          <xdr14:nvContentPartPr>
+            <xdr14:cNvPr id="21" name="Рукописный ввод 20">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FB7D0C3B-7301-264B-B848-3FEE0D8DB1F4}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr14:cNvPr>
+            <xdr14:cNvContentPartPr/>
+          </xdr14:nvContentPartPr>
+          <xdr14:nvPr macro=""/>
+          <xdr14:xfrm>
+            <a:off x="2310840" y="11171160"/>
+            <a:ext cx="657720" cy="467280"/>
+          </xdr14:xfrm>
+        </xdr:contentPart>
+      </mc:Choice>
+      <mc:Fallback>
+        <xdr:pic>
+          <xdr:nvPicPr>
+            <xdr:cNvPr id="21" name="Рукописный ввод 20">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FB7D0C3B-7301-264B-B848-3FEE0D8DB1F4}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvPicPr/>
+          </xdr:nvPicPr>
+          <xdr:blipFill>
+            <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId8"/>
+            <a:stretch>
+              <a:fillRect/>
+            </a:stretch>
+          </xdr:blipFill>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="2301840" y="11162160"/>
+              <a:ext cx="675360" cy="484920"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+          </xdr:spPr>
+        </xdr:pic>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/ink/ink1.xml><?xml version="1.0" encoding="utf-8"?>
+<inkml:ink xmlns:inkml="http://www.w3.org/2003/InkML">
+  <inkml:definitions>
+    <inkml:context xml:id="ctx0">
+      <inkml:inkSource xml:id="inkSrc0">
+        <inkml:traceFormat>
+          <inkml:channel name="X" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
+          <inkml:channel name="Y" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
+          <inkml:channel name="F" type="integer" max="32767" units="dev"/>
+        </inkml:traceFormat>
+        <inkml:channelProperties>
+          <inkml:channelProperty channel="X" name="resolution" value="1000" units="1/cm"/>
+          <inkml:channelProperty channel="Y" name="resolution" value="1000" units="1/cm"/>
+          <inkml:channelProperty channel="F" name="resolution" value="0" units="1/dev"/>
+        </inkml:channelProperties>
+      </inkml:inkSource>
+      <inkml:timestamp xml:id="ts0" timeString="2020-04-19T12:03:41.317"/>
+    </inkml:context>
+    <inkml:brush xml:id="br0">
+      <inkml:brushProperty name="width" value="0.05" units="cm"/>
+      <inkml:brushProperty name="height" value="0.05" units="cm"/>
+    </inkml:brush>
+  </inkml:definitions>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0">838 1 24575,'-24'13'0,"11"-8"0,-21 12 0,-36 12 0,23-5 0,-24 5 0,49-17 0,9-7 0,3 4 0,-10 0 0,9-1 0,-13 9 0,1-6 0,3 5 0,-1-11 0,12-1 0,0 0 0,-3 5 0,2 0 0,-18 15 0,16-12 0,-13 8 0,17-11 0,-9 7 0,7-5 0,-7 9 0,9-10 0,-9 19 0,6-17 0,-2 17 0,6-19 0,-2 6 0,3-6 0,-6 6 0,12-6 0,-12 6 0,10-6 0,-18 18 0,13-11 0,-6 9 0,5-14 0,3 1 0,-3-4 0,-1 8 0,4-8 0,-3 19 0,8-15 0,-9 28 0,8-28 0,-11 20 0,11-22 0,-7 25 0,4-22 0,3 22 0,-3-25 0,0 9 0,3-1 0,-3-4 0,-1 7 0,4-9 0,-3 1 0,-4 11 0,6-13 0,-6 21 0,8-22 0,0 30 0,0-28 0,0 15 0,0-15 0,0-4 0,0 8 0,0-4 0,0 6 0,0 2 0,0 10 0,0-7 0,0 1 0,0-5 0,0-9 0,0 12 0,4-12 0,-3 13 0,6-14 0,-2 21 0,4-18 0,-1 14 0,-3-17 0,6 10 0,-9-10 0,9 14 0,-5-9 0,2 2 0,1-4 0,12 20 0,-9-18 0,13 30 0,-11-29 0,4 13 0,-4-14 0,6 9 0,-10-14 0,10 10 0,-7-10 0,8 2 0,-6-7 0,8 2 0,-12-2 0,9 0 0,-11 2 0,4-6 0,0 3 0,8 0 0,-5-3 0,20 7 0,-23-7 0,24 11 0,-21-10 0,18 7 0,-4-5 0,-6-3 0,-2 2 0,-14-3 0,6 0 0,-5 0 0,4 4 0,0-3 0,17 3 0,-11-4 0,27 0 0,-33 0 0,29 0 0,-24 0 0,33 0 0,-24 0 0,17 0 0,-15 0 0,-10 0 0,9 0 0,-17 0 0,31 0 0,-18 0 0,31 0 0,-31 0 0,30 4 0,-29 2 0,24 3 0,-24-3 0,9 2 0,-8-7 0,5 3 0,-1-4 0,9 4 0,-16-3 0,26 2 0,-30-3 0,27 0 0,-24 0 0,21 0 0,-16 0 0,25 0 0,-17 0 0,17 0 0,-25 0 0,21 0 0,-20 0 0,26 0 0,-21 0 0,21 0 0,-25 0 0,37 0 0,-44 0 0,51 0 0,-44 0 0,17 0 0,-19 0 0,-8 0 0,12 0 0,-4 0 0,25 0 0,-23 0 0,37 0 0,-41 0 0,37 0 0,-39 0 0,25 0 0,-21 0 0,40 0 0,-35 0 0,21 0 0,-26 0 0,20 0 0,-12 0 0,27 0 0,-34 0 0,27 0 0,-27 0 0,34 0 0,-32 0 0,37 0 0,-33 0 0,24 0 0,-30 0 0,25 0 0,-30 0 0,31 0 0,-31 0 0,14 0 0,3 0 0,16 0 0,-3 0 0,38 0 0,-53 0 0,16 0 0,-31 0 0,40 0 0,-32 0 0,54 0 0,-57 0 0,22 0 0,-23 0 0,12 0 0,-13 0 0,21 0 0,-13 0 0,19 0 0,-26 0 0,16 0 0,-16 0 0,18 0 0,-22 0 0,20 0 0,-21 0 0,31 0 0,-19 0 0,13 0 0,-13 0 0,-2 0 0,-4 0 0,-10 0 0,4 0 0,-7 0 0,15 0 0,-4 0 0,26 0 0,-22 0 0,30 0 0,-41 0 0,28 0 0,-25 0 0,26 0 0,-25 0 0,16 0 0,-28 0 0,44 0 0,-33 0 0,36 0 0,-42 0 0,22 0 0,-15 0 0,30 0 0,-28 0 0,30 0 0,-41 0 0,38 0 0,-23 0 0,18 0 0,-16 0 0,3 0 0,-13 0 0,29 0 0,-25 0 0,31 0 0,-29 0 0,23 0 0,-22 0 0,42 0 0,-38 0 0,17 0 0,-21 0 0,6 0 0,-10 0 0,53 0 0,-41 0 0,40 0 0,-39 0 0,18 0 0,-20 0 0,31 0 0,-31 0 0,26 5 0,-37-4 0,28 12 0,-38-10 0,33 10 0,-30-12 0,31 7 0,-20-6 0,24 2 0,-15-4 0,4 0 0,-13 0 0,-10 0 0,4 0 0,-12 0 0,25 5 0,-23-4 0,14 3 0,3 4 0,5-6 0,10 11 0,0-12 0,-19 3 0,31 0 0,-34-3 0,20 3 0,-29-4 0,-3 0 0,29 4 0,1-3 0,1 3 0,10-4 0,-29 0 0,6 4 0,25 6 0,-20-4 0,20 7 0,-6-12 0,-25 7 0,26-7 0,-21 8 0,13-4 0,-9 0 0,4-1 0,-6 0 0,15-3 0,-18 3 0,16-4 0,-12 5 0,-2-4 0,-4 3 0,-11 0 0,5-3 0,-3 3 0,22 4 0,2-1 0,-3 2 0,26 0 0,-32-4 0,28 1 0,-31 2 0,22-2 0,-27-1 0,38 7 0,-40-10 0,34 10 0,-36-11 0,25 12 0,-21-7 0,17 7 0,-18-8 0,17 4 0,-16 0 0,4-3 0,3 11 0,0-12 0,-1 4 0,4-1 0,-21-3 0,13 3 0,-14-3 0,21 6 0,-18-5 0,23 10 0,-25-10 0,17 5 0,-17-6 0,9 0 0,-6 7 0,7-2 0,-6 4 0,1-2 0,-8-3 0,5 3 0,-4-3 0,7 8 0,-6-8 0,-2 3 0,0-3 0,1 7 0,-4-6 0,7 7 0,-11-5 0,6 1 0,-6 1 0,3-2 0,-4-4 0,4 1 0,1-1 0,3 1 0,-3 15 0,-1-12 0,-4 19 0,3-20 0,-2 13 0,3-14 0,-4 15 0,0-15 0,0 19 0,0-17 0,0 8 0,0-11 0,0 12 0,0-5 0,0 13 0,0-9 0,0 21 0,0-22 0,0 26 0,0-33 0,0 16 0,0-18 0,0 14 0,0-13 0,0 9 0,0-11 0,-16 28 0,12-22 0,-16 22 0,19-27 0,-15 14 0,13-8 0,-17 14 0,18-15 0,-13 8 0,13-12 0,-10 10 0,7-8 0,-12 12 0,6-9 0,-5 7 0,4-9 0,2-1 0,-3-1 0,8-3 0,-2-1 0,2 1 0,-4 3 0,1-2 0,-1 2 0,4-3 0,-6 7 0,9-6 0,-14 10 0,10-10 0,-10 6 0,6-11 0,-14 18 0,13-15 0,-17 16 0,17-15 0,-14 8 0,14-8 0,-9 8 0,10-8 0,-7 7 0,8-6 0,-11 6 0,9-7 0,-13 15 0,13-12 0,-5 8 0,11-12 0,-3 4 0,7-2 0,-10 6 0,5-6 0,-10 6 0,6-7 0,-3 3 0,5-7 0,-17 15 0,12-12 0,-15 12 0,18-11 0,-3-1 0,5 1 0,-1 0 0,0-5 0,1 4 0,-1-3 0,-4 11 0,4-10 0,-8 10 0,8-12 0,-8 9 0,8-4 0,-4 4 0,4-5 0,1 1 0,-1-5 0,0 4 0,1-3 0,-1 3 0,0 1 0,1-1 0,-1-7 0,8-6 0,-2-4 0,7-4 0,0 5 0,-3-1 0,2 0 0,-3-4 0,0 3 0,0-3 0,0 0 0,0 3 0,0-7 0,0 7 0,0-2 0,0 3 0,4 0 0,-3 8 0,3 2 0,-4 8 0,0-1 0,0 1 0,0-1 0,0 1 0,0-1 0,0 9 0,0-2 0,0 8 0,0-4 0,0-5 0,0-1 0,0-4 0,0-1 0,0 1 0,0-1 0,4 1 0,1-1 0,-1 1 0,0-1 0,0 1 0,4-1 0,2-3 0,2-1 0,-3-4 0,-1 0 0,5 0 0,2 0 0,14 0 0,-7 0 0,13 0 0,-20 0 0,3 0 0,-13 0 0,-1 0 0</inkml:trace>
+</inkml:ink>
+</file>
+
+<file path=xl/ink/ink2.xml><?xml version="1.0" encoding="utf-8"?>
+<inkml:ink xmlns:inkml="http://www.w3.org/2003/InkML">
+  <inkml:definitions>
+    <inkml:context xml:id="ctx0">
+      <inkml:inkSource xml:id="inkSrc0">
+        <inkml:traceFormat>
+          <inkml:channel name="X" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
+          <inkml:channel name="Y" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
+          <inkml:channel name="F" type="integer" max="32767" units="dev"/>
+        </inkml:traceFormat>
+        <inkml:channelProperties>
+          <inkml:channelProperty channel="X" name="resolution" value="1000" units="1/cm"/>
+          <inkml:channelProperty channel="Y" name="resolution" value="1000" units="1/cm"/>
+          <inkml:channelProperty channel="F" name="resolution" value="0" units="1/dev"/>
+        </inkml:channelProperties>
+      </inkml:inkSource>
+      <inkml:timestamp xml:id="ts0" timeString="2020-04-19T12:04:00.028"/>
+    </inkml:context>
+    <inkml:brush xml:id="br0">
+      <inkml:brushProperty name="width" value="0.05" units="cm"/>
+      <inkml:brushProperty name="height" value="0.05" units="cm"/>
+    </inkml:brush>
+  </inkml:definitions>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0">2615 1 24575,'-8'3'0,"-1"-2"0,-3 7 0,2-3 0,-3 3 0,1-3 0,2 3 0,-10-4 0,9 5 0,-9 3 0,10-6 0,-7 6 0,8-7 0,-5 0 0,6 2 0,-1-6 0,0 3 0,-15 12 0,11-8 0,-20 16 0,23-14 0,-14 6 0,13-10 0,-30 17 0,26-19 0,-22 17 0,23-12 0,-11 4 0,9 1 0,-21 7 0,24-14 0,-25 14 0,26-15 0,-21 14 0,13-9 0,-15 13 0,15-17 0,-8 12 0,13-17 0,-14 18 0,12-13 0,-16 14 0,21-12 0,-29 9 0,27-9 0,-27 12 0,29-11 0,-16 7 0,14-5 0,-7 1 0,7-3 0,2 1 0,3-10 0,-8 15 0,6-13 0,-22 25 0,20-21 0,-19 17 0,21-18 0,-24 20 0,22-22 0,-21 26 0,23-23 0,-30 25 0,26-19 0,-30 16 0,33-20 0,-21 12 0,21-14 0,-26 21 0,25-20 0,-21 17 0,23-15 0,-10 2 0,0 8 0,-20 16 0,10-5 0,-7 11 0,23-27 0,-10 14 0,13-17 0,-25 29 0,19-23 0,-25 37 0,26-35 0,-22 39 0,30-43 0,-25 40 0,26-38 0,-23 31 0,20-32 0,-7 10 0,-4 16 0,14-26 0,-26 48 0,26-47 0,-27 34 0,22-24 0,-22 21 0,23-22 0,-23 30 0,22-32 0,-14 29 0,17-38 0,-13 34 0,12-30 0,-11 29 0,12-28 0,-7 21 0,2-15 0,-3 12 0,7-15 0,-9 10 0,12-12 0,-10 21 0,4-21 0,4 17 0,-4-18 0,-4 23 0,7-26 0,-12 39 0,9-37 0,3 23 0,3-28 0,3 19 0,0-22 0,-4 39 0,4-37 0,-8 32 0,11-34 0,-11 31 0,12-30 0,-8 33 0,8-29 0,-7 17 0,7-14 0,-15 17 0,13-19 0,-14 22 0,16-28 0,-3 21 0,4-17 0,-4 18 0,3-9 0,-2 11 0,3-11 0,0 17 0,0-24 0,0 18 0,0-26 0,0 14 0,0-14 0,0 10 0,0-10 0,0 2 0,0-3 0,0 7 0,0-6 0,0 14 0,0-14 0,0 14 0,0-13 0,0 9 0,0-11 0,0 11 0,0-10 0,0 7 0,0-9 0,0 8 0,0-5 0,0 9 0,0-11 0,0 7 0,0-6 0,0 6 0,0-2 0,0 3 0,0 9 0,0-11 0,0 5 0,0-12 0,0 1 0,0 3 0,0-2 0,0 6 0,0-7 0,0 11 0,0-9 0,0 5 0,0-8 0,0 17 0,0-13 0,0 20 0,0-21 0,0 13 0,0-9 0,0 9 0,0-9 0,0 9 0,0-13 0,0 20 0,0-19 0,3 20 0,-2-22 0,3 6 0,-4-7 0,0-1 0,0 1 0,0 7 0,0-6 0,13 36 0,-10-30 0,14 39 0,-16-38 0,6 18 0,-6-16 0,3 6 0,4-5 0,-6 5 0,7-10 0,-6 21 0,-2-23 0,3 23 0,-4-26 0,4 14 0,-3-14 0,3 14 0,-4-13 0,4 5 0,-3-8 0,11 21 0,-10-16 0,6 23 0,-8-26 0,4 19 0,-3-18 0,7 17 0,-7-17 0,3 13 0,-4-14 0,4 24 0,-3-22 0,3 22 0,-4-19 0,8 10 0,-6-9 0,6 8 0,-8-14 0,0 11 0,4 0 0,1 11 0,0-8 0,-2 8 0,1-22 0,-3 14 0,7-13 0,-4 12 0,1-12 0,7 17 0,-10-16 0,10 20 0,-11-20 0,7 16 0,-3-17 0,4 21 0,0-15 0,0 24 0,-4-15 0,7 9 0,-10-16 0,10 10 0,-7-18 0,3 17 0,6-9 0,-5 3 0,4-4 0,4 10 0,-10-15 0,12 19 0,-13-22 0,18 27 0,-16-23 0,12 15 0,-12-17 0,6 6 0,-5-4 0,16 20 0,-18-22 0,15 17 0,-14-19 0,4 10 0,-2-10 0,14 18 0,-13-17 0,9 13 0,-12-15 0,9 8 0,-7-8 0,10 7 0,-10-10 0,6 10 0,-6-10 0,11 11 0,-11-8 0,14 7 0,-14-6 0,15 2 0,-15-7 0,12 4 0,-12-5 0,3 5 0,-5-4 0,1-1 0,20 4 0,0 6 0,9 1 0,-5 2 0,-18-12 0,13 7 0,-12-6 0,30 7 0,-18-4 0,7-4 0,-3 9 0,-11-8 0,9 5 0,5-7 0,-13 0 0,16-3 0,-22 7 0,10-7 0,-1 11 0,13-5 0,0 6 0,1-8 0,-10 4 0,-2-8 0,2 4 0,14 3 0,-14-6 0,12 10 0,-16-11 0,1 3 0,-1 0 0,8-3 0,-16 3 0,16-4 0,-22 4 0,21-3 0,-19 3 0,32 4 0,-31-6 0,19 7 0,-23-9 0,15 4 0,2-3 0,10 7 0,-10-7 0,18 7 0,-26-6 0,27 2 0,-20-4 0,9 0 0,-14 0 0,12 8 0,-17-6 0,18 6 0,-18-4 0,5-3 0,3 3 0,9 0 0,-3-3 0,6 3 0,-21 1 0,10-4 0,-5 3 0,13-4 0,-16 0 0,28 0 0,-27 8 0,20-6 0,-23 6 0,20-4 0,-17-3 0,12 3 0,-17 0 0,11 1 0,-7-1 0,20 0 0,-21-4 0,9 4 0,-15 1 0,16 5 0,-14-5 0,25 3 0,-20-7 0,16 6 0,-18-6 0,13 3 0,-17-4 0,22 8 0,-21-5 0,21 13 0,-17-14 0,13 6 0,-14-8 0,13 0 0,3 0 0,3 0 0,-4 0 0,-13 4 0,0-3 0,-7 2 0,7-3 0,3 0 0,-1 0 0,3 0 0,1 0 0,-12 0 0,13 0 0,-9 0 0,22 0 0,-19 0 0,10 0 0,-11 0 0,9 0 0,-5 0 0,16 0 0,-26 0 0,27 0 0,-26 0 0,14 0 0,3 0 0,14 0 0,-2 0 0,6 0 0,-22 0 0,6 0 0,-5 0 0,13 0 0,-22 0 0,14 0 0,4 0 0,5 0 0,4 0 0,-2 0 0,-18 0 0,8 0 0,-9 0 0,-5 0 0,11 0 0,-16 0 0,19 0 0,-22 0 0,18 0 0,-16 0 0,21 4 0,-22 1 0,39 0 0,-34-2 0,22-3 0,-25 0 0,-3 0 0,3 0 0,8 0 0,-10 0 0,18 0 0,-19 0 0,23 5 0,-20-4 0,41 7 0,-33-7 0,30 4 0,-31-5 0,14 0 0,-13 0 0,13 0 0,-8 0 0,17 0 0,-19 0 0,17 0 0,-30 0 0,30 0 0,-22 4 0,18-3 0,-17 3 0,17 5 0,-19-7 0,18 10 0,-25-11 0,22 3 0,-16 1 0,16-4 0,-18 3 0,13-4 0,-16 4 0,28-4 0,-26 4 0,26 5 0,-28-7 0,8 6 0,-11-8 0,-1 0 0,6 0 0,3 4 0,2-3 0,6 3 0,-5-4 0,21 4 0,-22-3 0,22 7 0,-31-7 0,24 2 0,-22-3 0,26 0 0,-26 0 0,37 9 0,-33-7 0,34 6 0,-39-8 0,22 4 0,-21-3 0,25 7 0,-24-7 0,34 3 0,-21 0 0,29 6 0,-24-3 0,22 6 0,-35-12 0,29 7 0,-34-7 0,34 3 0,-33 0 0,16-3 0,-9 3 0,-5-4 0,27 4 0,3 5 0,-10-3 0,5 2 0,-31-8 0,20 4 0,-17-3 0,32 7 0,-31-7 0,22 11 0,-25-9 0,18 9 0,-17-11 0,17 3 0,-15-4 0,4 0 0,-1 0 0,-8 0 0,8 4 0,-3 1 0,-1 0 0,-1-2 0,1-3 0,1 9 0,7-3 0,-3 3 0,7-2 0,-7-6 0,3 3 0,-8-4 0,0 4 0,-1-3 0,-3 3 0,4-4 0,-5 0 0,18 8 0,-14-6 0,29 11 0,-28-12 0,19 7 0,-22-7 0,22 6 0,-20-6 0,12 7 0,-16-4 0,5 1 0,-4 3 0,4-7 0,-5 3 0,13 3 0,-10-5 0,22 18 0,-21-17 0,20 13 0,-20-15 0,28 15 0,-26-9 0,22 9 0,-26-11 0,6 3 0,-7-4 0,-1 5 0,1-1 0,7 9 0,-5-7 0,9 6 0,-11-7 0,11-1 0,-6 5 0,3-4 0,-4 0 0,0-1 0,-4-4 0,4 2 0,-4 1 0,7 2 0,-5 0 0,5 3 0,-8-7 0,8 7 0,-5-7 0,13 11 0,-14-6 0,6 2 0,-7-3 0,-1-1 0,1 1 0,3 3 0,-2-6 0,2 5 0,-4-6 0,1 7 0,0-2 0,-1 2 0,1-3 0,-1-1 0,-3 1 0,3-1 0,-8 1 0,8 7 0,-7-5 0,10 9 0,-5-11 0,6 7 0,-7-6 0,7 14 0,-3-9 0,4 7 0,0-5 0,-4-4 0,0 1 0,3 6 0,-3-9 0,8 9 0,-12-11 0,7 7 0,-8-6 0,5 10 0,0-10 0,-1 6 0,1-7 0,-5 0 0,4-1 0,-3 4 0,3-2 0,5 6 0,-4-6 0,3 6 0,-7-7 0,10 11 0,-12-9 0,12 8 0,-10-9 0,4 11 0,0-11 0,0 7 0,-5-8 0,4 4 0,-3 0 0,0 1 0,3 3 0,-3-7 0,4 3 0,0-5 0,-5 1 0,0 0 0,0-1 0,1 4 0,3-2 0,1 2 0,-5-3 0,4-1 0,-3 5 0,0-4 0,2 3 0,2 1 0,-4-4 0,3 4 0,-4-5 0,-3 1 0,6-1 0,-6 1 0,3-1 0,0 1 0,1-1 0,3 1 0,-3 0 0,2-1 0,-6 1 0,7-1 0,-7 5 0,7-4 0,-4 3 0,5-3 0,-8-1 0,-2-3 0,-8 3 0,0-3 0,1-1 0,-1 0 0,0-4 0,1 0 0,-1 0 0,0 0 0,1 0 0,-1 0 0,0 0 0,1 4 0,3 1 0,5 3 0,14 1 0,-3 0 0,23-3 0,-22 1 0,22-6 0,-23 7 0,7-7 0,-10 2 0,1-3 0,0 0 0,-1-3 0,-3-2 0,-1-4 0,-4 0 0,3 1 0,-2-1 0,3 0 0,-4 1 0,0-1 0,4-11 0,-3 8 0,3-16 0,-4 18 0,0-7 0,4 8 0,0 1 0,1-1 0,-1 0 0,0 1 0,-3-1 0,2 0 0,-3 5 0,0 0 0</inkml:trace>
+</inkml:ink>
+</file>
+
+<file path=xl/ink/ink3.xml><?xml version="1.0" encoding="utf-8"?>
+<inkml:ink xmlns:inkml="http://www.w3.org/2003/InkML">
+  <inkml:definitions>
+    <inkml:context xml:id="ctx0">
+      <inkml:inkSource xml:id="inkSrc0">
+        <inkml:traceFormat>
+          <inkml:channel name="X" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
+          <inkml:channel name="Y" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
+          <inkml:channel name="F" type="integer" max="32767" units="dev"/>
+        </inkml:traceFormat>
+        <inkml:channelProperties>
+          <inkml:channelProperty channel="X" name="resolution" value="1000" units="1/cm"/>
+          <inkml:channelProperty channel="Y" name="resolution" value="1000" units="1/cm"/>
+          <inkml:channelProperty channel="F" name="resolution" value="0" units="1/dev"/>
+        </inkml:channelProperties>
+      </inkml:inkSource>
+      <inkml:timestamp xml:id="ts0" timeString="2020-04-19T12:04:10.425"/>
+    </inkml:context>
+    <inkml:brush xml:id="br0">
+      <inkml:brushProperty name="width" value="0.05" units="cm"/>
+      <inkml:brushProperty name="height" value="0.05" units="cm"/>
+    </inkml:brush>
+  </inkml:definitions>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0">299 0 24575,'-4'9'0,"-1"-1"0,-3 1 0,-1 0 0,4-1 0,-3 1 0,7-1 0,-6 1 0,2-1 0,-4 1 0,0-1 0,5 1 0,-4-1 0,3 1 0,-4-1 0,1 1 0,3 0 0,-3-1 0,3 5 0,-4 1 0,0 1 0,-1 7 0,1-6 0,-1 8 0,5-10 0,0 4 0,-3-4 0,1 10 0,-2-4 0,0-1 0,4-1 0,0-4 0,-3 5 0,3-5 0,0 9 0,-3-12 0,7 16 0,-7-11 0,2 21 0,1-16 0,-3 14 0,3-21 0,0 3 0,1-5 0,4-2 0,-4 10 0,3-10 0,-2 18 0,3-17 0,0 9 0,0-11 0,0 3 0,0 2 0,0 4 0,0 1 0,0 0 0,0 4 0,0 3 0,0 4 0,0 12 0,0-8 0,0 7 0,0-11 0,0 1 0,3-9 0,2 14 0,4-20 0,-5 10 0,0-14 0,0 1 0,1 4 0,4-2 0,3 9 0,-6-13 0,13 16 0,-12-15 0,13 15 0,-15-16 0,19 17 0,-16-17 0,12 10 0,-7-9 0,-4-2 0,4 2 0,-5-3 0,1-1 0,12 14 0,-9-14 0,33 34 0,-30-33 0,30 28 0,-34-26 0,14 9 0,-16-11 0,11 11 0,-9-13 0,16 8 0,-15-10 0,7 3 0,-10 1 0,16-4 0,-12 2 0,24-2 0,-25 0 0,33 7 0,-30-10 0,35 14 0,-38-14 0,25 9 0,-26-10 0,22 11 0,-21-10 0,25 11 0,-20-8 0,48 13 0,-42-10 0,50 9 0,-53-15 0,75 6 0,-58-7 0,43 3 0,-55-4 0,44 0 0,-44 0 0,33 2 0,-2 1 0,-33-2 0,53 3 0,-64-4 0,35 0 0,-32 0 0,56 0 0,-45 0 0,24 0 0,-27 0 0,-9 0 0,26 9 0,-20-6 0,37 6 0,-38-9 0,32 0 0,-37 0 0,33 0 0,-26 0 0,32 0 0,-21 0 0,12 0 0,-25 0 0,8 0 0,-3 0 0,-2 0 0,17 0 0,-26 0 0,38 0 0,-32 0 0,42 0 0,-32 0 0,24 0 0,-30 0 0,38 0 0,-44 0 0,48 0 0,-47 0 0,20 0 0,-13 0 0,12 0 0,-10 0 0,17 0 0,-17 0 0,32 0 0,-29 0 0,35 0 0,-36 0 0,28 0 0,-33 0 0,33 0 0,-32 0 0,29 0 0,-16 0 0,23 0 0,-30 0 0,33 0 0,-39 0 0,28 0 0,-26 4 0,17-3 0,-22 3 0,21-4 0,-26 0 0,8 4 0,9-3 0,2 2 0,7-3 0,0 0 0,-27 0 0,21 0 0,-24 0 0,29 0 0,-20 0 0,30 0 0,-18 0 0,18 0 0,-30 0 0,21 0 0,-26 0 0,22 0 0,-13 0 0,26 0 0,-13 0 0,16 0 0,-25 0 0,14 0 0,-21 0 0,30 0 0,-25 0 0,40 0 0,-41 0 0,52 0 0,-52 0 0,36 0 0,-31 0 0,21 0 0,-29 0 0,18 0 0,-16 0 0,16 0 0,-13 0 0,30 0 0,-43 0 0,39 0 0,-42 0 0,29 0 0,-24 0 0,38 0 0,-28 0 0,12 0 0,-19 5 0,-7-4 0,12 3 0,-9-4 0,21 0 0,-21 8 0,10-6 0,-10 7 0,21-9 0,-9 0 0,10 0 0,4 0 0,3 0 0,-1 0 0,8 0 0,-27 0 0,14 0 0,-9 0 0,22 4 0,-26 1 0,20 0 0,-31-1 0,26 0 0,-23-2 0,29 2 0,-26-4 0,17 0 0,-13 9 0,21-7 0,-23 7 0,21-9 0,-29 0 0,18 0 0,-8 0 0,9 0 0,-14 0 0,24 0 0,-26 0 0,28 0 0,-31 0 0,16 0 0,-20 0 0,21 0 0,-17 0 0,22 0 0,-21 0 0,23 4 0,-27-3 0,19 7 0,-22-7 0,18 3 0,-16-4 0,21 0 0,-22 0 0,30 4 0,-28-4 0,23 4 0,-26-4 0,19 0 0,-18 0 0,18 0 0,-3 0 0,-6 0 0,5 4 0,-17 1 0,13 0 0,-10-2 0,22 2 0,-21-4 0,21 3 0,-17 0 0,13-3 0,-14 3 0,25 0 0,-21-3 0,15 3 0,-18-4 0,2 9 0,-2-7 0,8 6 0,-14-8 0,22 4 0,-15-3 0,15 7 0,-17-8 0,9 4 0,-14-4 0,6 0 0,4 4 0,-4-3 0,4 3 0,-7-4 0,16 8 0,-4-6 0,7 7 0,-5-9 0,-16 0 0,12 3 0,-8-2 0,10 7 0,-11-3 0,3 0 0,-8-1 0,3-4 0,-2 0 0,6 8 0,-7-6 0,7 9 0,-2-10 0,7 6 0,-3-6 0,3 7 0,-8-7 0,-1 3 0,-3 0 0,-1 0 0,1 1 0,3 3 0,-2-7 0,10 2 0,-10 1 0,14-3 0,-14 3 0,6 0 0,-7-3 0,15 10 0,-12-9 0,12 6 0,-16-5 0,5-2 0,-4 3 0,7 0 0,-6-3 0,10 6 0,-10-6 0,18 11 0,-13-7 0,6 8 0,-9-8 0,-3-2 0,-1-3 0,1 4 0,-1-3 0,5 7 0,-3-3 0,7 8 0,-8-8 0,8 7 0,-11-7 0,14 4 0,-14-1 0,11 1 0,-9-1 0,4 5 0,-2-4 0,2 4 0,-3-5 0,-1 1 0,1-1 0,0 1 0,-1-1 0,1 1 0,-5-1 0,0 1 0,4 3 0,-3-2 0,12 6 0,-12-7 0,3 11 0,-4-9 0,0 9 0,5-11 0,-1 11 0,-3-9 0,3 12 0,-3-12 0,-1 5 0,4-8 0,-3 9 0,0-6 0,-1 6 0,0-1 0,1 6 0,-1-3 0,4 8 0,-7-16 0,6 13 0,-2-14 0,0 14 0,3-14 0,-8 14 0,4-14 0,0 19 0,1-18 0,0 14 0,-2-16 0,-3 19 0,0-15 0,0 11 0,0-11 0,0 0 0,0 0 0,0 0 0,0-1 0,0-3 0,0 15 0,0-12 0,0 23 0,0-18 0,0 17 0,0-20 0,0 10 0,0-13 0,0 5 0,0-7 0,0-1 0,0 1 0,-3-1 0,2 5 0,-3 1 0,-4 3 0,6-3 0,-6-2 0,4-3 0,4-1 0,-4 5 0,4-4 0,-4 3 0,3-3 0,-7 0 0,3-1 0,-3 1 0,-1-1 0,4 1 0,-3 7 0,4-6 0,-9 14 0,7-14 0,-1 7 0,3-9 0,3 1 0,-3 4 0,4-4 0,-4 5 0,-1-6 0,0 4 0,1-2 0,1 2 0,-2-3 0,-4 3 0,4-2 0,-2 2 0,6-11 0,-3-2 0,4-8 0,0 0 0,0 1 0,0-1 0,0 0 0,0 1 0,0-1 0,0 0 0,4-3 0,0 2 0,9-10 0,-8 17 0,7-4 0,-11 16 0,2-1 0,-3 1 0,0-1 0,0 1 0,0 3 0,0-2 0,0 2 0,0-3 0,0-1 0,0 1 0,4-1 0,1-3 0,4-1 0,-1-4 0,1 0 0,-1 0 0,1 0 0,-1-4 0,1-1 0,-1-4 0,1 5 0,-1-4 0,1 3 0,0-4 0,-1 1 0,1 3 0,-1 1 0,1 0 0,-8 7 0,-2-2 0,-4 7 0,-3 1 0,3-1 0,-3-3 0,-1 3 0,0-3 0,0 3 0,1 1 0,-1-5 0,0 4 0,-3-3 0,2 3 0,-2 1 0,3-4 0,0-2 0,1-3 0,-1 0 0,0 0 0,1 0 0,-5 0 0,3 0 0,-2 0 0,3-3 0,1-2 0,3-4 0,-3 0 0,-1-7 0,0 5 0,-4-5 0,8 7 0,1 1 0,1-1 0,2 0 0,-3 1 0,4-1 0,-4 0 0,-1-3 0,0 2 0,-2-3 0,6 5 0,-3-1 0,4-3 0,0 2 0,0-3 0,0 5 0,0-1 0,0 0 0,0 4 0,0 2 0</inkml:trace>
+</inkml:ink>
+</file>
+
+<file path=xl/ink/ink4.xml><?xml version="1.0" encoding="utf-8"?>
+<inkml:ink xmlns:inkml="http://www.w3.org/2003/InkML">
+  <inkml:definitions>
+    <inkml:context xml:id="ctx0">
+      <inkml:inkSource xml:id="inkSrc0">
+        <inkml:traceFormat>
+          <inkml:channel name="X" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
+          <inkml:channel name="Y" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
+          <inkml:channel name="F" type="integer" max="32767" units="dev"/>
+        </inkml:traceFormat>
+        <inkml:channelProperties>
+          <inkml:channelProperty channel="X" name="resolution" value="1000" units="1/cm"/>
+          <inkml:channelProperty channel="Y" name="resolution" value="1000" units="1/cm"/>
+          <inkml:channelProperty channel="F" name="resolution" value="0" units="1/dev"/>
+        </inkml:channelProperties>
+      </inkml:inkSource>
+      <inkml:timestamp xml:id="ts0" timeString="2020-04-19T12:04:42.988"/>
+    </inkml:context>
+    <inkml:brush xml:id="br0">
+      <inkml:brushProperty name="width" value="0.05" units="cm"/>
+      <inkml:brushProperty name="height" value="0.05" units="cm"/>
+    </inkml:brush>
+  </inkml:definitions>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0">1818 593 24575,'5'8'0,"-2"1"0,-3-1 0,0 1 0,0-1 0,0 1 0,0 0 0,0-1 0,0 1 0,0 4 0,0-4 0,0 4 0,0-4 0,0 9 0,0-7 0,0 7 0,0-9 0,0 0 0,0-1 0,0 1 0,0-1 0,-3 5 0,2-4 0,-7 7 0,3-6 0,-4 6 0,5-7 0,0 4 0,4-5 0,0 1 0,0-1 0,0 1 0,-4-1 0,-1 1 0,0-1 0,-2 5 0,2-4 0,-4 4 0,0-5 0,1 4 0,-1-2 0,0 2 0,1-3 0,-1-1 0,0 1 0,1-1 0,-1 1 0,0 0 0,1-1 0,-1 1 0,-11 7 0,8-6 0,-12 6 0,14-7 0,-6-1 0,6-3 0,-10 10 0,9-12 0,-13 13 0,13-15 0,-18 7 0,18-3 0,-17 7 0,13-6 0,-11 5 0,12-10 0,-7 7 0,11-7 0,-2 3 0,-13-4 0,12 0 0,-24 8 0,25-5 0,-25 5 0,24-8 0,-30 0 0,20 4 0,-30-3 0,24 8 0,-22-8 0,34 3 0,-26 0 0,31-3 0,-26 4 0,26-5 0,-26 0 0,22 0 0,-31 0 0,29 0 0,-33 0 0,37 0 0,-24 0 0,27 0 0,-18 0 0,17 0 0,-21-5 0,21 4 0,-21-11 0,17 5 0,-19-6 0,19 4 0,-17-5 0,21 4 0,-16-3 0,17 8 0,-5-3 0,7 7 0,-8-10 0,7 5 0,-7-6 0,9 3 0,-5 4 0,4-3 0,-8-4 0,8 1 0,-12-13 0,11 13 0,-11-13 0,11 13 0,-10-14 0,13 15 0,-12-18 0,13 11 0,-12-17 0,12 17 0,-10-13 0,14 19 0,-10-17 0,7 16 0,-8-17 0,7 19 0,-1-7 0,-1-3 0,-2-3 0,1 0 0,1-1 0,8 14 0,0-6 0,-4 6 0,3-10 0,-3 9 0,4-13 0,0 13 0,0-13 0,0 14 0,0-11 0,0 12 0,0-8 0,0 8 0,0-8 0,0 8 0,0-8 0,4 8 0,1-4 0,0 4 0,2 1 0,-2-9 0,8 2 0,-3-3 0,2 5 0,-4 5 0,5-5 0,0 4 0,0-4 0,0 4 0,7-7 0,-1 1 0,3-3 0,-5 5 0,-8 8 0,-1 1 0,5 0 0,5-5 0,27-10 0,-21 8 0,24-6 0,-24 12 0,-3-5 0,17 1 0,-25 0 0,29-8 0,-30 10 0,17-5 0,-19 8 0,6 3 0,-6-2 0,13-1 0,-7-6 0,5 4 0,-8-2 0,8 4 0,-5-2 0,22-3 0,-17-1 0,16 1 0,-21 4 0,4-3 0,-11 7 0,3-2 0,-10 3 0,1 0 0,-12 0 0,0 0 0,1 0 0,-1 0 0,0 0 0,1 0 0,-1 0 0,0-4 0,1-1 0,-1 0 0,0 1 0,1 4 0,-1 0 0,0 0 0,1 0 0,-1 0 0,0 0 0,1 0 0,-1 0 0,0 0 0,-3 0 0,2 0 0,-3 0 0,5 0 0,7 0 0,14 4 0,-2-3 0,10 4 0,-12-2 0,7 6 0,-6 0 0,6 0 0,-7-5 0,-1 0 0,1-3 0,-1 2 0,5-3 0,-4 0 0,8 0 0,-7 0 0,3 0 0,-5 0 0,9 0 0,-6 0 0,6 4 0,-12 5 0,-5 0 0,-5 3 0,-4-3 0,0 0 0,1-1 0,-1 1 0,-4-5 0,4 4 0,-4-3 0,5 3 0,3-3 0,1-1 0</inkml:trace>
+</inkml:ink>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1478,10 +2378,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{087CE270-871B-7A4C-8005-D439E96172C9}">
-  <dimension ref="A1:G84"/>
+  <dimension ref="A1:I80"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G79" sqref="G79"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="E72" sqref="A72:E80"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -1491,12 +2391,12 @@
     <col min="4" max="4" width="13.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:9">
       <c r="A1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:3">
+    <row r="2" spans="1:9">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -1504,604 +2404,1221 @@
         <v>2</v>
       </c>
       <c r="C2" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9">
       <c r="A3" t="s">
-        <v>3</v>
+        <v>120</v>
       </c>
       <c r="B3" t="s">
         <v>2</v>
       </c>
       <c r="C3" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9">
       <c r="A4" t="s">
-        <v>4</v>
+        <v>121</v>
       </c>
       <c r="B4" t="s">
         <v>2</v>
       </c>
       <c r="C4" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9">
       <c r="A5" t="s">
-        <v>5</v>
+        <v>122</v>
       </c>
       <c r="B5" t="s">
         <v>2</v>
       </c>
       <c r="C5" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9">
+      <c r="A7" s="16"/>
+      <c r="B7" s="16"/>
+      <c r="C7" s="16"/>
+      <c r="D7" s="16"/>
+      <c r="E7" s="16"/>
+      <c r="F7" s="16"/>
+      <c r="G7" s="2"/>
+    </row>
+    <row r="8" spans="1:9">
+      <c r="A8" s="16"/>
+      <c r="B8" s="19" t="s">
+        <v>110</v>
+      </c>
+      <c r="C8" s="19"/>
+      <c r="D8" s="17" t="s">
+        <v>111</v>
+      </c>
+      <c r="E8" s="19"/>
+      <c r="F8" s="19" t="s">
+        <v>110</v>
+      </c>
+      <c r="G8" s="2"/>
+    </row>
+    <row r="9" spans="1:9">
+      <c r="A9" s="17"/>
+      <c r="B9" s="18" t="s">
+        <v>83</v>
+      </c>
+      <c r="C9" s="18"/>
+      <c r="D9" s="18" t="s">
+        <v>86</v>
+      </c>
+      <c r="E9" s="18"/>
+      <c r="F9" s="18" t="s">
+        <v>83</v>
+      </c>
+      <c r="G9" s="2"/>
+      <c r="H9" s="2"/>
+      <c r="I9" s="2"/>
+    </row>
+    <row r="10" spans="1:9">
+      <c r="A10" s="20" t="s">
+        <v>113</v>
+      </c>
+      <c r="B10" s="16" t="s">
+        <v>82</v>
+      </c>
+      <c r="C10" s="16" t="s">
+        <v>85</v>
+      </c>
+      <c r="D10" s="16" t="s">
+        <v>49</v>
+      </c>
+      <c r="E10" s="16" t="s">
+        <v>88</v>
+      </c>
+      <c r="F10" s="16" t="s">
+        <v>82</v>
+      </c>
+      <c r="G10" s="2"/>
+      <c r="H10" s="2"/>
+      <c r="I10" s="2"/>
+    </row>
+    <row r="11" spans="1:9">
+      <c r="A11" s="20"/>
+      <c r="B11" s="16" t="s">
+        <v>84</v>
+      </c>
+      <c r="C11" s="16"/>
+      <c r="D11" s="16" t="s">
+        <v>87</v>
+      </c>
+      <c r="E11" s="16"/>
+      <c r="F11" s="16" t="s">
+        <v>87</v>
+      </c>
+      <c r="G11" s="2"/>
+      <c r="H11" s="2"/>
+      <c r="I11" s="2"/>
+    </row>
+    <row r="12" spans="1:9">
+      <c r="A12" s="20"/>
+      <c r="B12" s="16" t="s">
+        <v>90</v>
+      </c>
+      <c r="C12" s="16"/>
+      <c r="D12" s="16" t="s">
+        <v>89</v>
+      </c>
+      <c r="E12" s="16"/>
+      <c r="F12" s="16" t="s">
+        <v>89</v>
+      </c>
+      <c r="G12" s="2"/>
+      <c r="H12" s="2"/>
+      <c r="I12" s="2"/>
+    </row>
+    <row r="13" spans="1:9" ht="47" customHeight="1">
+      <c r="A13" s="20"/>
+      <c r="B13" s="16"/>
+      <c r="C13" s="16"/>
+      <c r="D13" s="16"/>
+      <c r="E13" s="16"/>
+      <c r="F13" s="16"/>
+      <c r="G13" s="2"/>
+      <c r="H13" s="2"/>
+      <c r="I13" s="2"/>
+    </row>
+    <row r="14" spans="1:9">
+      <c r="A14" s="20"/>
+      <c r="B14" s="17" t="s">
+        <v>123</v>
+      </c>
+      <c r="C14" s="19"/>
+      <c r="D14" s="19" t="s">
+        <v>110</v>
+      </c>
+      <c r="E14" s="16"/>
+      <c r="F14" s="16"/>
+      <c r="G14" s="2"/>
+      <c r="H14" s="2"/>
+      <c r="I14" s="2"/>
+    </row>
+    <row r="15" spans="1:9">
+      <c r="A15" s="20"/>
+      <c r="B15" s="18" t="s">
+        <v>86</v>
+      </c>
+      <c r="C15" s="18"/>
+      <c r="D15" s="18" t="s">
+        <v>83</v>
+      </c>
+      <c r="E15" s="16"/>
+      <c r="F15" s="16"/>
+      <c r="G15" s="2"/>
+      <c r="H15" s="2"/>
+      <c r="I15" s="2"/>
+    </row>
+    <row r="16" spans="1:9">
+      <c r="A16" s="20" t="s">
+        <v>114</v>
+      </c>
+      <c r="B16" s="16" t="s">
+        <v>91</v>
+      </c>
+      <c r="C16" s="16" t="s">
+        <v>85</v>
+      </c>
+      <c r="D16" s="16" t="s">
+        <v>94</v>
+      </c>
+      <c r="E16" s="21" t="s">
+        <v>95</v>
+      </c>
+      <c r="F16" s="16"/>
+      <c r="G16" s="2"/>
+      <c r="H16" s="2"/>
+      <c r="I16" s="2"/>
+    </row>
+    <row r="17" spans="1:9">
+      <c r="A17" s="20"/>
+      <c r="B17" s="16" t="s">
+        <v>92</v>
+      </c>
+      <c r="C17" s="16"/>
+      <c r="D17" s="16" t="s">
+        <v>84</v>
+      </c>
+      <c r="E17" s="16"/>
+      <c r="F17" s="16"/>
+      <c r="G17" s="2"/>
+      <c r="H17" s="2"/>
+      <c r="I17" s="2"/>
+    </row>
+    <row r="18" spans="1:9">
+      <c r="A18" s="20"/>
+      <c r="B18" s="16" t="s">
+        <v>93</v>
+      </c>
+      <c r="C18" s="16"/>
+      <c r="D18" s="16" t="s">
+        <v>90</v>
+      </c>
+      <c r="E18" s="16"/>
+      <c r="F18" s="16"/>
+      <c r="G18" s="2"/>
+      <c r="H18" s="2"/>
+      <c r="I18" s="2"/>
+    </row>
+    <row r="19" spans="1:9" ht="47" customHeight="1">
+      <c r="A19" s="20"/>
+      <c r="B19" s="16"/>
+      <c r="C19" s="16"/>
+      <c r="D19" s="16"/>
+      <c r="E19" s="16"/>
+      <c r="F19" s="16"/>
+      <c r="G19" s="2"/>
+      <c r="H19" s="2"/>
+      <c r="I19" s="2"/>
+    </row>
+    <row r="20" spans="1:9">
+      <c r="A20" s="20" t="s">
+        <v>115</v>
+      </c>
+      <c r="B20" s="16"/>
+      <c r="C20" s="16" t="s">
+        <v>96</v>
+      </c>
+      <c r="D20" s="16"/>
+      <c r="E20" s="16"/>
+      <c r="F20" s="16"/>
+      <c r="G20" s="2"/>
+      <c r="H20" s="2"/>
+      <c r="I20" s="2"/>
+    </row>
+    <row r="21" spans="1:9">
+      <c r="A21" s="20"/>
+      <c r="B21" s="16"/>
+      <c r="C21" s="16" t="s">
+        <v>97</v>
+      </c>
+      <c r="D21" s="16"/>
+      <c r="E21" s="16"/>
+      <c r="F21" s="16"/>
+      <c r="G21" s="2"/>
+      <c r="H21" s="2"/>
+      <c r="I21" s="2"/>
+    </row>
+    <row r="22" spans="1:9" ht="47" customHeight="1">
+      <c r="A22" s="20"/>
+      <c r="B22" s="16"/>
+      <c r="C22" s="16"/>
+      <c r="D22" s="16"/>
+      <c r="E22" s="16"/>
+      <c r="F22" s="16"/>
+      <c r="G22" s="2"/>
+      <c r="H22" s="2"/>
+      <c r="I22" s="2"/>
+    </row>
+    <row r="23" spans="1:9">
+      <c r="A23" s="20" t="s">
+        <v>116</v>
+      </c>
+      <c r="B23" s="16"/>
+      <c r="C23" s="16" t="s">
+        <v>98</v>
+      </c>
+      <c r="D23" s="21" t="s">
+        <v>100</v>
+      </c>
+      <c r="E23" s="16"/>
+      <c r="F23" s="16"/>
+      <c r="G23" s="2"/>
+      <c r="H23" s="2"/>
+      <c r="I23" s="2"/>
+    </row>
+    <row r="24" spans="1:9">
+      <c r="A24" s="20"/>
+      <c r="B24" s="16"/>
+      <c r="C24" s="16" t="s">
+        <v>99</v>
+      </c>
+      <c r="D24" s="16"/>
+      <c r="E24" s="16"/>
+      <c r="F24" s="16"/>
+      <c r="G24" s="2"/>
+      <c r="H24" s="2"/>
+      <c r="I24" s="2"/>
+    </row>
+    <row r="25" spans="1:9" ht="47" customHeight="1">
+      <c r="A25" s="20"/>
+      <c r="B25" s="16"/>
+      <c r="C25" s="16"/>
+      <c r="D25" s="16"/>
+      <c r="E25" s="16"/>
+      <c r="F25" s="16"/>
+      <c r="G25" s="2"/>
+      <c r="H25" s="2"/>
+      <c r="I25" s="2"/>
+    </row>
+    <row r="26" spans="1:9">
+      <c r="A26" s="20"/>
+      <c r="B26" s="19" t="s">
+        <v>112</v>
+      </c>
+      <c r="C26" s="19"/>
+      <c r="D26" s="17" t="s">
+        <v>123</v>
+      </c>
+      <c r="E26" s="19"/>
+      <c r="F26" s="19" t="s">
+        <v>112</v>
+      </c>
+      <c r="G26" s="2"/>
+      <c r="H26" s="2"/>
+      <c r="I26" s="2"/>
+    </row>
+    <row r="27" spans="1:9">
+      <c r="A27" s="20"/>
+      <c r="B27" s="18" t="s">
+        <v>83</v>
+      </c>
+      <c r="C27" s="18"/>
+      <c r="D27" s="18" t="s">
+        <v>86</v>
+      </c>
+      <c r="E27" s="18"/>
+      <c r="F27" s="18" t="s">
+        <v>83</v>
+      </c>
+      <c r="G27" s="2"/>
+      <c r="H27" s="2"/>
+      <c r="I27" s="2"/>
+    </row>
+    <row r="28" spans="1:9">
+      <c r="A28" s="20" t="s">
+        <v>117</v>
+      </c>
+      <c r="B28" s="16" t="s">
+        <v>101</v>
+      </c>
+      <c r="C28" s="16" t="s">
+        <v>85</v>
+      </c>
+      <c r="D28" s="16" t="s">
+        <v>91</v>
+      </c>
+      <c r="E28" s="16" t="s">
+        <v>88</v>
+      </c>
+      <c r="F28" s="16" t="s">
+        <v>101</v>
+      </c>
+      <c r="G28" s="2"/>
+      <c r="H28" s="2"/>
+      <c r="I28" s="2"/>
+    </row>
+    <row r="29" spans="1:9">
+      <c r="A29" s="20"/>
+      <c r="B29" s="16" t="s">
+        <v>102</v>
+      </c>
+      <c r="C29" s="16"/>
+      <c r="D29" s="16" t="s">
+        <v>92</v>
+      </c>
+      <c r="E29" s="16"/>
+      <c r="F29" s="16" t="s">
+        <v>103</v>
+      </c>
+      <c r="G29" s="2"/>
+      <c r="H29" s="2"/>
+      <c r="I29" s="2"/>
+    </row>
+    <row r="30" spans="1:9">
+      <c r="A30" s="20"/>
+      <c r="B30" s="16" t="s">
+        <v>54</v>
+      </c>
+      <c r="C30" s="16"/>
+      <c r="D30" s="16" t="s">
+        <v>93</v>
+      </c>
+      <c r="E30" s="16"/>
+      <c r="F30" s="16" t="s">
+        <v>104</v>
+      </c>
+      <c r="G30" s="2"/>
+      <c r="H30" s="2"/>
+      <c r="I30" s="2"/>
+    </row>
+    <row r="31" spans="1:9" ht="47" customHeight="1">
+      <c r="A31" s="20"/>
+      <c r="B31" s="16"/>
+      <c r="C31" s="16"/>
+      <c r="D31" s="16"/>
+      <c r="E31" s="16"/>
+      <c r="F31" s="16"/>
+      <c r="G31" s="2"/>
+      <c r="H31" s="2"/>
+      <c r="I31" s="2"/>
+    </row>
+    <row r="32" spans="1:9">
+      <c r="A32" s="20"/>
+      <c r="B32" s="17" t="s">
+        <v>123</v>
+      </c>
+      <c r="C32" s="19"/>
+      <c r="D32" s="19" t="s">
+        <v>112</v>
+      </c>
+      <c r="E32" s="16"/>
+      <c r="F32" s="16"/>
+      <c r="G32" s="2"/>
+      <c r="H32" s="2"/>
+      <c r="I32" s="2"/>
+    </row>
+    <row r="33" spans="1:9">
+      <c r="A33" s="20"/>
+      <c r="B33" s="18" t="s">
+        <v>86</v>
+      </c>
+      <c r="C33" s="18"/>
+      <c r="D33" s="18" t="s">
+        <v>83</v>
+      </c>
+      <c r="E33" s="16"/>
+      <c r="F33" s="16"/>
+      <c r="G33" s="2"/>
+      <c r="H33" s="2"/>
+      <c r="I33" s="2"/>
+    </row>
+    <row r="34" spans="1:9">
+      <c r="A34" s="20" t="s">
+        <v>118</v>
+      </c>
+      <c r="B34" s="16" t="s">
+        <v>91</v>
+      </c>
+      <c r="C34" s="16" t="s">
+        <v>105</v>
+      </c>
+      <c r="D34" s="16" t="s">
+        <v>106</v>
+      </c>
+      <c r="E34" s="21" t="s">
+        <v>107</v>
+      </c>
+      <c r="F34" s="16"/>
+      <c r="G34" s="2"/>
+      <c r="H34" s="2"/>
+      <c r="I34" s="2"/>
+    </row>
+    <row r="35" spans="1:9">
+      <c r="A35" s="20"/>
+      <c r="B35" s="16" t="s">
+        <v>102</v>
+      </c>
+      <c r="C35" s="16"/>
+      <c r="D35" s="16" t="s">
+        <v>102</v>
+      </c>
+      <c r="E35" s="16"/>
+      <c r="F35" s="16"/>
+      <c r="G35" s="2"/>
+      <c r="H35" s="2"/>
+      <c r="I35" s="2"/>
+    </row>
+    <row r="36" spans="1:9">
+      <c r="A36" s="20"/>
+      <c r="B36" s="16" t="s">
+        <v>54</v>
+      </c>
+      <c r="C36" s="16"/>
+      <c r="D36" s="16" t="s">
+        <v>54</v>
+      </c>
+      <c r="E36" s="16"/>
+      <c r="F36" s="16"/>
+      <c r="G36" s="2"/>
+      <c r="H36" s="2"/>
+      <c r="I36" s="2"/>
+    </row>
+    <row r="37" spans="1:9" ht="47" customHeight="1">
+      <c r="A37" s="20"/>
+      <c r="B37" s="16"/>
+      <c r="C37" s="16"/>
+      <c r="D37" s="16"/>
+      <c r="E37" s="16"/>
+      <c r="F37" s="16"/>
+      <c r="G37" s="2"/>
+      <c r="H37" s="2"/>
+      <c r="I37" s="2"/>
+    </row>
+    <row r="38" spans="1:9">
+      <c r="A38" s="20" t="s">
+        <v>116</v>
+      </c>
+      <c r="B38" s="16"/>
+      <c r="C38" s="16" t="s">
+        <v>98</v>
+      </c>
+      <c r="D38" s="21" t="s">
+        <v>100</v>
+      </c>
+      <c r="E38" s="16"/>
+      <c r="F38" s="16"/>
+      <c r="G38" s="2"/>
+      <c r="H38" s="2"/>
+      <c r="I38" s="2"/>
+    </row>
+    <row r="39" spans="1:9">
+      <c r="A39" s="20"/>
+      <c r="B39" s="16"/>
+      <c r="C39" s="16" t="s">
+        <v>99</v>
+      </c>
+      <c r="D39" s="16"/>
+      <c r="E39" s="16"/>
+      <c r="F39" s="16"/>
+      <c r="G39" s="2"/>
+      <c r="H39" s="2"/>
+      <c r="I39" s="2"/>
+    </row>
+    <row r="40" spans="1:9" ht="47" customHeight="1">
+      <c r="A40" s="20"/>
+      <c r="B40" s="16"/>
+      <c r="C40" s="16"/>
+      <c r="D40" s="16"/>
+      <c r="E40" s="16"/>
+      <c r="F40" s="16"/>
+      <c r="G40" s="2"/>
+      <c r="H40" s="2"/>
+      <c r="I40" s="2"/>
+    </row>
+    <row r="41" spans="1:9">
+      <c r="A41" s="20" t="s">
+        <v>119</v>
+      </c>
+      <c r="B41" s="16"/>
+      <c r="C41" s="16" t="s">
+        <v>108</v>
+      </c>
+      <c r="D41" s="16"/>
+      <c r="E41" s="16"/>
+      <c r="F41" s="16"/>
+      <c r="G41" s="2"/>
+      <c r="H41" s="2"/>
+      <c r="I41" s="2"/>
+    </row>
+    <row r="42" spans="1:9">
+      <c r="A42" s="14"/>
+      <c r="B42" s="16"/>
+      <c r="C42" s="16" t="s">
+        <v>109</v>
+      </c>
+      <c r="D42" s="16"/>
+      <c r="E42" s="16"/>
+      <c r="F42" s="16"/>
+      <c r="G42" s="2"/>
+      <c r="H42" s="2"/>
+      <c r="I42" s="2"/>
+    </row>
+    <row r="43" spans="1:9">
+      <c r="A43" s="14"/>
+      <c r="B43" s="16"/>
+      <c r="C43" s="16"/>
+      <c r="D43" s="16"/>
+      <c r="E43" s="16"/>
+      <c r="F43" s="16"/>
+      <c r="G43" s="2"/>
+      <c r="H43" s="2"/>
+      <c r="I43" s="2"/>
+    </row>
+    <row r="44" spans="1:9">
+      <c r="A44" s="14"/>
+      <c r="B44" s="16"/>
+      <c r="C44" s="16"/>
+      <c r="D44" s="16"/>
+      <c r="E44" s="16"/>
+      <c r="F44" s="16"/>
+      <c r="G44" s="2"/>
+      <c r="H44" s="2"/>
+      <c r="I44" s="2"/>
+    </row>
+    <row r="45" spans="1:9">
+      <c r="A45" s="16"/>
+      <c r="B45" s="16"/>
+      <c r="C45" s="16"/>
+      <c r="D45" s="16"/>
+      <c r="E45" s="16"/>
+      <c r="F45" s="16"/>
+      <c r="G45" s="2"/>
+      <c r="H45" s="2"/>
+      <c r="I45" s="2"/>
+    </row>
+    <row r="46" spans="1:9">
+      <c r="A46" s="16"/>
+      <c r="B46" s="16"/>
+      <c r="C46" s="16"/>
+      <c r="D46" s="16"/>
+      <c r="E46" s="16"/>
+      <c r="F46" s="16"/>
+      <c r="G46" s="2"/>
+      <c r="H46" s="2"/>
+      <c r="I46" s="2"/>
+    </row>
+    <row r="47" spans="1:9">
+      <c r="A47" s="2"/>
+      <c r="B47" s="2"/>
+      <c r="C47" s="2"/>
+      <c r="D47" s="2"/>
+      <c r="E47" s="2"/>
+      <c r="F47" s="2"/>
+      <c r="G47" s="2"/>
+      <c r="H47" s="2"/>
+      <c r="I47" s="2"/>
+    </row>
+    <row r="48" spans="1:9">
+      <c r="A48" s="2"/>
+      <c r="B48" s="2"/>
+      <c r="C48" s="2"/>
+      <c r="D48" s="2"/>
+      <c r="E48" s="2"/>
+      <c r="F48" s="2"/>
+      <c r="G48" s="2"/>
+      <c r="H48" s="2"/>
+      <c r="I48" s="2"/>
+    </row>
+    <row r="49" spans="1:9">
+      <c r="A49" s="2"/>
+      <c r="B49" s="2"/>
+      <c r="C49" s="2"/>
+      <c r="D49" s="2"/>
+      <c r="E49" s="2"/>
+      <c r="F49" s="2"/>
+      <c r="G49" s="2"/>
+      <c r="H49" s="2"/>
+      <c r="I49" s="2"/>
+    </row>
+    <row r="51" spans="1:9">
+      <c r="A51" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="52" spans="1:9">
+      <c r="A52" t="s">
+        <v>23</v>
+      </c>
+      <c r="B52" t="s">
+        <v>24</v>
+      </c>
+      <c r="C52" t="s">
+        <v>25</v>
+      </c>
+      <c r="D52" s="15" t="s">
+        <v>26</v>
+      </c>
+      <c r="E52" s="15"/>
+      <c r="F52" s="15" t="s">
+        <v>27</v>
+      </c>
+      <c r="G52" s="15"/>
+    </row>
+    <row r="53" spans="1:9">
+      <c r="A53">
+        <v>0</v>
+      </c>
+      <c r="B53" t="s">
+        <v>7</v>
+      </c>
+      <c r="C53" t="s">
+        <v>67</v>
+      </c>
+      <c r="D53" s="6" t="s">
+        <v>72</v>
+      </c>
+      <c r="E53" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="F53" s="12">
+        <v>0</v>
+      </c>
+      <c r="G53" s="13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="54" spans="1:9">
+      <c r="A54">
+        <v>1</v>
+      </c>
+      <c r="B54" t="s">
+        <v>8</v>
+      </c>
+      <c r="C54" t="s">
+        <v>66</v>
+      </c>
+      <c r="D54" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="E54" s="6" t="s">
+        <v>74</v>
+      </c>
+      <c r="F54" s="12">
+        <v>8</v>
+      </c>
+      <c r="G54" s="13">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="55" spans="1:9">
+      <c r="A55">
+        <v>2</v>
+      </c>
+      <c r="B55" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="10" spans="1:3">
-      <c r="A10" t="s">
+      <c r="C55" t="s">
+        <v>65</v>
+      </c>
+      <c r="D55" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="E55" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="F55" s="12">
+        <v>9</v>
+      </c>
+      <c r="G55" s="13">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="56" spans="1:9">
+      <c r="A56">
+        <v>3</v>
+      </c>
+      <c r="B56" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="55" spans="1:7">
-      <c r="A55" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="56" spans="1:7">
-      <c r="A56" t="s">
-        <v>27</v>
-      </c>
-      <c r="B56" t="s">
-        <v>28</v>
-      </c>
       <c r="C56" t="s">
+        <v>64</v>
+      </c>
+      <c r="D56" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="E56" s="8" t="s">
         <v>29</v>
       </c>
-      <c r="D56" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="E56" s="2"/>
-      <c r="F56" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="G56" s="2"/>
-    </row>
-    <row r="57" spans="1:7">
+      <c r="F56" s="12" t="s">
+        <v>49</v>
+      </c>
+      <c r="G56" s="13">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="57" spans="1:9">
       <c r="A57">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="B57" t="s">
         <v>11</v>
       </c>
       <c r="C57" t="s">
-        <v>71</v>
-      </c>
-      <c r="D57" s="7" t="s">
-        <v>76</v>
-      </c>
-      <c r="E57" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="D57" s="6" t="s">
+        <v>72</v>
+      </c>
+      <c r="E57" s="2" t="s">
         <v>77</v>
       </c>
-      <c r="F57" s="13">
+      <c r="F57" s="12">
         <v>0</v>
       </c>
-      <c r="G57" s="14">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="58" spans="1:7">
+      <c r="G57" s="13" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="58" spans="1:9">
       <c r="A58">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="B58" t="s">
         <v>12</v>
       </c>
       <c r="C58" t="s">
-        <v>70</v>
-      </c>
-      <c r="D58" s="10" t="s">
+        <v>62</v>
+      </c>
+      <c r="D58" s="9" t="s">
         <v>32</v>
       </c>
-      <c r="E58" s="7" t="s">
+      <c r="E58" s="2" t="s">
         <v>78</v>
       </c>
-      <c r="F58" s="13">
-        <v>8</v>
-      </c>
-      <c r="G58" s="14">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="59" spans="1:7">
+      <c r="F58" s="12" t="s">
+        <v>48</v>
+      </c>
+      <c r="G58" s="13">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="59" spans="1:9">
       <c r="A59">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="B59" t="s">
         <v>13</v>
       </c>
       <c r="C59" t="s">
-        <v>69</v>
-      </c>
-      <c r="D59" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="D59" s="6" t="s">
+        <v>74</v>
+      </c>
+      <c r="E59" s="2" t="s">
         <v>79</v>
       </c>
-      <c r="E59" s="10" t="s">
-        <v>32</v>
-      </c>
-      <c r="F59" s="13">
-        <v>9</v>
-      </c>
-      <c r="G59" s="14">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="60" spans="1:7">
+      <c r="F59" s="12">
+        <v>4</v>
+      </c>
+      <c r="G59" s="13" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="60" spans="1:9">
       <c r="A60">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="B60" t="s">
         <v>14</v>
       </c>
       <c r="C60" t="s">
-        <v>68</v>
-      </c>
-      <c r="D60" s="3" t="s">
-        <v>80</v>
-      </c>
-      <c r="E60" s="9" t="s">
-        <v>33</v>
-      </c>
-      <c r="F60" s="13" t="s">
-        <v>53</v>
-      </c>
-      <c r="G60" s="14">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="61" spans="1:7">
+        <v>62</v>
+      </c>
+      <c r="D60" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="E60" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="F60" s="12" t="s">
+        <v>48</v>
+      </c>
+      <c r="G60" s="13">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="61" spans="1:9">
       <c r="A61">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="B61" t="s">
         <v>15</v>
       </c>
       <c r="C61" t="s">
-        <v>67</v>
-      </c>
-      <c r="D61" s="7" t="s">
-        <v>76</v>
-      </c>
-      <c r="E61" s="3" t="s">
-        <v>81</v>
-      </c>
-      <c r="F61" s="13">
-        <v>0</v>
-      </c>
-      <c r="G61" s="14" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="62" spans="1:7">
+        <v>59</v>
+      </c>
+      <c r="D61" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="E61" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="F61" s="12">
+        <v>9</v>
+      </c>
+      <c r="G61" s="13">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="62" spans="1:9">
       <c r="A62">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="B62" t="s">
         <v>16</v>
       </c>
       <c r="C62" t="s">
-        <v>66</v>
-      </c>
-      <c r="D62" s="10" t="s">
-        <v>36</v>
-      </c>
-      <c r="E62" s="3" t="s">
-        <v>82</v>
-      </c>
-      <c r="F62" s="13" t="s">
-        <v>52</v>
-      </c>
-      <c r="G62" s="14">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="63" spans="1:7">
+        <v>60</v>
+      </c>
+      <c r="D62" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="E62" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="F62" s="12" t="s">
+        <v>50</v>
+      </c>
+      <c r="G62" s="13" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="63" spans="1:9">
       <c r="A63">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="B63" t="s">
         <v>17</v>
       </c>
       <c r="C63" t="s">
-        <v>65</v>
-      </c>
-      <c r="D63" s="7" t="s">
-        <v>78</v>
-      </c>
-      <c r="E63" s="3" t="s">
-        <v>83</v>
-      </c>
-      <c r="F63" s="13">
-        <v>4</v>
-      </c>
-      <c r="G63" s="14" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="64" spans="1:7">
+        <v>71</v>
+      </c>
+      <c r="D63" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="E63" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="F63" s="12">
+        <v>0</v>
+      </c>
+      <c r="G63" s="13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="1:9">
       <c r="A64">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="B64" t="s">
         <v>18</v>
       </c>
       <c r="C64" t="s">
-        <v>66</v>
-      </c>
-      <c r="D64" s="10" t="s">
-        <v>36</v>
-      </c>
-      <c r="E64" s="3" t="s">
-        <v>82</v>
-      </c>
-      <c r="F64" s="13" t="s">
-        <v>52</v>
-      </c>
-      <c r="G64" s="14">
-        <v>2</v>
+        <v>71</v>
+      </c>
+      <c r="D64" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="E64" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="F64" s="12">
+        <v>0</v>
+      </c>
+      <c r="G64" s="13">
+        <v>0</v>
       </c>
     </row>
     <row r="65" spans="1:7">
       <c r="A65">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="B65" t="s">
         <v>19</v>
       </c>
       <c r="C65" t="s">
-        <v>63</v>
+        <v>70</v>
       </c>
       <c r="D65" s="3" t="s">
-        <v>84</v>
-      </c>
-      <c r="E65" s="8" t="s">
-        <v>34</v>
-      </c>
-      <c r="F65" s="13">
-        <v>9</v>
-      </c>
-      <c r="G65" s="14">
-        <v>7</v>
+        <v>36</v>
+      </c>
+      <c r="E65" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="F65" s="12">
+        <v>1</v>
+      </c>
+      <c r="G65" s="13" t="s">
+        <v>49</v>
       </c>
     </row>
     <row r="66" spans="1:7">
       <c r="A66">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="B66" t="s">
         <v>20</v>
       </c>
       <c r="C66" t="s">
-        <v>64</v>
+        <v>69</v>
       </c>
       <c r="D66" s="3" t="s">
-        <v>85</v>
-      </c>
-      <c r="E66" s="9" t="s">
-        <v>35</v>
-      </c>
-      <c r="F66" s="13" t="s">
-        <v>54</v>
-      </c>
-      <c r="G66" s="14" t="s">
-        <v>6</v>
+        <v>36</v>
+      </c>
+      <c r="E66" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="F66" s="12">
+        <v>1</v>
+      </c>
+      <c r="G66" s="13">
+        <v>3</v>
       </c>
     </row>
     <row r="67" spans="1:7">
       <c r="A67">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="B67" t="s">
         <v>21</v>
       </c>
       <c r="C67" t="s">
-        <v>75</v>
-      </c>
-      <c r="D67" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="E67" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="F67" s="13">
-        <v>0</v>
-      </c>
-      <c r="G67" s="14">
-        <v>0</v>
+        <v>68</v>
+      </c>
+      <c r="D67" s="10" t="s">
+        <v>33</v>
+      </c>
+      <c r="E67" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="F67" s="12">
+        <v>4</v>
+      </c>
+      <c r="G67" s="13" t="s">
+        <v>3</v>
       </c>
     </row>
     <row r="68" spans="1:7">
       <c r="A68">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="B68" t="s">
         <v>22</v>
       </c>
       <c r="C68" t="s">
-        <v>75</v>
-      </c>
-      <c r="D68" s="5" t="s">
+        <v>71</v>
+      </c>
+      <c r="D68" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="E68" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="F68" s="12">
+        <v>0</v>
+      </c>
+      <c r="G68" s="13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="1:7">
+      <c r="A71" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="72" spans="1:7">
+      <c r="A72" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B72" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="C72" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="D72" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="E72" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="G72" s="5"/>
+    </row>
+    <row r="73" spans="1:7">
+      <c r="A73" s="12">
+        <v>0</v>
+      </c>
+      <c r="B73" s="13" t="s">
         <v>38</v>
       </c>
-      <c r="E68" s="5" t="s">
-        <v>38</v>
-      </c>
-      <c r="F68" s="13">
-        <v>0</v>
-      </c>
-      <c r="G68" s="14">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="69" spans="1:7">
-      <c r="A69">
-        <v>12</v>
-      </c>
-      <c r="B69" t="s">
-        <v>23</v>
-      </c>
-      <c r="C69" t="s">
-        <v>74</v>
-      </c>
-      <c r="D69" s="4" t="s">
+      <c r="C73" s="19" t="s">
+        <v>51</v>
+      </c>
+      <c r="D73" s="19" t="s">
+        <v>33</v>
+      </c>
+      <c r="E73" s="16" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="74" spans="1:7">
+      <c r="A74" s="12">
+        <v>1</v>
+      </c>
+      <c r="B74" s="13" t="s">
+        <v>39</v>
+      </c>
+      <c r="C74" s="19" t="s">
+        <v>52</v>
+      </c>
+      <c r="D74" s="19" t="s">
+        <v>46</v>
+      </c>
+      <c r="E74" s="16" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="75" spans="1:7">
+      <c r="A75" s="12">
+        <v>2</v>
+      </c>
+      <c r="B75" s="13" t="s">
         <v>40</v>
       </c>
-      <c r="E69" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="F69" s="13">
-        <v>1</v>
-      </c>
-      <c r="G69" s="14" t="s">
+      <c r="C75" s="19" t="s">
         <v>53</v>
       </c>
-    </row>
-    <row r="70" spans="1:7">
-      <c r="A70">
-        <v>13</v>
-      </c>
-      <c r="B70" t="s">
-        <v>24</v>
-      </c>
-      <c r="C70" t="s">
-        <v>73</v>
-      </c>
-      <c r="D70" s="4" t="s">
-        <v>40</v>
-      </c>
-      <c r="E70" s="4" t="s">
+      <c r="D75" s="19" t="s">
+        <v>47</v>
+      </c>
+      <c r="E75" s="16" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="76" spans="1:7">
+      <c r="A76" s="12">
+        <v>3</v>
+      </c>
+      <c r="B76" s="13" t="s">
         <v>41</v>
       </c>
-      <c r="F70" s="13">
-        <v>1</v>
-      </c>
-      <c r="G70" s="14">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="71" spans="1:7">
-      <c r="A71">
-        <v>14</v>
-      </c>
-      <c r="B71" t="s">
-        <v>25</v>
-      </c>
-      <c r="C71" t="s">
-        <v>72</v>
-      </c>
-      <c r="D71" s="11" t="s">
-        <v>37</v>
-      </c>
-      <c r="E71" s="12" t="s">
-        <v>35</v>
-      </c>
-      <c r="F71" s="13">
+      <c r="C76" s="16" t="s">
+        <v>34</v>
+      </c>
+      <c r="D76" s="16" t="s">
+        <v>34</v>
+      </c>
+      <c r="E76" s="16" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="77" spans="1:7">
+      <c r="A77" s="12">
         <v>4</v>
       </c>
-      <c r="G71" s="14" t="s">
+      <c r="B77" s="13" t="s">
+        <v>42</v>
+      </c>
+      <c r="C77" s="16" t="s">
+        <v>34</v>
+      </c>
+      <c r="D77" s="16" t="s">
+        <v>34</v>
+      </c>
+      <c r="E77" s="16" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="78" spans="1:7">
+      <c r="A78" s="12">
+        <v>5</v>
+      </c>
+      <c r="B78" s="13" t="s">
+        <v>43</v>
+      </c>
+      <c r="C78" s="16" t="s">
+        <v>34</v>
+      </c>
+      <c r="D78" s="16" t="s">
+        <v>34</v>
+      </c>
+      <c r="E78" s="16" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="79" spans="1:7">
+      <c r="A79" s="12">
         <v>6</v>
       </c>
-    </row>
-    <row r="72" spans="1:7">
-      <c r="A72">
-        <v>15</v>
-      </c>
-      <c r="B72" t="s">
-        <v>26</v>
-      </c>
-      <c r="C72" t="s">
-        <v>75</v>
-      </c>
-      <c r="D72" s="5" t="s">
-        <v>38</v>
-      </c>
-      <c r="E72" s="5" t="s">
-        <v>38</v>
-      </c>
-      <c r="F72" s="13">
-        <v>0</v>
-      </c>
-      <c r="G72" s="14">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="75" spans="1:7">
-      <c r="A75" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="76" spans="1:7">
-      <c r="A76" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="B76" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="C76" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="D76" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="E76" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="G76" s="6"/>
-    </row>
-    <row r="77" spans="1:7">
-      <c r="A77">
-        <v>0</v>
-      </c>
-      <c r="B77" t="s">
-        <v>42</v>
-      </c>
-      <c r="C77" s="3" t="s">
-        <v>55</v>
-      </c>
-      <c r="D77" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="E77" s="15" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="78" spans="1:7">
-      <c r="A78">
-        <v>1</v>
-      </c>
-      <c r="B78" t="s">
-        <v>43</v>
-      </c>
-      <c r="C78" s="3" t="s">
-        <v>56</v>
-      </c>
-      <c r="D78" s="3" t="s">
-        <v>50</v>
-      </c>
-      <c r="E78" s="15" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="79" spans="1:7">
-      <c r="A79">
-        <v>2</v>
-      </c>
-      <c r="B79" t="s">
+      <c r="B79" s="13" t="s">
         <v>44</v>
       </c>
-      <c r="C79" s="3" t="s">
-        <v>57</v>
-      </c>
-      <c r="D79" s="3" t="s">
-        <v>51</v>
-      </c>
-      <c r="E79" s="15" t="s">
+      <c r="C79" s="16" t="s">
+        <v>34</v>
+      </c>
+      <c r="D79" s="16" t="s">
+        <v>34</v>
+      </c>
+      <c r="E79" s="16" t="s">
         <v>54</v>
       </c>
     </row>
     <row r="80" spans="1:7">
-      <c r="A80">
-        <v>3</v>
-      </c>
-      <c r="B80" t="s">
+      <c r="A80" s="12">
+        <v>7</v>
+      </c>
+      <c r="B80" s="13" t="s">
         <v>45</v>
       </c>
-      <c r="C80" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="D80" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="E80" s="15" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="81" spans="1:5">
-      <c r="A81">
-        <v>4</v>
-      </c>
-      <c r="B81" t="s">
-        <v>46</v>
-      </c>
-      <c r="C81" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="D81" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="E81" s="15" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="82" spans="1:5">
-      <c r="A82">
-        <v>5</v>
-      </c>
-      <c r="B82" t="s">
-        <v>47</v>
-      </c>
-      <c r="C82" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="D82" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="E82" s="15" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="83" spans="1:5">
-      <c r="A83">
-        <v>6</v>
-      </c>
-      <c r="B83" t="s">
-        <v>48</v>
-      </c>
-      <c r="C83" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="D83" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="E83" s="15" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="84" spans="1:5">
-      <c r="A84">
-        <v>7</v>
-      </c>
-      <c r="B84" t="s">
-        <v>49</v>
-      </c>
-      <c r="C84" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="D84" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="E84" s="15" t="s">
-        <v>58</v>
+      <c r="C80" s="16" t="s">
+        <v>34</v>
+      </c>
+      <c r="D80" s="16" t="s">
+        <v>34</v>
+      </c>
+      <c r="E80" s="16" t="s">
+        <v>54</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="2">
-    <mergeCell ref="D56:E56"/>
-    <mergeCell ref="F56:G56"/>
+    <mergeCell ref="D52:E52"/>
+    <mergeCell ref="F52:G52"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
--- a/docs/buk_map.xlsx
+++ b/docs/buk_map.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ivanyakovenko/Documents/Processor/docs/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EC6B0F2D-4257-E644-8043-DD17246170A1}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A6CE1CAA-72E4-B842-ACB8-48EE050A2C7F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="28340" xr2:uid="{4A38C03B-82BA-544F-A426-5449FA3073AF}"/>
+    <workbookView xWindow="28800" yWindow="-7220" windowWidth="51200" windowHeight="28340" xr2:uid="{4A38C03B-82BA-544F-A426-5449FA3073AF}"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="206" uniqueCount="124">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="209" uniqueCount="127">
   <si>
     <t>Начальные значения</t>
   </si>
@@ -1040,18 +1040,6 @@
     <t>(P = 1)</t>
   </si>
   <si>
-    <t>JMP 9</t>
-  </si>
-  <si>
-    <t>0.1001</t>
-  </si>
-  <si>
-    <t>JS -9</t>
-  </si>
-  <si>
-    <t>1.0111</t>
-  </si>
-  <si>
     <t>(P == 1) ?</t>
   </si>
   <si>
@@ -1076,12 +1064,6 @@
     <t>(P = 0)</t>
   </si>
   <si>
-    <t>JMP -1</t>
-  </si>
-  <si>
-    <t>1.1111</t>
-  </si>
-  <si>
     <t>(A28)</t>
   </si>
   <si>
@@ -1122,13 +1104,40 @@
   </si>
   <si>
     <t>(R1)</t>
+  </si>
+  <si>
+    <t>CK = (CK + 1) = 17 + 1 = 18</t>
+  </si>
+  <si>
+    <t>CK = (CK + SM) = 8+8 = 16</t>
+  </si>
+  <si>
+    <t>JMP 8</t>
+  </si>
+  <si>
+    <t>0.1000</t>
+  </si>
+  <si>
+    <t>JS -10</t>
+  </si>
+  <si>
+    <t>1.0110</t>
+  </si>
+  <si>
+    <t>CK = (CK + SM) = 18-10 = 8</t>
+  </si>
+  <si>
+    <t>1.1110</t>
+  </si>
+  <si>
+    <t>JMP -2</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="17">
+  <fonts count="20">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -1225,7 +1234,23 @@
       <charset val="204"/>
     </font>
     <font>
-      <sz val="12"/>
+      <sz val="18"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="18"/>
+      <color rgb="FF0070C0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="18"/>
       <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -1233,7 +1258,7 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="12"/>
+      <sz val="18"/>
       <color theme="7" tint="-0.249977111117893"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -1241,8 +1266,16 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="12"/>
+      <sz val="18"/>
       <color rgb="FF00B050"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="18"/>
+      <color theme="5" tint="-0.249977111117893"/>
       <name val="Calibri"/>
       <family val="2"/>
       <charset val="204"/>
@@ -1275,7 +1308,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="27">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1297,27 +1330,38 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="14" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="15" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="49" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="49" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="49" fontId="14" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="14" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="49" fontId="15" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="16" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="17" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="15" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="49" fontId="16" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="18" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="14" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="49" fontId="19" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -1449,8 +1493,8 @@
     <xdr:from>
       <xdr:col>2</xdr:col>
       <xdr:colOff>698500</xdr:colOff>
-      <xdr:row>20</xdr:row>
-      <xdr:rowOff>190500</xdr:rowOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>25400</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>2</xdr:col>
@@ -1471,8 +1515,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2984500" y="5041900"/>
-          <a:ext cx="0" cy="622300"/>
+          <a:off x="2984500" y="7010400"/>
+          <a:ext cx="0" cy="584200"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -1713,18 +1757,18 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>1331640</xdr:colOff>
+      <xdr:colOff>1242740</xdr:colOff>
       <xdr:row>10</xdr:row>
-      <xdr:rowOff>12440</xdr:rowOff>
+      <xdr:rowOff>139440</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
-      <xdr:colOff>248680</xdr:colOff>
-      <xdr:row>15</xdr:row>
-      <xdr:rowOff>165860</xdr:rowOff>
+      <xdr:colOff>159780</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>191260</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
+      <mc:Choice Requires="xdr14">
         <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
           <xdr14:nvContentPartPr>
             <xdr14:cNvPr id="17" name="Рукописный ввод 16">
@@ -1738,12 +1782,12 @@
           </xdr14:nvContentPartPr>
           <xdr14:nvPr macro=""/>
           <xdr14:xfrm>
-            <a:off x="1331640" y="2044440"/>
+            <a:off x="1242740" y="3187440"/>
             <a:ext cx="3590640" cy="1563120"/>
           </xdr14:xfrm>
         </xdr:contentPart>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:pic>
           <xdr:nvPicPr>
             <xdr:cNvPr id="17" name="Рукописный ввод 16">
@@ -1785,11 +1829,11 @@
     <xdr:to>
       <xdr:col>3</xdr:col>
       <xdr:colOff>240580</xdr:colOff>
-      <xdr:row>27</xdr:row>
-      <xdr:rowOff>11720</xdr:rowOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>266700</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
+      <mc:Choice Requires="xdr14">
         <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3">
           <xdr14:nvContentPartPr>
             <xdr14:cNvPr id="18" name="Рукописный ввод 17">
@@ -1803,12 +1847,12 @@
           </xdr14:nvContentPartPr>
           <xdr14:nvPr macro=""/>
           <xdr14:xfrm>
-            <a:off x="615960" y="3959280"/>
-            <a:ext cx="3269520" cy="3113640"/>
+            <a:off x="615960" y="5584880"/>
+            <a:ext cx="3269520" cy="3775020"/>
           </xdr14:xfrm>
         </xdr:contentPart>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:pic>
           <xdr:nvPicPr>
             <xdr:cNvPr id="18" name="Рукописный ввод 17">
@@ -1843,18 +1887,18 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>1342440</xdr:colOff>
+      <xdr:colOff>1278224</xdr:colOff>
       <xdr:row>28</xdr:row>
-      <xdr:rowOff>93640</xdr:rowOff>
+      <xdr:rowOff>127000</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>999100</xdr:colOff>
-      <xdr:row>33</xdr:row>
-      <xdr:rowOff>47260</xdr:rowOff>
+      <xdr:colOff>999099</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>250460</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
+      <mc:Choice Requires="xdr14">
         <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId5">
           <xdr14:nvContentPartPr>
             <xdr14:cNvPr id="19" name="Рукописный ввод 18">
@@ -1868,12 +1912,12 @@
           </xdr14:nvContentPartPr>
           <xdr14:nvPr macro=""/>
           <xdr14:xfrm>
-            <a:off x="1342440" y="7358040"/>
-            <a:ext cx="3301560" cy="1363320"/>
+            <a:off x="1278224" y="9829800"/>
+            <a:ext cx="3365775" cy="1329960"/>
           </xdr14:xfrm>
         </xdr:contentPart>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:pic>
           <xdr:nvPicPr>
             <xdr:cNvPr id="19" name="Рукописный ввод 18">
@@ -1915,11 +1959,11 @@
     <xdr:to>
       <xdr:col>2</xdr:col>
       <xdr:colOff>682560</xdr:colOff>
-      <xdr:row>43</xdr:row>
-      <xdr:rowOff>144940</xdr:rowOff>
+      <xdr:row>42</xdr:row>
+      <xdr:rowOff>246540</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
+      <mc:Choice Requires="xdr14">
         <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId7">
           <xdr14:nvContentPartPr>
             <xdr14:cNvPr id="21" name="Рукописный ввод 20">
@@ -1938,7 +1982,7 @@
           </xdr14:xfrm>
         </xdr:contentPart>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:pic>
           <xdr:nvPicPr>
             <xdr:cNvPr id="21" name="Рукописный ввод 20">
@@ -2023,7 +2067,7 @@
       <inkml:brushProperty name="height" value="0.05" units="cm"/>
     </inkml:brush>
   </inkml:definitions>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0">2615 1 24575,'-8'3'0,"-1"-2"0,-3 7 0,2-3 0,-3 3 0,1-3 0,2 3 0,-10-4 0,9 5 0,-9 3 0,10-6 0,-7 6 0,8-7 0,-5 0 0,6 2 0,-1-6 0,0 3 0,-15 12 0,11-8 0,-20 16 0,23-14 0,-14 6 0,13-10 0,-30 17 0,26-19 0,-22 17 0,23-12 0,-11 4 0,9 1 0,-21 7 0,24-14 0,-25 14 0,26-15 0,-21 14 0,13-9 0,-15 13 0,15-17 0,-8 12 0,13-17 0,-14 18 0,12-13 0,-16 14 0,21-12 0,-29 9 0,27-9 0,-27 12 0,29-11 0,-16 7 0,14-5 0,-7 1 0,7-3 0,2 1 0,3-10 0,-8 15 0,6-13 0,-22 25 0,20-21 0,-19 17 0,21-18 0,-24 20 0,22-22 0,-21 26 0,23-23 0,-30 25 0,26-19 0,-30 16 0,33-20 0,-21 12 0,21-14 0,-26 21 0,25-20 0,-21 17 0,23-15 0,-10 2 0,0 8 0,-20 16 0,10-5 0,-7 11 0,23-27 0,-10 14 0,13-17 0,-25 29 0,19-23 0,-25 37 0,26-35 0,-22 39 0,30-43 0,-25 40 0,26-38 0,-23 31 0,20-32 0,-7 10 0,-4 16 0,14-26 0,-26 48 0,26-47 0,-27 34 0,22-24 0,-22 21 0,23-22 0,-23 30 0,22-32 0,-14 29 0,17-38 0,-13 34 0,12-30 0,-11 29 0,12-28 0,-7 21 0,2-15 0,-3 12 0,7-15 0,-9 10 0,12-12 0,-10 21 0,4-21 0,4 17 0,-4-18 0,-4 23 0,7-26 0,-12 39 0,9-37 0,3 23 0,3-28 0,3 19 0,0-22 0,-4 39 0,4-37 0,-8 32 0,11-34 0,-11 31 0,12-30 0,-8 33 0,8-29 0,-7 17 0,7-14 0,-15 17 0,13-19 0,-14 22 0,16-28 0,-3 21 0,4-17 0,-4 18 0,3-9 0,-2 11 0,3-11 0,0 17 0,0-24 0,0 18 0,0-26 0,0 14 0,0-14 0,0 10 0,0-10 0,0 2 0,0-3 0,0 7 0,0-6 0,0 14 0,0-14 0,0 14 0,0-13 0,0 9 0,0-11 0,0 11 0,0-10 0,0 7 0,0-9 0,0 8 0,0-5 0,0 9 0,0-11 0,0 7 0,0-6 0,0 6 0,0-2 0,0 3 0,0 9 0,0-11 0,0 5 0,0-12 0,0 1 0,0 3 0,0-2 0,0 6 0,0-7 0,0 11 0,0-9 0,0 5 0,0-8 0,0 17 0,0-13 0,0 20 0,0-21 0,0 13 0,0-9 0,0 9 0,0-9 0,0 9 0,0-13 0,0 20 0,0-19 0,3 20 0,-2-22 0,3 6 0,-4-7 0,0-1 0,0 1 0,0 7 0,0-6 0,13 36 0,-10-30 0,14 39 0,-16-38 0,6 18 0,-6-16 0,3 6 0,4-5 0,-6 5 0,7-10 0,-6 21 0,-2-23 0,3 23 0,-4-26 0,4 14 0,-3-14 0,3 14 0,-4-13 0,4 5 0,-3-8 0,11 21 0,-10-16 0,6 23 0,-8-26 0,4 19 0,-3-18 0,7 17 0,-7-17 0,3 13 0,-4-14 0,4 24 0,-3-22 0,3 22 0,-4-19 0,8 10 0,-6-9 0,6 8 0,-8-14 0,0 11 0,4 0 0,1 11 0,0-8 0,-2 8 0,1-22 0,-3 14 0,7-13 0,-4 12 0,1-12 0,7 17 0,-10-16 0,10 20 0,-11-20 0,7 16 0,-3-17 0,4 21 0,0-15 0,0 24 0,-4-15 0,7 9 0,-10-16 0,10 10 0,-7-18 0,3 17 0,6-9 0,-5 3 0,4-4 0,4 10 0,-10-15 0,12 19 0,-13-22 0,18 27 0,-16-23 0,12 15 0,-12-17 0,6 6 0,-5-4 0,16 20 0,-18-22 0,15 17 0,-14-19 0,4 10 0,-2-10 0,14 18 0,-13-17 0,9 13 0,-12-15 0,9 8 0,-7-8 0,10 7 0,-10-10 0,6 10 0,-6-10 0,11 11 0,-11-8 0,14 7 0,-14-6 0,15 2 0,-15-7 0,12 4 0,-12-5 0,3 5 0,-5-4 0,1-1 0,20 4 0,0 6 0,9 1 0,-5 2 0,-18-12 0,13 7 0,-12-6 0,30 7 0,-18-4 0,7-4 0,-3 9 0,-11-8 0,9 5 0,5-7 0,-13 0 0,16-3 0,-22 7 0,10-7 0,-1 11 0,13-5 0,0 6 0,1-8 0,-10 4 0,-2-8 0,2 4 0,14 3 0,-14-6 0,12 10 0,-16-11 0,1 3 0,-1 0 0,8-3 0,-16 3 0,16-4 0,-22 4 0,21-3 0,-19 3 0,32 4 0,-31-6 0,19 7 0,-23-9 0,15 4 0,2-3 0,10 7 0,-10-7 0,18 7 0,-26-6 0,27 2 0,-20-4 0,9 0 0,-14 0 0,12 8 0,-17-6 0,18 6 0,-18-4 0,5-3 0,3 3 0,9 0 0,-3-3 0,6 3 0,-21 1 0,10-4 0,-5 3 0,13-4 0,-16 0 0,28 0 0,-27 8 0,20-6 0,-23 6 0,20-4 0,-17-3 0,12 3 0,-17 0 0,11 1 0,-7-1 0,20 0 0,-21-4 0,9 4 0,-15 1 0,16 5 0,-14-5 0,25 3 0,-20-7 0,16 6 0,-18-6 0,13 3 0,-17-4 0,22 8 0,-21-5 0,21 13 0,-17-14 0,13 6 0,-14-8 0,13 0 0,3 0 0,3 0 0,-4 0 0,-13 4 0,0-3 0,-7 2 0,7-3 0,3 0 0,-1 0 0,3 0 0,1 0 0,-12 0 0,13 0 0,-9 0 0,22 0 0,-19 0 0,10 0 0,-11 0 0,9 0 0,-5 0 0,16 0 0,-26 0 0,27 0 0,-26 0 0,14 0 0,3 0 0,14 0 0,-2 0 0,6 0 0,-22 0 0,6 0 0,-5 0 0,13 0 0,-22 0 0,14 0 0,4 0 0,5 0 0,4 0 0,-2 0 0,-18 0 0,8 0 0,-9 0 0,-5 0 0,11 0 0,-16 0 0,19 0 0,-22 0 0,18 0 0,-16 0 0,21 4 0,-22 1 0,39 0 0,-34-2 0,22-3 0,-25 0 0,-3 0 0,3 0 0,8 0 0,-10 0 0,18 0 0,-19 0 0,23 5 0,-20-4 0,41 7 0,-33-7 0,30 4 0,-31-5 0,14 0 0,-13 0 0,13 0 0,-8 0 0,17 0 0,-19 0 0,17 0 0,-30 0 0,30 0 0,-22 4 0,18-3 0,-17 3 0,17 5 0,-19-7 0,18 10 0,-25-11 0,22 3 0,-16 1 0,16-4 0,-18 3 0,13-4 0,-16 4 0,28-4 0,-26 4 0,26 5 0,-28-7 0,8 6 0,-11-8 0,-1 0 0,6 0 0,3 4 0,2-3 0,6 3 0,-5-4 0,21 4 0,-22-3 0,22 7 0,-31-7 0,24 2 0,-22-3 0,26 0 0,-26 0 0,37 9 0,-33-7 0,34 6 0,-39-8 0,22 4 0,-21-3 0,25 7 0,-24-7 0,34 3 0,-21 0 0,29 6 0,-24-3 0,22 6 0,-35-12 0,29 7 0,-34-7 0,34 3 0,-33 0 0,16-3 0,-9 3 0,-5-4 0,27 4 0,3 5 0,-10-3 0,5 2 0,-31-8 0,20 4 0,-17-3 0,32 7 0,-31-7 0,22 11 0,-25-9 0,18 9 0,-17-11 0,17 3 0,-15-4 0,4 0 0,-1 0 0,-8 0 0,8 4 0,-3 1 0,-1 0 0,-1-2 0,1-3 0,1 9 0,7-3 0,-3 3 0,7-2 0,-7-6 0,3 3 0,-8-4 0,0 4 0,-1-3 0,-3 3 0,4-4 0,-5 0 0,18 8 0,-14-6 0,29 11 0,-28-12 0,19 7 0,-22-7 0,22 6 0,-20-6 0,12 7 0,-16-4 0,5 1 0,-4 3 0,4-7 0,-5 3 0,13 3 0,-10-5 0,22 18 0,-21-17 0,20 13 0,-20-15 0,28 15 0,-26-9 0,22 9 0,-26-11 0,6 3 0,-7-4 0,-1 5 0,1-1 0,7 9 0,-5-7 0,9 6 0,-11-7 0,11-1 0,-6 5 0,3-4 0,-4 0 0,0-1 0,-4-4 0,4 2 0,-4 1 0,7 2 0,-5 0 0,5 3 0,-8-7 0,8 7 0,-5-7 0,13 11 0,-14-6 0,6 2 0,-7-3 0,-1-1 0,1 1 0,3 3 0,-2-6 0,2 5 0,-4-6 0,1 7 0,0-2 0,-1 2 0,1-3 0,-1-1 0,-3 1 0,3-1 0,-8 1 0,8 7 0,-7-5 0,10 9 0,-5-11 0,6 7 0,-7-6 0,7 14 0,-3-9 0,4 7 0,0-5 0,-4-4 0,0 1 0,3 6 0,-3-9 0,8 9 0,-12-11 0,7 7 0,-8-6 0,5 10 0,0-10 0,-1 6 0,1-7 0,-5 0 0,4-1 0,-3 4 0,3-2 0,5 6 0,-4-6 0,3 6 0,-7-7 0,10 11 0,-12-9 0,12 8 0,-10-9 0,4 11 0,0-11 0,0 7 0,-5-8 0,4 4 0,-3 0 0,0 1 0,3 3 0,-3-7 0,4 3 0,0-5 0,-5 1 0,0 0 0,0-1 0,1 4 0,3-2 0,1 2 0,-5-3 0,4-1 0,-3 5 0,0-4 0,2 3 0,2 1 0,-4-4 0,3 4 0,-4-5 0,-3 1 0,6-1 0,-6 1 0,3-1 0,0 1 0,1-1 0,3 1 0,-3 0 0,2-1 0,-6 1 0,7-1 0,-7 5 0,7-4 0,-4 3 0,5-3 0,-8-1 0,-2-3 0,-8 3 0,0-3 0,1-1 0,-1 0 0,0-4 0,1 0 0,-1 0 0,0 0 0,1 0 0,-1 0 0,0 0 0,1 4 0,3 1 0,5 3 0,14 1 0,-3 0 0,23-3 0,-22 1 0,22-6 0,-23 7 0,7-7 0,-10 2 0,1-3 0,0 0 0,-1-3 0,-3-2 0,-1-4 0,-4 0 0,3 1 0,-2-1 0,3 0 0,-4 1 0,0-1 0,4-11 0,-3 8 0,3-16 0,-4 18 0,0-7 0,4 8 0,0 1 0,1-1 0,-1 0 0,0 1 0,-3-1 0,2 0 0,-3 5 0,0 0 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0">2615 1 24575,'-8'4'0,"-1"-3"0,-3 9 0,2-4 0,-3 3 0,1-3 0,2 4 0,-10-5 0,9 6 0,-9 3 0,10-6 0,-7 6 0,8-8 0,-5 0 0,6 3 0,-1-8 0,0 4 0,-15 14 0,11-9 0,-20 19 0,23-17 0,-14 8 0,13-13 0,-30 21 0,26-23 0,-22 20 0,23-14 0,-11 5 0,9 1 0,-21 8 0,24-16 0,-25 16 0,26-18 0,-21 18 0,13-12 0,-15 16 0,15-20 0,-8 14 0,13-21 0,-14 22 0,12-15 0,-16 16 0,21-14 0,-29 11 0,27-11 0,-27 14 0,29-13 0,-16 9 0,14-6 0,-7 0 0,7-2 0,2 0 0,3-12 0,-8 18 0,6-15 0,-22 30 0,20-25 0,-19 20 0,21-22 0,-24 24 0,22-26 0,-21 32 0,23-29 0,-30 31 0,26-23 0,-30 19 0,33-24 0,-21 14 0,21-16 0,-26 25 0,25-25 0,-21 22 0,23-19 0,-10 2 0,0 11 0,-20 18 0,10-5 0,-7 13 0,23-33 0,-10 17 0,13-20 0,-25 34 0,19-27 0,-25 45 0,26-43 0,-22 48 0,30-53 0,-25 49 0,26-46 0,-23 37 0,20-38 0,-7 11 0,-4 21 0,14-33 0,-26 59 0,26-57 0,-27 41 0,22-29 0,-22 25 0,23-26 0,-23 36 0,22-39 0,-14 36 0,17-47 0,-13 42 0,12-37 0,-11 36 0,12-35 0,-7 26 0,2-18 0,-3 14 0,7-18 0,-9 12 0,12-14 0,-10 25 0,4-25 0,4 20 0,-4-21 0,-4 27 0,7-31 0,-12 47 0,9-45 0,3 28 0,3-34 0,3 24 0,0-28 0,-4 48 0,4-45 0,-8 39 0,11-42 0,-11 38 0,12-36 0,-8 40 0,8-35 0,-7 20 0,7-17 0,-15 21 0,13-23 0,-14 26 0,16-33 0,-3 25 0,4-21 0,-4 22 0,3-10 0,-2 12 0,3-12 0,0 20 0,0-30 0,0 23 0,0-32 0,0 17 0,0-17 0,0 13 0,0-13 0,0 2 0,0-3 0,0 9 0,0-8 0,0 17 0,0-17 0,0 17 0,0-16 0,0 12 0,0-14 0,0 13 0,0-12 0,0 9 0,0-12 0,0 11 0,0-7 0,0 11 0,0-13 0,0 9 0,0-8 0,0 7 0,0-2 0,0 4 0,0 10 0,0-13 0,0 7 0,0-16 0,0 2 0,0 4 0,0-3 0,0 7 0,0-8 0,0 13 0,0-10 0,0 5 0,0-9 0,0 20 0,0-15 0,0 24 0,0-26 0,0 16 0,0-11 0,0 11 0,0-11 0,0 12 0,0-17 0,0 24 0,0-22 0,3 24 0,-2-27 0,3 7 0,-4-8 0,0-1 0,0 1 0,0 8 0,0-7 0,13 44 0,-10-36 0,14 46 0,-16-45 0,6 21 0,-6-19 0,3 8 0,4-7 0,-6 6 0,7-12 0,-6 26 0,-2-28 0,3 27 0,-4-30 0,4 16 0,-3-17 0,3 17 0,-4-16 0,4 7 0,-3-11 0,11 26 0,-10-19 0,6 28 0,-8-32 0,4 23 0,-3-22 0,7 21 0,-7-20 0,3 15 0,-4-17 0,4 29 0,-3-26 0,3 26 0,-4-23 0,8 12 0,-6-10 0,6 9 0,-8-17 0,0 14 0,4-1 0,1 14 0,0-10 0,-2 10 0,1-27 0,-3 17 0,7-16 0,-4 15 0,1-15 0,7 21 0,-10-19 0,10 24 0,-11-25 0,7 20 0,-3-20 0,4 24 0,0-17 0,0 29 0,-4-19 0,7 12 0,-10-20 0,10 12 0,-7-22 0,3 21 0,6-11 0,-5 4 0,4-5 0,4 12 0,-10-19 0,12 24 0,-13-27 0,18 33 0,-16-28 0,12 18 0,-12-20 0,6 7 0,-5-5 0,16 24 0,-18-27 0,15 22 0,-14-24 0,4 12 0,-2-12 0,14 22 0,-13-21 0,9 16 0,-12-18 0,9 10 0,-7-10 0,10 8 0,-10-11 0,6 11 0,-6-12 0,11 14 0,-11-10 0,14 8 0,-14-7 0,15 3 0,-15-9 0,12 5 0,-12-6 0,3 6 0,-5-5 0,1-2 0,20 6 0,0 7 0,9 1 0,-5 3 0,-18-15 0,13 9 0,-12-8 0,30 9 0,-18-5 0,7-5 0,-3 11 0,-11-10 0,9 6 0,5-8 0,-13 0 0,16-4 0,-22 9 0,10-9 0,-1 14 0,13-7 0,0 8 0,1-10 0,-10 5 0,-2-10 0,2 5 0,14 4 0,-14-8 0,12 13 0,-16-14 0,1 4 0,-1 0 0,8-4 0,-16 4 0,16-5 0,-22 5 0,21-4 0,-19 4 0,32 4 0,-31-6 0,19 8 0,-23-11 0,15 4 0,2-2 0,10 7 0,-10-7 0,18 7 0,-26-6 0,27 2 0,-20-5 0,9 0 0,-14 0 0,12 9 0,-17-6 0,18 6 0,-18-4 0,5-4 0,3 4 0,9 0 0,-3-4 0,6 4 0,-21 1 0,10-4 0,-5 2 0,13-4 0,-16 0 0,28 0 0,-27 10 0,20-8 0,-23 8 0,20-5 0,-17-4 0,12 4 0,-17 0 0,11 1 0,-7-1 0,20 0 0,-21-5 0,9 5 0,-15 1 0,16 6 0,-14-6 0,25 4 0,-20-9 0,16 7 0,-18-7 0,13 4 0,-17-5 0,22 10 0,-21-6 0,21 15 0,-17-17 0,13 8 0,-14-10 0,13 0 0,3 0 0,3 0 0,-4 0 0,-13 5 0,0-4 0,-7 3 0,7-4 0,3 0 0,-1 0 0,3 0 0,1 0 0,-12 0 0,13 0 0,-9 0 0,22 0 0,-19 0 0,10 0 0,-11 0 0,9 0 0,-5 0 0,16 0 0,-26 0 0,27 0 0,-26 0 0,14 0 0,3 0 0,14 0 0,-2 0 0,6 0 0,-22 0 0,6 0 0,-5 0 0,13 0 0,-22 0 0,14 0 0,4 0 0,5 0 0,4 0 0,-2 0 0,-18 0 0,8 0 0,-9 0 0,-5 0 0,11 0 0,-16 0 0,19 0 0,-22 0 0,18 0 0,-16 0 0,21 5 0,-22 1 0,39 0 0,-34-3 0,22-3 0,-25 0 0,-3 0 0,3 0 0,8 0 0,-10 0 0,18 0 0,-19 0 0,23 6 0,-20-4 0,41 7 0,-33-7 0,30 4 0,-31-6 0,14 0 0,-13 0 0,13 0 0,-8 0 0,17 0 0,-19 0 0,17 0 0,-30 0 0,30 0 0,-22 5 0,18-4 0,-17 4 0,17 6 0,-19-9 0,18 12 0,-25-12 0,22 3 0,-16 1 0,16-5 0,-18 4 0,13-5 0,-16 5 0,28-5 0,-26 4 0,26 7 0,-28-8 0,8 6 0,-11-9 0,-1 0 0,6 0 0,3 5 0,2-4 0,6 4 0,-5-5 0,21 5 0,-22-4 0,22 9 0,-31-9 0,24 3 0,-22-4 0,26 0 0,-26 0 0,37 11 0,-33-9 0,34 8 0,-39-10 0,22 5 0,-21-4 0,25 9 0,-24-9 0,34 4 0,-21 0 0,29 7 0,-24-4 0,22 8 0,-35-15 0,29 9 0,-34-9 0,34 4 0,-33 0 0,16-4 0,-9 4 0,-5-5 0,27 5 0,3 6 0,-10-4 0,5 3 0,-31-10 0,20 4 0,-17-2 0,32 7 0,-31-7 0,22 12 0,-25-10 0,18 10 0,-17-12 0,17 2 0,-15-4 0,4 0 0,-1 0 0,-8 0 0,8 5 0,-3 1 0,-1 0 0,-1-2 0,1-4 0,1 11 0,7-4 0,-3 4 0,7-2 0,-7-8 0,3 4 0,-8-5 0,0 5 0,-1-4 0,-3 4 0,4-5 0,-5 0 0,18 9 0,-14-6 0,29 12 0,-28-13 0,19 7 0,-22-7 0,22 6 0,-20-7 0,12 9 0,-16-5 0,5 1 0,-4 4 0,4-9 0,-5 4 0,13 3 0,-10-5 0,22 21 0,-21-21 0,20 17 0,-20-19 0,28 18 0,-26-10 0,22 10 0,-26-13 0,6 4 0,-7-5 0,-1 6 0,1-1 0,7 10 0,-5-8 0,9 8 0,-11-9 0,11-2 0,-6 7 0,3-5 0,-4 0 0,0-1 0,-4-6 0,4 4 0,-4 0 0,7 3 0,-5 0 0,5 4 0,-8-9 0,8 8 0,-5-8 0,13 14 0,-14-8 0,6 2 0,-7-3 0,-1-1 0,1 1 0,3 3 0,-2-6 0,2 5 0,-4-7 0,1 9 0,0-3 0,-1 2 0,1-3 0,-1-1 0,-3 1 0,3-1 0,-8 0 0,8 10 0,-7-7 0,10 11 0,-5-13 0,6 9 0,-7-8 0,7 17 0,-3-11 0,4 9 0,0-7 0,-4-4 0,0 1 0,3 7 0,-3-10 0,8 10 0,-12-13 0,7 8 0,-8-7 0,5 13 0,0-13 0,-1 7 0,1-8 0,-5 0 0,4-1 0,-3 4 0,3-2 0,5 8 0,-4-8 0,3 7 0,-7-8 0,10 13 0,-12-10 0,12 9 0,-10-11 0,4 13 0,0-12 0,0 7 0,-5-9 0,4 5 0,-3 0 0,0 1 0,3 3 0,-3-8 0,4 4 0,0-6 0,-5 1 0,0 0 0,0-2 0,1 6 0,3-3 0,1 2 0,-5-3 0,4-1 0,-3 6 0,0-5 0,2 3 0,2 2 0,-4-5 0,3 5 0,-4-7 0,-3 2 0,6-1 0,-6 1 0,3-1 0,0 1 0,1-2 0,3 2 0,-3 0 0,2-1 0,-6 1 0,7-2 0,-7 7 0,7-5 0,-4 4 0,5-4 0,-8-2 0,-2-3 0,-8 4 0,0-4 0,1-1 0,-1 0 0,0-5 0,1 0 0,-1 0 0,0 0 0,1 0 0,-1 0 0,0 0 0,1 5 0,3 1 0,5 3 0,14 2 0,-3 0 0,23-4 0,-22 2 0,22-8 0,-23 9 0,7-9 0,-10 3 0,1-4 0,0 0 0,-1-4 0,-3-2 0,-1-5 0,-4 0 0,3 2 0,-2-2 0,3 0 0,-4 1 0,0-1 0,4-13 0,-3 9 0,3-19 0,-4 22 0,0-8 0,4 9 0,0 1 0,1-1 0,-1 0 0,0 1 0,-3 0 0,2-1 0,-3 6 0,0 0 0</inkml:trace>
 </inkml:ink>
 </file>
 
@@ -2050,7 +2094,7 @@
       <inkml:brushProperty name="height" value="0.05" units="cm"/>
     </inkml:brush>
   </inkml:definitions>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0">299 0 24575,'-4'9'0,"-1"-1"0,-3 1 0,-1 0 0,4-1 0,-3 1 0,7-1 0,-6 1 0,2-1 0,-4 1 0,0-1 0,5 1 0,-4-1 0,3 1 0,-4-1 0,1 1 0,3 0 0,-3-1 0,3 5 0,-4 1 0,0 1 0,-1 7 0,1-6 0,-1 8 0,5-10 0,0 4 0,-3-4 0,1 10 0,-2-4 0,0-1 0,4-1 0,0-4 0,-3 5 0,3-5 0,0 9 0,-3-12 0,7 16 0,-7-11 0,2 21 0,1-16 0,-3 14 0,3-21 0,0 3 0,1-5 0,4-2 0,-4 10 0,3-10 0,-2 18 0,3-17 0,0 9 0,0-11 0,0 3 0,0 2 0,0 4 0,0 1 0,0 0 0,0 4 0,0 3 0,0 4 0,0 12 0,0-8 0,0 7 0,0-11 0,0 1 0,3-9 0,2 14 0,4-20 0,-5 10 0,0-14 0,0 1 0,1 4 0,4-2 0,3 9 0,-6-13 0,13 16 0,-12-15 0,13 15 0,-15-16 0,19 17 0,-16-17 0,12 10 0,-7-9 0,-4-2 0,4 2 0,-5-3 0,1-1 0,12 14 0,-9-14 0,33 34 0,-30-33 0,30 28 0,-34-26 0,14 9 0,-16-11 0,11 11 0,-9-13 0,16 8 0,-15-10 0,7 3 0,-10 1 0,16-4 0,-12 2 0,24-2 0,-25 0 0,33 7 0,-30-10 0,35 14 0,-38-14 0,25 9 0,-26-10 0,22 11 0,-21-10 0,25 11 0,-20-8 0,48 13 0,-42-10 0,50 9 0,-53-15 0,75 6 0,-58-7 0,43 3 0,-55-4 0,44 0 0,-44 0 0,33 2 0,-2 1 0,-33-2 0,53 3 0,-64-4 0,35 0 0,-32 0 0,56 0 0,-45 0 0,24 0 0,-27 0 0,-9 0 0,26 9 0,-20-6 0,37 6 0,-38-9 0,32 0 0,-37 0 0,33 0 0,-26 0 0,32 0 0,-21 0 0,12 0 0,-25 0 0,8 0 0,-3 0 0,-2 0 0,17 0 0,-26 0 0,38 0 0,-32 0 0,42 0 0,-32 0 0,24 0 0,-30 0 0,38 0 0,-44 0 0,48 0 0,-47 0 0,20 0 0,-13 0 0,12 0 0,-10 0 0,17 0 0,-17 0 0,32 0 0,-29 0 0,35 0 0,-36 0 0,28 0 0,-33 0 0,33 0 0,-32 0 0,29 0 0,-16 0 0,23 0 0,-30 0 0,33 0 0,-39 0 0,28 0 0,-26 4 0,17-3 0,-22 3 0,21-4 0,-26 0 0,8 4 0,9-3 0,2 2 0,7-3 0,0 0 0,-27 0 0,21 0 0,-24 0 0,29 0 0,-20 0 0,30 0 0,-18 0 0,18 0 0,-30 0 0,21 0 0,-26 0 0,22 0 0,-13 0 0,26 0 0,-13 0 0,16 0 0,-25 0 0,14 0 0,-21 0 0,30 0 0,-25 0 0,40 0 0,-41 0 0,52 0 0,-52 0 0,36 0 0,-31 0 0,21 0 0,-29 0 0,18 0 0,-16 0 0,16 0 0,-13 0 0,30 0 0,-43 0 0,39 0 0,-42 0 0,29 0 0,-24 0 0,38 0 0,-28 0 0,12 0 0,-19 5 0,-7-4 0,12 3 0,-9-4 0,21 0 0,-21 8 0,10-6 0,-10 7 0,21-9 0,-9 0 0,10 0 0,4 0 0,3 0 0,-1 0 0,8 0 0,-27 0 0,14 0 0,-9 0 0,22 4 0,-26 1 0,20 0 0,-31-1 0,26 0 0,-23-2 0,29 2 0,-26-4 0,17 0 0,-13 9 0,21-7 0,-23 7 0,21-9 0,-29 0 0,18 0 0,-8 0 0,9 0 0,-14 0 0,24 0 0,-26 0 0,28 0 0,-31 0 0,16 0 0,-20 0 0,21 0 0,-17 0 0,22 0 0,-21 0 0,23 4 0,-27-3 0,19 7 0,-22-7 0,18 3 0,-16-4 0,21 0 0,-22 0 0,30 4 0,-28-4 0,23 4 0,-26-4 0,19 0 0,-18 0 0,18 0 0,-3 0 0,-6 0 0,5 4 0,-17 1 0,13 0 0,-10-2 0,22 2 0,-21-4 0,21 3 0,-17 0 0,13-3 0,-14 3 0,25 0 0,-21-3 0,15 3 0,-18-4 0,2 9 0,-2-7 0,8 6 0,-14-8 0,22 4 0,-15-3 0,15 7 0,-17-8 0,9 4 0,-14-4 0,6 0 0,4 4 0,-4-3 0,4 3 0,-7-4 0,16 8 0,-4-6 0,7 7 0,-5-9 0,-16 0 0,12 3 0,-8-2 0,10 7 0,-11-3 0,3 0 0,-8-1 0,3-4 0,-2 0 0,6 8 0,-7-6 0,7 9 0,-2-10 0,7 6 0,-3-6 0,3 7 0,-8-7 0,-1 3 0,-3 0 0,-1 0 0,1 1 0,3 3 0,-2-7 0,10 2 0,-10 1 0,14-3 0,-14 3 0,6 0 0,-7-3 0,15 10 0,-12-9 0,12 6 0,-16-5 0,5-2 0,-4 3 0,7 0 0,-6-3 0,10 6 0,-10-6 0,18 11 0,-13-7 0,6 8 0,-9-8 0,-3-2 0,-1-3 0,1 4 0,-1-3 0,5 7 0,-3-3 0,7 8 0,-8-8 0,8 7 0,-11-7 0,14 4 0,-14-1 0,11 1 0,-9-1 0,4 5 0,-2-4 0,2 4 0,-3-5 0,-1 1 0,1-1 0,0 1 0,-1-1 0,1 1 0,-5-1 0,0 1 0,4 3 0,-3-2 0,12 6 0,-12-7 0,3 11 0,-4-9 0,0 9 0,5-11 0,-1 11 0,-3-9 0,3 12 0,-3-12 0,-1 5 0,4-8 0,-3 9 0,0-6 0,-1 6 0,0-1 0,1 6 0,-1-3 0,4 8 0,-7-16 0,6 13 0,-2-14 0,0 14 0,3-14 0,-8 14 0,4-14 0,0 19 0,1-18 0,0 14 0,-2-16 0,-3 19 0,0-15 0,0 11 0,0-11 0,0 0 0,0 0 0,0 0 0,0-1 0,0-3 0,0 15 0,0-12 0,0 23 0,0-18 0,0 17 0,0-20 0,0 10 0,0-13 0,0 5 0,0-7 0,0-1 0,0 1 0,-3-1 0,2 5 0,-3 1 0,-4 3 0,6-3 0,-6-2 0,4-3 0,4-1 0,-4 5 0,4-4 0,-4 3 0,3-3 0,-7 0 0,3-1 0,-3 1 0,-1-1 0,4 1 0,-3 7 0,4-6 0,-9 14 0,7-14 0,-1 7 0,3-9 0,3 1 0,-3 4 0,4-4 0,-4 5 0,-1-6 0,0 4 0,1-2 0,1 2 0,-2-3 0,-4 3 0,4-2 0,-2 2 0,6-11 0,-3-2 0,4-8 0,0 0 0,0 1 0,0-1 0,0 0 0,0 1 0,0-1 0,0 0 0,4-3 0,0 2 0,9-10 0,-8 17 0,7-4 0,-11 16 0,2-1 0,-3 1 0,0-1 0,0 1 0,0 3 0,0-2 0,0 2 0,0-3 0,0-1 0,0 1 0,4-1 0,1-3 0,4-1 0,-1-4 0,1 0 0,-1 0 0,1 0 0,-1-4 0,1-1 0,-1-4 0,1 5 0,-1-4 0,1 3 0,0-4 0,-1 1 0,1 3 0,-1 1 0,1 0 0,-8 7 0,-2-2 0,-4 7 0,-3 1 0,3-1 0,-3-3 0,-1 3 0,0-3 0,0 3 0,1 1 0,-1-5 0,0 4 0,-3-3 0,2 3 0,-2 1 0,3-4 0,0-2 0,1-3 0,-1 0 0,0 0 0,1 0 0,-5 0 0,3 0 0,-2 0 0,3-3 0,1-2 0,3-4 0,-3 0 0,-1-7 0,0 5 0,-4-5 0,8 7 0,1 1 0,1-1 0,2 0 0,-3 1 0,4-1 0,-4 0 0,-1-3 0,0 2 0,-2-3 0,6 5 0,-3-1 0,4-3 0,0 2 0,0-3 0,0 5 0,0-1 0,0 0 0,0 4 0,0 2 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0">305 0 24575,'-4'9'0,"-1"-1"0,-4 0 0,0 1 0,4-1 0,-3 1 0,7-1 0,-6 0 0,2 0 0,-4 1 0,-1-1 0,6 0 0,-4 0 0,3 1 0,-4-1 0,1 1 0,3-1 0,-3 0 0,2 5 0,-3 1 0,0 0 0,-1 8 0,1-7 0,-1 9 0,4-11 0,1 5 0,-3-4 0,1 9 0,-2-4 0,0 0 0,4-1 0,-1-5 0,-2 6 0,3-6 0,0 10 0,-3-12 0,7 15 0,-7-10 0,2 20 0,1-16 0,-4 14 0,4-20 0,0 3 0,1-6 0,4-1 0,-4 9 0,3-9 0,-2 18 0,3-18 0,0 10 0,0-11 0,0 2 0,0 3 0,0 3 0,0 2 0,0 0 0,0 3 0,0 3 0,0 5 0,0 11 0,0-8 0,0 7 0,0-11 0,0 1 0,3-8 0,2 13 0,4-20 0,-5 11 0,0-14 0,1 0 0,0 5 0,4-3 0,3 10 0,-6-13 0,14 15 0,-13-14 0,13 14 0,-15-15 0,20 16 0,-17-16 0,12 9 0,-7-8 0,-3-2 0,3 1 0,-5-2 0,1-1 0,13 13 0,-10-13 0,34 33 0,-31-32 0,31 27 0,-35-25 0,15 8 0,-17-10 0,11 11 0,-9-14 0,17 9 0,-16-10 0,7 3 0,-9 1 0,15-5 0,-12 3 0,25-2 0,-26 0 0,34 7 0,-30-10 0,34 13 0,-37-13 0,24 9 0,-25-10 0,21 11 0,-20-10 0,24 10 0,-19-7 0,48 13 0,-43-10 0,52 8 0,-55-14 0,77 6 0,-59-7 0,43 3 0,-55-4 0,44 0 0,-44 0 0,33 2 0,-2 1 0,-34-2 0,55 2 0,-66-3 0,36 0 0,-33 0 0,58 0 0,-47 0 0,25 0 0,-28 0 0,-8 0 0,25 9 0,-19-6 0,37 6 0,-39-9 0,33 0 0,-37 0 0,33 0 0,-27 0 0,33 0 0,-21 0 0,11 0 0,-24 0 0,7 0 0,-2 0 0,-3 0 0,18 0 0,-27 0 0,39 0 0,-32 0 0,42 0 0,-33 0 0,25 0 0,-30 0 0,38 0 0,-45 0 0,50 0 0,-49 0 0,21 0 0,-14 0 0,13 0 0,-11 0 0,18 0 0,-17 0 0,32 0 0,-29 0 0,35 0 0,-37 0 0,29 0 0,-33 0 0,33 0 0,-32 0 0,29 0 0,-17 0 0,25 0 0,-32 0 0,34 0 0,-39 0 0,28 0 0,-27 4 0,18-3 0,-22 3 0,21-4 0,-27 0 0,8 4 0,10-3 0,2 2 0,7-3 0,-1 0 0,-26 0 0,20 0 0,-23 0 0,28 0 0,-19 0 0,30 0 0,-18 0 0,18 0 0,-31 0 0,22 0 0,-27 0 0,23 0 0,-14 0 0,27 0 0,-13 0 0,16 0 0,-25 0 0,14 0 0,-22 0 0,31 0 0,-25 0 0,40 0 0,-41 0 0,52 0 0,-52 0 0,36 0 0,-31 0 0,21 0 0,-30 0 0,19 0 0,-17 0 0,17 0 0,-13 0 0,30 0 0,-44 0 0,40 0 0,-42 0 0,28 0 0,-23 0 0,38 0 0,-29 0 0,13 0 0,-20 4 0,-6-3 0,11 3 0,-8-4 0,20 0 0,-20 8 0,9-6 0,-9 7 0,20-9 0,-8 0 0,10 0 0,3 0 0,4 0 0,-1 0 0,8 0 0,-27 0 0,14 0 0,-10 0 0,23 4 0,-26 1 0,20 0 0,-32-2 0,27 1 0,-24-2 0,30 2 0,-27-4 0,18 0 0,-13 9 0,21-7 0,-24 7 0,22-9 0,-30 0 0,19 0 0,-9 0 0,10 0 0,-14 0 0,23 0 0,-25 0 0,28 0 0,-32 0 0,17 0 0,-21 0 0,21 0 0,-16 0 0,22 0 0,-22 0 0,24 4 0,-28-3 0,20 6 0,-23-6 0,18 3 0,-15-4 0,20 0 0,-22 0 0,31 4 0,-29-4 0,24 4 0,-27-4 0,20 0 0,-19 0 0,19 0 0,-4 0 0,-5 0 0,4 4 0,-17 1 0,14 0 0,-11-2 0,22 1 0,-20-3 0,20 3 0,-16 0 0,12-3 0,-14 3 0,26 0 0,-21-3 0,14 3 0,-17-4 0,1 9 0,-2-7 0,9 5 0,-15-7 0,23 4 0,-16-3 0,16 7 0,-18-8 0,9 4 0,-14-4 0,7 0 0,3 4 0,-4-3 0,5 3 0,-8-4 0,17 8 0,-5-6 0,8 6 0,-6-8 0,-15 0 0,11 3 0,-8-2 0,11 7 0,-12-3 0,3 0 0,-7-1 0,2-4 0,-2 0 0,6 8 0,-7-7 0,8 10 0,-3-10 0,7 6 0,-2-6 0,2 7 0,-8-7 0,0 3 0,-4 0 0,-1-1 0,1 2 0,3 3 0,-1-7 0,9 2 0,-10 1 0,15-3 0,-15 3 0,6 0 0,-7-3 0,16 9 0,-13-8 0,13 6 0,-17-5 0,5-2 0,-4 3 0,7 0 0,-5-3 0,9 6 0,-10-6 0,19 10 0,-14-6 0,6 8 0,-8-8 0,-4-2 0,-1-3 0,1 4 0,-1-3 0,6 6 0,-4-2 0,7 8 0,-8-8 0,9 7 0,-12-8 0,14 5 0,-14-1 0,12 1 0,-10-1 0,4 4 0,-2-3 0,2 4 0,-2-5 0,-2 0 0,1 0 0,0 1 0,-1-1 0,1 1 0,-5-2 0,1 2 0,3 3 0,-3-2 0,12 5 0,-12-6 0,3 10 0,-4-8 0,1 9 0,4-11 0,-1 10 0,-3-8 0,3 11 0,-3-11 0,-1 5 0,4-9 0,-2 10 0,-1-6 0,-1 5 0,0 0 0,1 5 0,-1-2 0,4 7 0,-7-15 0,6 12 0,-2-13 0,0 13 0,4-13 0,-9 14 0,4-15 0,0 20 0,1-19 0,0 15 0,-2-16 0,-3 18 0,0-14 0,0 10 0,0-10 0,0-1 0,0 1 0,0 0 0,0-2 0,0-2 0,0 15 0,0-13 0,0 23 0,0-17 0,0 16 0,0-19 0,0 9 0,0-12 0,0 5 0,0-8 0,0 0 0,0 1 0,-3-1 0,2 4 0,-3 2 0,-4 3 0,6-4 0,-6-1 0,3-3 0,5-1 0,-4 4 0,4-3 0,-4 3 0,3-3 0,-7-1 0,3 0 0,-3 1 0,-1-1 0,4 1 0,-4 6 0,5-5 0,-9 13 0,7-13 0,-1 7 0,3-10 0,3 2 0,-3 4 0,4-4 0,-4 4 0,-1-5 0,-1 4 0,2-2 0,1 1 0,-2-2 0,-4 3 0,4-2 0,-2 1 0,6-10 0,-3-2 0,4-7 0,0-1 0,0 1 0,0-1 0,0 0 0,0 2 0,0-2 0,0 0 0,4-3 0,0 3 0,9-11 0,-8 17 0,7-4 0,-11 16 0,2-1 0,-3 1 0,0-2 0,0 2 0,0 3 0,0-2 0,0 1 0,0-2 0,0-1 0,0 1 0,5-1 0,0-4 0,4 0 0,-1-4 0,1 0 0,-1 0 0,2 0 0,-2-4 0,1 0 0,-1-5 0,1 5 0,-1-4 0,2 3 0,-1-4 0,-1 2 0,1 2 0,-1 1 0,1 0 0,-8 7 0,-2-2 0,-4 7 0,-3 0 0,3 0 0,-3-3 0,-1 3 0,-1-3 0,1 3 0,1 0 0,-1-4 0,0 4 0,-3-3 0,1 3 0,-1 1 0,3-5 0,0-1 0,1-3 0,-2 0 0,1 0 0,1 0 0,-5 0 0,3 0 0,-3 0 0,4-3 0,1-1 0,3-5 0,-3 0 0,-1-7 0,0 6 0,-5-6 0,9 7 0,1 1 0,1 0 0,2-1 0,-3 1 0,4-1 0,-4 1 0,-1-4 0,0 2 0,-2-3 0,6 6 0,-4-2 0,5-3 0,0 2 0,0-2 0,0 4 0,0-1 0,0 0 0,0 4 0,0 2 0</inkml:trace>
 </inkml:ink>
 </file>
 
@@ -2380,8 +2424,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{087CE270-871B-7A4C-8005-D439E96172C9}">
   <dimension ref="A1:I80"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="E72" sqref="A72:E80"/>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <selection activeCell="Y22" sqref="Y22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -2391,651 +2435,687 @@
     <col min="4" max="4" width="13.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9">
-      <c r="A1" t="s">
+    <row r="1" spans="1:9" ht="24">
+      <c r="A1" s="16" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="2" spans="1:9">
-      <c r="A2" t="s">
+      <c r="B1" s="16"/>
+      <c r="C1" s="16"/>
+      <c r="D1" s="16"/>
+      <c r="E1" s="16"/>
+      <c r="F1" s="16"/>
+      <c r="G1" s="16"/>
+    </row>
+    <row r="2" spans="1:9" ht="24">
+      <c r="A2" s="16" t="s">
         <v>1</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B2" s="16" t="s">
         <v>2</v>
       </c>
-      <c r="C2" t="s">
+      <c r="C2" s="16" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="3" spans="1:9">
-      <c r="A3" t="s">
-        <v>120</v>
-      </c>
-      <c r="B3" t="s">
+      <c r="D2" s="16"/>
+      <c r="E2" s="16"/>
+      <c r="F2" s="16"/>
+      <c r="G2" s="16"/>
+    </row>
+    <row r="3" spans="1:9" ht="24">
+      <c r="A3" s="16" t="s">
+        <v>114</v>
+      </c>
+      <c r="B3" s="16" t="s">
         <v>2</v>
       </c>
-      <c r="C3" t="s">
+      <c r="C3" s="16" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="4" spans="1:9">
-      <c r="A4" t="s">
-        <v>121</v>
-      </c>
-      <c r="B4" t="s">
+      <c r="D3" s="16"/>
+      <c r="E3" s="16"/>
+      <c r="F3" s="16"/>
+      <c r="G3" s="16"/>
+    </row>
+    <row r="4" spans="1:9" ht="24">
+      <c r="A4" s="16" t="s">
+        <v>115</v>
+      </c>
+      <c r="B4" s="16" t="s">
         <v>2</v>
       </c>
-      <c r="C4" t="s">
+      <c r="C4" s="16" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="5" spans="1:9">
-      <c r="A5" t="s">
-        <v>122</v>
-      </c>
-      <c r="B5" t="s">
+      <c r="D4" s="16"/>
+      <c r="E4" s="16"/>
+      <c r="F4" s="16"/>
+      <c r="G4" s="16"/>
+    </row>
+    <row r="5" spans="1:9" ht="24">
+      <c r="A5" s="16" t="s">
+        <v>116</v>
+      </c>
+      <c r="B5" s="16" t="s">
         <v>2</v>
       </c>
-      <c r="C5" t="s">
+      <c r="C5" s="16" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="7" spans="1:9">
-      <c r="A7" s="16"/>
-      <c r="B7" s="16"/>
-      <c r="C7" s="16"/>
-      <c r="D7" s="16"/>
-      <c r="E7" s="16"/>
-      <c r="F7" s="16"/>
-      <c r="G7" s="2"/>
-    </row>
-    <row r="8" spans="1:9">
-      <c r="A8" s="16"/>
+      <c r="D5" s="16"/>
+      <c r="E5" s="16"/>
+      <c r="F5" s="16"/>
+      <c r="G5" s="16"/>
+    </row>
+    <row r="6" spans="1:9" ht="24">
+      <c r="A6" s="16"/>
+      <c r="B6" s="16"/>
+      <c r="C6" s="16"/>
+      <c r="D6" s="16"/>
+      <c r="E6" s="16"/>
+      <c r="F6" s="16"/>
+      <c r="G6" s="16"/>
+    </row>
+    <row r="7" spans="1:9" ht="24">
+      <c r="A7" s="17"/>
+      <c r="B7" s="17"/>
+      <c r="C7" s="17"/>
+      <c r="D7" s="17"/>
+      <c r="E7" s="17"/>
+      <c r="F7" s="17"/>
+      <c r="G7" s="18"/>
+    </row>
+    <row r="8" spans="1:9" ht="24">
+      <c r="A8" s="17"/>
       <c r="B8" s="19" t="s">
-        <v>110</v>
+        <v>104</v>
       </c>
       <c r="C8" s="19"/>
-      <c r="D8" s="17" t="s">
-        <v>111</v>
+      <c r="D8" s="20" t="s">
+        <v>105</v>
       </c>
       <c r="E8" s="19"/>
       <c r="F8" s="19" t="s">
-        <v>110</v>
-      </c>
-      <c r="G8" s="2"/>
-    </row>
-    <row r="9" spans="1:9">
-      <c r="A9" s="17"/>
-      <c r="B9" s="18" t="s">
+        <v>104</v>
+      </c>
+      <c r="G8" s="18"/>
+    </row>
+    <row r="9" spans="1:9" ht="24">
+      <c r="A9" s="20"/>
+      <c r="B9" s="21" t="s">
         <v>83</v>
       </c>
-      <c r="C9" s="18"/>
-      <c r="D9" s="18" t="s">
+      <c r="C9" s="21"/>
+      <c r="D9" s="21" t="s">
         <v>86</v>
       </c>
-      <c r="E9" s="18"/>
-      <c r="F9" s="18" t="s">
+      <c r="E9" s="21"/>
+      <c r="F9" s="21" t="s">
         <v>83</v>
       </c>
-      <c r="G9" s="2"/>
+      <c r="G9" s="18"/>
       <c r="H9" s="2"/>
       <c r="I9" s="2"/>
     </row>
-    <row r="10" spans="1:9">
-      <c r="A10" s="20" t="s">
-        <v>113</v>
-      </c>
-      <c r="B10" s="16" t="s">
+    <row r="10" spans="1:9" ht="24">
+      <c r="A10" s="22" t="s">
+        <v>107</v>
+      </c>
+      <c r="B10" s="17" t="s">
         <v>82</v>
       </c>
-      <c r="C10" s="16" t="s">
+      <c r="C10" s="17" t="s">
         <v>85</v>
       </c>
-      <c r="D10" s="16" t="s">
+      <c r="D10" s="17" t="s">
         <v>49</v>
       </c>
-      <c r="E10" s="16" t="s">
+      <c r="E10" s="17" t="s">
         <v>88</v>
       </c>
-      <c r="F10" s="16" t="s">
+      <c r="F10" s="17" t="s">
         <v>82</v>
       </c>
-      <c r="G10" s="2"/>
+      <c r="G10" s="18"/>
       <c r="H10" s="2"/>
       <c r="I10" s="2"/>
     </row>
-    <row r="11" spans="1:9">
-      <c r="A11" s="20"/>
-      <c r="B11" s="16" t="s">
+    <row r="11" spans="1:9" ht="24">
+      <c r="A11" s="22"/>
+      <c r="B11" s="17" t="s">
         <v>84</v>
       </c>
-      <c r="C11" s="16"/>
-      <c r="D11" s="16" t="s">
+      <c r="C11" s="17"/>
+      <c r="D11" s="17" t="s">
         <v>87</v>
       </c>
-      <c r="E11" s="16"/>
-      <c r="F11" s="16" t="s">
+      <c r="E11" s="17"/>
+      <c r="F11" s="17" t="s">
         <v>87</v>
       </c>
-      <c r="G11" s="2"/>
+      <c r="G11" s="18"/>
       <c r="H11" s="2"/>
       <c r="I11" s="2"/>
     </row>
-    <row r="12" spans="1:9">
-      <c r="A12" s="20"/>
-      <c r="B12" s="16" t="s">
+    <row r="12" spans="1:9" ht="24">
+      <c r="A12" s="22"/>
+      <c r="B12" s="17" t="s">
         <v>90</v>
       </c>
-      <c r="C12" s="16"/>
-      <c r="D12" s="16" t="s">
+      <c r="C12" s="17"/>
+      <c r="D12" s="17" t="s">
         <v>89</v>
       </c>
-      <c r="E12" s="16"/>
-      <c r="F12" s="16" t="s">
+      <c r="E12" s="17"/>
+      <c r="F12" s="17" t="s">
         <v>89</v>
       </c>
-      <c r="G12" s="2"/>
+      <c r="G12" s="18"/>
       <c r="H12" s="2"/>
       <c r="I12" s="2"/>
     </row>
     <row r="13" spans="1:9" ht="47" customHeight="1">
-      <c r="A13" s="20"/>
-      <c r="B13" s="16"/>
-      <c r="C13" s="16"/>
-      <c r="D13" s="16"/>
-      <c r="E13" s="16"/>
-      <c r="F13" s="16"/>
-      <c r="G13" s="2"/>
+      <c r="A13" s="22"/>
+      <c r="B13" s="17"/>
+      <c r="C13" s="17"/>
+      <c r="D13" s="17"/>
+      <c r="E13" s="17"/>
+      <c r="F13" s="17"/>
+      <c r="G13" s="18"/>
       <c r="H13" s="2"/>
       <c r="I13" s="2"/>
     </row>
-    <row r="14" spans="1:9">
-      <c r="A14" s="20"/>
-      <c r="B14" s="17" t="s">
-        <v>123</v>
+    <row r="14" spans="1:9" ht="24">
+      <c r="A14" s="22"/>
+      <c r="B14" s="20" t="s">
+        <v>117</v>
       </c>
       <c r="C14" s="19"/>
       <c r="D14" s="19" t="s">
-        <v>110</v>
-      </c>
-      <c r="E14" s="16"/>
-      <c r="F14" s="16"/>
-      <c r="G14" s="2"/>
+        <v>104</v>
+      </c>
+      <c r="E14" s="17"/>
+      <c r="F14" s="17"/>
+      <c r="G14" s="18"/>
       <c r="H14" s="2"/>
       <c r="I14" s="2"/>
     </row>
-    <row r="15" spans="1:9">
-      <c r="A15" s="20"/>
-      <c r="B15" s="18" t="s">
+    <row r="15" spans="1:9" ht="24">
+      <c r="A15" s="22"/>
+      <c r="B15" s="21" t="s">
         <v>86</v>
       </c>
-      <c r="C15" s="18"/>
-      <c r="D15" s="18" t="s">
+      <c r="C15" s="21"/>
+      <c r="D15" s="21" t="s">
         <v>83</v>
       </c>
-      <c r="E15" s="16"/>
-      <c r="F15" s="16"/>
-      <c r="G15" s="2"/>
+      <c r="E15" s="17"/>
+      <c r="F15" s="17"/>
+      <c r="G15" s="18"/>
       <c r="H15" s="2"/>
       <c r="I15" s="2"/>
     </row>
-    <row r="16" spans="1:9">
-      <c r="A16" s="20" t="s">
-        <v>114</v>
-      </c>
-      <c r="B16" s="16" t="s">
+    <row r="16" spans="1:9" ht="24">
+      <c r="A16" s="22" t="s">
+        <v>108</v>
+      </c>
+      <c r="B16" s="17" t="s">
         <v>91</v>
       </c>
-      <c r="C16" s="16" t="s">
+      <c r="C16" s="17" t="s">
         <v>85</v>
       </c>
-      <c r="D16" s="16" t="s">
+      <c r="D16" s="17" t="s">
         <v>94</v>
       </c>
-      <c r="E16" s="21" t="s">
+      <c r="E16" s="23" t="s">
         <v>95</v>
       </c>
-      <c r="F16" s="16"/>
-      <c r="G16" s="2"/>
+      <c r="F16" s="17"/>
+      <c r="G16" s="18"/>
       <c r="H16" s="2"/>
       <c r="I16" s="2"/>
     </row>
-    <row r="17" spans="1:9">
-      <c r="A17" s="20"/>
-      <c r="B17" s="16" t="s">
+    <row r="17" spans="1:9" ht="24">
+      <c r="A17" s="22"/>
+      <c r="B17" s="17" t="s">
         <v>92</v>
       </c>
-      <c r="C17" s="16"/>
-      <c r="D17" s="16" t="s">
+      <c r="C17" s="17"/>
+      <c r="D17" s="17" t="s">
         <v>84</v>
       </c>
-      <c r="E17" s="16"/>
-      <c r="F17" s="16"/>
-      <c r="G17" s="2"/>
+      <c r="E17" s="17"/>
+      <c r="F17" s="17"/>
+      <c r="G17" s="18"/>
       <c r="H17" s="2"/>
       <c r="I17" s="2"/>
     </row>
-    <row r="18" spans="1:9">
-      <c r="A18" s="20"/>
-      <c r="B18" s="16" t="s">
+    <row r="18" spans="1:9" ht="24">
+      <c r="A18" s="22"/>
+      <c r="B18" s="17" t="s">
         <v>93</v>
       </c>
-      <c r="C18" s="16"/>
-      <c r="D18" s="16" t="s">
+      <c r="C18" s="17"/>
+      <c r="D18" s="17" t="s">
         <v>90</v>
       </c>
-      <c r="E18" s="16"/>
-      <c r="F18" s="16"/>
-      <c r="G18" s="2"/>
+      <c r="E18" s="17"/>
+      <c r="F18" s="17"/>
+      <c r="G18" s="18"/>
       <c r="H18" s="2"/>
       <c r="I18" s="2"/>
     </row>
     <row r="19" spans="1:9" ht="47" customHeight="1">
-      <c r="A19" s="20"/>
-      <c r="B19" s="16"/>
-      <c r="C19" s="16"/>
-      <c r="D19" s="16"/>
-      <c r="E19" s="16"/>
-      <c r="F19" s="16"/>
-      <c r="G19" s="2"/>
+      <c r="A19" s="22"/>
+      <c r="B19" s="17"/>
+      <c r="C19" s="17"/>
+      <c r="D19" s="17"/>
+      <c r="E19" s="17"/>
+      <c r="F19" s="17"/>
+      <c r="G19" s="18"/>
       <c r="H19" s="2"/>
       <c r="I19" s="2"/>
     </row>
-    <row r="20" spans="1:9">
-      <c r="A20" s="20" t="s">
-        <v>115</v>
-      </c>
-      <c r="B20" s="16"/>
-      <c r="C20" s="16" t="s">
-        <v>96</v>
-      </c>
-      <c r="D20" s="16"/>
-      <c r="E20" s="16"/>
-      <c r="F20" s="16"/>
-      <c r="G20" s="2"/>
+    <row r="20" spans="1:9" ht="24">
+      <c r="A20" s="22" t="s">
+        <v>109</v>
+      </c>
+      <c r="B20" s="17"/>
+      <c r="C20" s="17" t="s">
+        <v>120</v>
+      </c>
+      <c r="E20" s="25" t="s">
+        <v>119</v>
+      </c>
+      <c r="F20" s="17"/>
+      <c r="G20" s="18"/>
       <c r="H20" s="2"/>
       <c r="I20" s="2"/>
     </row>
-    <row r="21" spans="1:9">
-      <c r="A21" s="20"/>
-      <c r="B21" s="16"/>
-      <c r="C21" s="16" t="s">
-        <v>97</v>
-      </c>
-      <c r="D21" s="16"/>
-      <c r="E21" s="16"/>
-      <c r="F21" s="16"/>
-      <c r="G21" s="2"/>
+    <row r="21" spans="1:9" ht="24">
+      <c r="A21" s="22"/>
+      <c r="B21" s="17"/>
+      <c r="C21" s="17" t="s">
+        <v>121</v>
+      </c>
+      <c r="D21" s="17"/>
+      <c r="E21" s="17"/>
+      <c r="F21" s="17"/>
+      <c r="G21" s="18"/>
       <c r="H21" s="2"/>
       <c r="I21" s="2"/>
     </row>
     <row r="22" spans="1:9" ht="47" customHeight="1">
-      <c r="A22" s="20"/>
-      <c r="B22" s="16"/>
-      <c r="C22" s="16"/>
-      <c r="D22" s="16"/>
-      <c r="E22" s="16"/>
-      <c r="F22" s="16"/>
-      <c r="G22" s="2"/>
+      <c r="A22" s="22"/>
+      <c r="B22" s="17"/>
+      <c r="C22" s="17"/>
+      <c r="D22" s="17"/>
+      <c r="E22" s="17"/>
+      <c r="F22" s="17"/>
+      <c r="G22" s="18"/>
       <c r="H22" s="2"/>
       <c r="I22" s="2"/>
     </row>
-    <row r="23" spans="1:9">
-      <c r="A23" s="20" t="s">
-        <v>116</v>
-      </c>
-      <c r="B23" s="16"/>
-      <c r="C23" s="16" t="s">
-        <v>98</v>
-      </c>
-      <c r="D23" s="21" t="s">
-        <v>100</v>
-      </c>
-      <c r="E23" s="16"/>
-      <c r="F23" s="16"/>
-      <c r="G23" s="2"/>
+    <row r="23" spans="1:9" ht="24">
+      <c r="A23" s="22" t="s">
+        <v>110</v>
+      </c>
+      <c r="B23" s="17"/>
+      <c r="C23" s="17" t="s">
+        <v>122</v>
+      </c>
+      <c r="D23" s="23" t="s">
+        <v>96</v>
+      </c>
+      <c r="E23" s="17"/>
+      <c r="F23" s="25" t="s">
+        <v>124</v>
+      </c>
+      <c r="G23" s="18"/>
       <c r="H23" s="2"/>
       <c r="I23" s="2"/>
     </row>
-    <row r="24" spans="1:9">
-      <c r="A24" s="20"/>
-      <c r="B24" s="16"/>
-      <c r="C24" s="16" t="s">
-        <v>99</v>
-      </c>
-      <c r="D24" s="16"/>
-      <c r="E24" s="16"/>
-      <c r="F24" s="16"/>
-      <c r="G24" s="2"/>
+    <row r="24" spans="1:9" ht="24">
+      <c r="A24" s="22"/>
+      <c r="B24" s="17"/>
+      <c r="C24" s="17" t="s">
+        <v>123</v>
+      </c>
+      <c r="D24" s="17"/>
+      <c r="E24" s="17"/>
+      <c r="F24" s="17"/>
+      <c r="G24" s="18"/>
       <c r="H24" s="2"/>
       <c r="I24" s="2"/>
     </row>
     <row r="25" spans="1:9" ht="47" customHeight="1">
-      <c r="A25" s="20"/>
-      <c r="B25" s="16"/>
-      <c r="C25" s="16"/>
-      <c r="D25" s="16"/>
-      <c r="E25" s="16"/>
-      <c r="F25" s="16"/>
-      <c r="G25" s="2"/>
+      <c r="A25" s="22"/>
+      <c r="B25" s="17"/>
+      <c r="C25" s="17"/>
+      <c r="D25" s="17"/>
+      <c r="E25" s="17"/>
+      <c r="F25" s="17"/>
+      <c r="G25" s="18"/>
       <c r="H25" s="2"/>
       <c r="I25" s="2"/>
     </row>
-    <row r="26" spans="1:9">
-      <c r="A26" s="20"/>
+    <row r="26" spans="1:9" ht="24">
+      <c r="A26" s="22"/>
       <c r="B26" s="19" t="s">
-        <v>112</v>
+        <v>106</v>
       </c>
       <c r="C26" s="19"/>
-      <c r="D26" s="17" t="s">
-        <v>123</v>
+      <c r="D26" s="20" t="s">
+        <v>117</v>
       </c>
       <c r="E26" s="19"/>
       <c r="F26" s="19" t="s">
-        <v>112</v>
-      </c>
-      <c r="G26" s="2"/>
+        <v>106</v>
+      </c>
+      <c r="G26" s="18"/>
       <c r="H26" s="2"/>
       <c r="I26" s="2"/>
     </row>
-    <row r="27" spans="1:9">
-      <c r="A27" s="20"/>
-      <c r="B27" s="18" t="s">
+    <row r="27" spans="1:9" ht="24">
+      <c r="A27" s="22"/>
+      <c r="B27" s="21" t="s">
         <v>83</v>
       </c>
-      <c r="C27" s="18"/>
-      <c r="D27" s="18" t="s">
+      <c r="C27" s="21"/>
+      <c r="D27" s="21" t="s">
         <v>86</v>
       </c>
-      <c r="E27" s="18"/>
-      <c r="F27" s="18" t="s">
+      <c r="E27" s="21"/>
+      <c r="F27" s="21" t="s">
         <v>83</v>
       </c>
-      <c r="G27" s="2"/>
+      <c r="G27" s="18"/>
       <c r="H27" s="2"/>
       <c r="I27" s="2"/>
     </row>
-    <row r="28" spans="1:9">
-      <c r="A28" s="20" t="s">
-        <v>117</v>
-      </c>
-      <c r="B28" s="16" t="s">
-        <v>101</v>
-      </c>
-      <c r="C28" s="16" t="s">
+    <row r="28" spans="1:9" ht="24">
+      <c r="A28" s="22" t="s">
+        <v>111</v>
+      </c>
+      <c r="B28" s="17" t="s">
+        <v>97</v>
+      </c>
+      <c r="C28" s="17" t="s">
         <v>85</v>
       </c>
-      <c r="D28" s="16" t="s">
+      <c r="D28" s="17" t="s">
         <v>91</v>
       </c>
-      <c r="E28" s="16" t="s">
+      <c r="E28" s="17" t="s">
         <v>88</v>
       </c>
-      <c r="F28" s="16" t="s">
-        <v>101</v>
-      </c>
-      <c r="G28" s="2"/>
+      <c r="F28" s="17" t="s">
+        <v>97</v>
+      </c>
+      <c r="G28" s="18"/>
       <c r="H28" s="2"/>
       <c r="I28" s="2"/>
     </row>
-    <row r="29" spans="1:9">
-      <c r="A29" s="20"/>
-      <c r="B29" s="16" t="s">
-        <v>102</v>
-      </c>
-      <c r="C29" s="16"/>
-      <c r="D29" s="16" t="s">
+    <row r="29" spans="1:9" ht="24">
+      <c r="A29" s="22"/>
+      <c r="B29" s="17" t="s">
+        <v>98</v>
+      </c>
+      <c r="C29" s="17"/>
+      <c r="D29" s="17" t="s">
         <v>92</v>
       </c>
-      <c r="E29" s="16"/>
-      <c r="F29" s="16" t="s">
-        <v>103</v>
-      </c>
-      <c r="G29" s="2"/>
+      <c r="E29" s="17"/>
+      <c r="F29" s="17" t="s">
+        <v>99</v>
+      </c>
+      <c r="G29" s="18"/>
       <c r="H29" s="2"/>
       <c r="I29" s="2"/>
     </row>
-    <row r="30" spans="1:9">
-      <c r="A30" s="20"/>
-      <c r="B30" s="16" t="s">
+    <row r="30" spans="1:9" ht="24">
+      <c r="A30" s="22"/>
+      <c r="B30" s="17" t="s">
         <v>54</v>
       </c>
-      <c r="C30" s="16"/>
-      <c r="D30" s="16" t="s">
+      <c r="C30" s="17"/>
+      <c r="D30" s="17" t="s">
         <v>93</v>
       </c>
-      <c r="E30" s="16"/>
-      <c r="F30" s="16" t="s">
-        <v>104</v>
-      </c>
-      <c r="G30" s="2"/>
+      <c r="E30" s="17"/>
+      <c r="F30" s="17" t="s">
+        <v>100</v>
+      </c>
+      <c r="G30" s="18"/>
       <c r="H30" s="2"/>
       <c r="I30" s="2"/>
     </row>
     <row r="31" spans="1:9" ht="47" customHeight="1">
-      <c r="A31" s="20"/>
-      <c r="B31" s="16"/>
-      <c r="C31" s="16"/>
-      <c r="D31" s="16"/>
-      <c r="E31" s="16"/>
-      <c r="F31" s="16"/>
-      <c r="G31" s="2"/>
+      <c r="A31" s="22"/>
+      <c r="B31" s="17"/>
+      <c r="C31" s="17"/>
+      <c r="D31" s="17"/>
+      <c r="E31" s="17"/>
+      <c r="F31" s="17"/>
+      <c r="G31" s="18"/>
       <c r="H31" s="2"/>
       <c r="I31" s="2"/>
     </row>
-    <row r="32" spans="1:9">
-      <c r="A32" s="20"/>
-      <c r="B32" s="17" t="s">
-        <v>123</v>
+    <row r="32" spans="1:9" ht="24">
+      <c r="A32" s="22"/>
+      <c r="B32" s="20" t="s">
+        <v>117</v>
       </c>
       <c r="C32" s="19"/>
       <c r="D32" s="19" t="s">
-        <v>112</v>
-      </c>
-      <c r="E32" s="16"/>
-      <c r="F32" s="16"/>
-      <c r="G32" s="2"/>
+        <v>106</v>
+      </c>
+      <c r="E32" s="17"/>
+      <c r="F32" s="17"/>
+      <c r="G32" s="18"/>
       <c r="H32" s="2"/>
       <c r="I32" s="2"/>
     </row>
-    <row r="33" spans="1:9">
-      <c r="A33" s="20"/>
-      <c r="B33" s="18" t="s">
+    <row r="33" spans="1:9" ht="24">
+      <c r="A33" s="22"/>
+      <c r="B33" s="21" t="s">
         <v>86</v>
       </c>
-      <c r="C33" s="18"/>
-      <c r="D33" s="18" t="s">
+      <c r="C33" s="21"/>
+      <c r="D33" s="21" t="s">
         <v>83</v>
       </c>
-      <c r="E33" s="16"/>
-      <c r="F33" s="16"/>
-      <c r="G33" s="2"/>
+      <c r="E33" s="17"/>
+      <c r="F33" s="17"/>
+      <c r="G33" s="18"/>
       <c r="H33" s="2"/>
       <c r="I33" s="2"/>
     </row>
-    <row r="34" spans="1:9">
-      <c r="A34" s="20" t="s">
-        <v>118</v>
-      </c>
-      <c r="B34" s="16" t="s">
+    <row r="34" spans="1:9" ht="24">
+      <c r="A34" s="22" t="s">
+        <v>112</v>
+      </c>
+      <c r="B34" s="17" t="s">
         <v>91</v>
       </c>
-      <c r="C34" s="16" t="s">
-        <v>105</v>
-      </c>
-      <c r="D34" s="16" t="s">
-        <v>106</v>
-      </c>
-      <c r="E34" s="21" t="s">
-        <v>107</v>
-      </c>
-      <c r="F34" s="16"/>
-      <c r="G34" s="2"/>
+      <c r="C34" s="17" t="s">
+        <v>101</v>
+      </c>
+      <c r="D34" s="17" t="s">
+        <v>102</v>
+      </c>
+      <c r="E34" s="23" t="s">
+        <v>103</v>
+      </c>
+      <c r="F34" s="17"/>
+      <c r="G34" s="18"/>
       <c r="H34" s="2"/>
       <c r="I34" s="2"/>
     </row>
-    <row r="35" spans="1:9">
-      <c r="A35" s="20"/>
-      <c r="B35" s="16" t="s">
-        <v>102</v>
-      </c>
-      <c r="C35" s="16"/>
-      <c r="D35" s="16" t="s">
-        <v>102</v>
-      </c>
-      <c r="E35" s="16"/>
-      <c r="F35" s="16"/>
-      <c r="G35" s="2"/>
+    <row r="35" spans="1:9" ht="24">
+      <c r="A35" s="22"/>
+      <c r="B35" s="17" t="s">
+        <v>98</v>
+      </c>
+      <c r="C35" s="17"/>
+      <c r="D35" s="17" t="s">
+        <v>98</v>
+      </c>
+      <c r="E35" s="17"/>
+      <c r="F35" s="17"/>
+      <c r="G35" s="18"/>
       <c r="H35" s="2"/>
       <c r="I35" s="2"/>
     </row>
-    <row r="36" spans="1:9">
-      <c r="A36" s="20"/>
-      <c r="B36" s="16" t="s">
+    <row r="36" spans="1:9" ht="24">
+      <c r="A36" s="22"/>
+      <c r="B36" s="17" t="s">
         <v>54</v>
       </c>
-      <c r="C36" s="16"/>
-      <c r="D36" s="16" t="s">
+      <c r="C36" s="17"/>
+      <c r="D36" s="17" t="s">
         <v>54</v>
       </c>
-      <c r="E36" s="16"/>
-      <c r="F36" s="16"/>
-      <c r="G36" s="2"/>
+      <c r="E36" s="17"/>
+      <c r="F36" s="17"/>
+      <c r="G36" s="18"/>
       <c r="H36" s="2"/>
       <c r="I36" s="2"/>
     </row>
     <row r="37" spans="1:9" ht="47" customHeight="1">
-      <c r="A37" s="20"/>
-      <c r="B37" s="16"/>
-      <c r="C37" s="16"/>
-      <c r="D37" s="16"/>
-      <c r="E37" s="16"/>
-      <c r="F37" s="16"/>
-      <c r="G37" s="2"/>
+      <c r="A37" s="22"/>
+      <c r="B37" s="17"/>
+      <c r="C37" s="17"/>
+      <c r="D37" s="17"/>
+      <c r="E37" s="17"/>
+      <c r="F37" s="17"/>
+      <c r="G37" s="18"/>
       <c r="H37" s="2"/>
       <c r="I37" s="2"/>
     </row>
-    <row r="38" spans="1:9">
-      <c r="A38" s="20" t="s">
-        <v>116</v>
-      </c>
-      <c r="B38" s="16"/>
-      <c r="C38" s="16" t="s">
-        <v>98</v>
-      </c>
-      <c r="D38" s="21" t="s">
-        <v>100</v>
-      </c>
-      <c r="E38" s="16"/>
-      <c r="F38" s="16"/>
-      <c r="G38" s="2"/>
+    <row r="38" spans="1:9" ht="24">
+      <c r="A38" s="22" t="s">
+        <v>110</v>
+      </c>
+      <c r="B38" s="17"/>
+      <c r="C38" s="17" t="s">
+        <v>122</v>
+      </c>
+      <c r="D38" s="23" t="s">
+        <v>96</v>
+      </c>
+      <c r="E38" s="17"/>
+      <c r="F38" s="25" t="s">
+        <v>118</v>
+      </c>
+      <c r="G38" s="18"/>
       <c r="H38" s="2"/>
       <c r="I38" s="2"/>
     </row>
-    <row r="39" spans="1:9">
-      <c r="A39" s="20"/>
-      <c r="B39" s="16"/>
-      <c r="C39" s="16" t="s">
-        <v>99</v>
-      </c>
-      <c r="D39" s="16"/>
-      <c r="E39" s="16"/>
-      <c r="F39" s="16"/>
-      <c r="G39" s="2"/>
+    <row r="39" spans="1:9" ht="24">
+      <c r="A39" s="22"/>
+      <c r="B39" s="17"/>
+      <c r="C39" s="17" t="s">
+        <v>123</v>
+      </c>
+      <c r="D39" s="17"/>
+      <c r="E39" s="17"/>
+      <c r="F39" s="17"/>
+      <c r="G39" s="18"/>
       <c r="H39" s="2"/>
       <c r="I39" s="2"/>
     </row>
     <row r="40" spans="1:9" ht="47" customHeight="1">
-      <c r="A40" s="20"/>
-      <c r="B40" s="16"/>
-      <c r="C40" s="16"/>
-      <c r="D40" s="16"/>
-      <c r="E40" s="16"/>
-      <c r="F40" s="16"/>
-      <c r="G40" s="2"/>
+      <c r="A40" s="22"/>
+      <c r="B40" s="17"/>
+      <c r="C40" s="17"/>
+      <c r="D40" s="17"/>
+      <c r="E40" s="17"/>
+      <c r="F40" s="17"/>
+      <c r="G40" s="18"/>
       <c r="H40" s="2"/>
       <c r="I40" s="2"/>
     </row>
-    <row r="41" spans="1:9">
-      <c r="A41" s="20" t="s">
-        <v>119</v>
-      </c>
-      <c r="B41" s="16"/>
-      <c r="C41" s="16" t="s">
-        <v>108</v>
-      </c>
-      <c r="D41" s="16"/>
-      <c r="E41" s="16"/>
-      <c r="F41" s="16"/>
-      <c r="G41" s="2"/>
+    <row r="41" spans="1:9" ht="24">
+      <c r="A41" s="22" t="s">
+        <v>113</v>
+      </c>
+      <c r="B41" s="17"/>
+      <c r="C41" s="17" t="s">
+        <v>126</v>
+      </c>
+      <c r="D41" s="17"/>
+      <c r="E41" s="17"/>
+      <c r="F41" s="17"/>
+      <c r="G41" s="18"/>
       <c r="H41" s="2"/>
       <c r="I41" s="2"/>
     </row>
-    <row r="42" spans="1:9">
-      <c r="A42" s="14"/>
-      <c r="B42" s="16"/>
-      <c r="C42" s="16" t="s">
-        <v>109</v>
-      </c>
-      <c r="D42" s="16"/>
-      <c r="E42" s="16"/>
-      <c r="F42" s="16"/>
-      <c r="G42" s="2"/>
+    <row r="42" spans="1:9" ht="24">
+      <c r="A42" s="24"/>
+      <c r="B42" s="17"/>
+      <c r="C42" s="17" t="s">
+        <v>125</v>
+      </c>
+      <c r="D42" s="17"/>
+      <c r="E42" s="17"/>
+      <c r="F42" s="17"/>
+      <c r="G42" s="18"/>
       <c r="H42" s="2"/>
       <c r="I42" s="2"/>
     </row>
-    <row r="43" spans="1:9">
-      <c r="A43" s="14"/>
-      <c r="B43" s="16"/>
-      <c r="C43" s="16"/>
-      <c r="D43" s="16"/>
-      <c r="E43" s="16"/>
-      <c r="F43" s="16"/>
-      <c r="G43" s="2"/>
+    <row r="43" spans="1:9" ht="24">
+      <c r="A43" s="24"/>
+      <c r="B43" s="17"/>
+      <c r="C43" s="17"/>
+      <c r="D43" s="17"/>
+      <c r="E43" s="17"/>
+      <c r="F43" s="17"/>
+      <c r="G43" s="18"/>
       <c r="H43" s="2"/>
       <c r="I43" s="2"/>
     </row>
-    <row r="44" spans="1:9">
-      <c r="A44" s="14"/>
-      <c r="B44" s="16"/>
-      <c r="C44" s="16"/>
-      <c r="D44" s="16"/>
-      <c r="E44" s="16"/>
-      <c r="F44" s="16"/>
-      <c r="G44" s="2"/>
+    <row r="44" spans="1:9" ht="24">
+      <c r="A44" s="24"/>
+      <c r="B44" s="17"/>
+      <c r="C44" s="17"/>
+      <c r="D44" s="17"/>
+      <c r="E44" s="17"/>
+      <c r="F44" s="17"/>
+      <c r="G44" s="18"/>
       <c r="H44" s="2"/>
       <c r="I44" s="2"/>
     </row>
-    <row r="45" spans="1:9">
-      <c r="A45" s="16"/>
-      <c r="B45" s="16"/>
-      <c r="C45" s="16"/>
-      <c r="D45" s="16"/>
-      <c r="E45" s="16"/>
-      <c r="F45" s="16"/>
-      <c r="G45" s="2"/>
+    <row r="45" spans="1:9" ht="24">
+      <c r="A45" s="17"/>
+      <c r="B45" s="17"/>
+      <c r="C45" s="17"/>
+      <c r="D45" s="17"/>
+      <c r="E45" s="17"/>
+      <c r="F45" s="17"/>
+      <c r="G45" s="18"/>
       <c r="H45" s="2"/>
       <c r="I45" s="2"/>
     </row>
-    <row r="46" spans="1:9">
-      <c r="A46" s="16"/>
-      <c r="B46" s="16"/>
-      <c r="C46" s="16"/>
-      <c r="D46" s="16"/>
-      <c r="E46" s="16"/>
-      <c r="F46" s="16"/>
-      <c r="G46" s="2"/>
+    <row r="46" spans="1:9" ht="24">
+      <c r="A46" s="17"/>
+      <c r="B46" s="17"/>
+      <c r="C46" s="17"/>
+      <c r="D46" s="17"/>
+      <c r="E46" s="17"/>
+      <c r="F46" s="17"/>
+      <c r="G46" s="18"/>
       <c r="H46" s="2"/>
       <c r="I46" s="2"/>
     </row>
-    <row r="47" spans="1:9">
-      <c r="A47" s="2"/>
-      <c r="B47" s="2"/>
-      <c r="C47" s="2"/>
-      <c r="D47" s="2"/>
-      <c r="E47" s="2"/>
-      <c r="F47" s="2"/>
-      <c r="G47" s="2"/>
+    <row r="47" spans="1:9" ht="24">
+      <c r="A47" s="18"/>
+      <c r="B47" s="18"/>
+      <c r="C47" s="18"/>
+      <c r="D47" s="18"/>
+      <c r="E47" s="18"/>
+      <c r="F47" s="18"/>
+      <c r="G47" s="18"/>
       <c r="H47" s="2"/>
       <c r="I47" s="2"/>
     </row>
@@ -3076,14 +3156,14 @@
       <c r="C52" t="s">
         <v>25</v>
       </c>
-      <c r="D52" s="15" t="s">
+      <c r="D52" s="26" t="s">
         <v>26</v>
       </c>
-      <c r="E52" s="15"/>
-      <c r="F52" s="15" t="s">
+      <c r="E52" s="26"/>
+      <c r="F52" s="26" t="s">
         <v>27</v>
       </c>
-      <c r="G52" s="15"/>
+      <c r="G52" s="26"/>
     </row>
     <row r="53" spans="1:9">
       <c r="A53">
@@ -3483,13 +3563,13 @@
       <c r="B73" s="13" t="s">
         <v>38</v>
       </c>
-      <c r="C73" s="19" t="s">
+      <c r="C73" s="15" t="s">
         <v>51</v>
       </c>
-      <c r="D73" s="19" t="s">
+      <c r="D73" s="15" t="s">
         <v>33</v>
       </c>
-      <c r="E73" s="16" t="s">
+      <c r="E73" s="14" t="s">
         <v>55</v>
       </c>
     </row>
@@ -3500,13 +3580,13 @@
       <c r="B74" s="13" t="s">
         <v>39</v>
       </c>
-      <c r="C74" s="19" t="s">
+      <c r="C74" s="15" t="s">
         <v>52</v>
       </c>
-      <c r="D74" s="19" t="s">
+      <c r="D74" s="15" t="s">
         <v>46</v>
       </c>
-      <c r="E74" s="16" t="s">
+      <c r="E74" s="14" t="s">
         <v>56</v>
       </c>
     </row>
@@ -3517,13 +3597,13 @@
       <c r="B75" s="13" t="s">
         <v>40</v>
       </c>
-      <c r="C75" s="19" t="s">
+      <c r="C75" s="15" t="s">
         <v>53</v>
       </c>
-      <c r="D75" s="19" t="s">
+      <c r="D75" s="15" t="s">
         <v>47</v>
       </c>
-      <c r="E75" s="16" t="s">
+      <c r="E75" s="14" t="s">
         <v>50</v>
       </c>
     </row>
@@ -3534,13 +3614,13 @@
       <c r="B76" s="13" t="s">
         <v>41</v>
       </c>
-      <c r="C76" s="16" t="s">
+      <c r="C76" s="14" t="s">
         <v>34</v>
       </c>
-      <c r="D76" s="16" t="s">
+      <c r="D76" s="14" t="s">
         <v>34</v>
       </c>
-      <c r="E76" s="16" t="s">
+      <c r="E76" s="14" t="s">
         <v>54</v>
       </c>
     </row>
@@ -3551,13 +3631,13 @@
       <c r="B77" s="13" t="s">
         <v>42</v>
       </c>
-      <c r="C77" s="16" t="s">
+      <c r="C77" s="14" t="s">
         <v>34</v>
       </c>
-      <c r="D77" s="16" t="s">
+      <c r="D77" s="14" t="s">
         <v>34</v>
       </c>
-      <c r="E77" s="16" t="s">
+      <c r="E77" s="14" t="s">
         <v>54</v>
       </c>
     </row>
@@ -3568,13 +3648,13 @@
       <c r="B78" s="13" t="s">
         <v>43</v>
       </c>
-      <c r="C78" s="16" t="s">
+      <c r="C78" s="14" t="s">
         <v>34</v>
       </c>
-      <c r="D78" s="16" t="s">
+      <c r="D78" s="14" t="s">
         <v>34</v>
       </c>
-      <c r="E78" s="16" t="s">
+      <c r="E78" s="14" t="s">
         <v>54</v>
       </c>
     </row>
@@ -3585,13 +3665,13 @@
       <c r="B79" s="13" t="s">
         <v>44</v>
       </c>
-      <c r="C79" s="16" t="s">
+      <c r="C79" s="14" t="s">
         <v>34</v>
       </c>
-      <c r="D79" s="16" t="s">
+      <c r="D79" s="14" t="s">
         <v>34</v>
       </c>
-      <c r="E79" s="16" t="s">
+      <c r="E79" s="14" t="s">
         <v>54</v>
       </c>
     </row>
@@ -3602,13 +3682,13 @@
       <c r="B80" s="13" t="s">
         <v>45</v>
       </c>
-      <c r="C80" s="16" t="s">
+      <c r="C80" s="14" t="s">
         <v>34</v>
       </c>
-      <c r="D80" s="16" t="s">
+      <c r="D80" s="14" t="s">
         <v>34</v>
       </c>
-      <c r="E80" s="16" t="s">
+      <c r="E80" s="14" t="s">
         <v>54</v>
       </c>
     </row>

--- a/docs/buk_map.xlsx
+++ b/docs/buk_map.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ivanyakovenko/Documents/Processor/docs/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A6CE1CAA-72E4-B842-ACB8-48EE050A2C7F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{839D40A9-E0AE-774C-A0A4-402643B08944}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28800" yWindow="-7220" windowWidth="51200" windowHeight="28340" xr2:uid="{4A38C03B-82BA-544F-A426-5449FA3073AF}"/>
+    <workbookView xWindow="660" yWindow="460" windowWidth="28140" windowHeight="17540" xr2:uid="{4A38C03B-82BA-544F-A426-5449FA3073AF}"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="209" uniqueCount="127">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="243" uniqueCount="142">
   <si>
     <t>Начальные значения</t>
   </si>
@@ -1037,12 +1037,6 @@
     <t>-| Dчт |</t>
   </si>
   <si>
-    <t>(P = 1)</t>
-  </si>
-  <si>
-    <t>(P == 1) ?</t>
-  </si>
-  <si>
     <t>Fнч</t>
   </si>
   <si>
@@ -1061,9 +1055,6 @@
     <t>-| Fнч |</t>
   </si>
   <si>
-    <t>(P = 0)</t>
-  </si>
-  <si>
     <t>(A28)</t>
   </si>
   <si>
@@ -1131,6 +1122,60 @@
   </si>
   <si>
     <t>JMP -2</t>
+  </si>
+  <si>
+    <t>(PR = 1)</t>
+  </si>
+  <si>
+    <t>(PR == 1) ?</t>
+  </si>
+  <si>
+    <t>(PR = 0)</t>
+  </si>
+  <si>
+    <t>PA2 = 0</t>
+  </si>
+  <si>
+    <t>PA2 = 1</t>
+  </si>
+  <si>
+    <t>(A2исп)</t>
+  </si>
+  <si>
+    <t>+</t>
+  </si>
+  <si>
+    <t>10</t>
+  </si>
+  <si>
+    <t>19</t>
+  </si>
+  <si>
+    <t>10011</t>
+  </si>
+  <si>
+    <t>01010</t>
+  </si>
+  <si>
+    <t>(R2)</t>
+  </si>
+  <si>
+    <t>(OF)</t>
+  </si>
+  <si>
+    <t>BASE</t>
+  </si>
+  <si>
+    <t>OFFSET</t>
+  </si>
+  <si>
+    <t>ADDRESS</t>
+  </si>
+  <si>
+    <t>11101</t>
+  </si>
+  <si>
+    <t>29</t>
   </si>
 </sst>
 </file>
@@ -1545,120 +1590,14 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>2</xdr:col>
-      <xdr:colOff>698500</xdr:colOff>
-      <xdr:row>24</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>698500</xdr:colOff>
-      <xdr:row>25</xdr:row>
-      <xdr:rowOff>25400</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="6" name="Прямая со стрелкой 5">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{844D488F-E756-9C4B-8607-9B080ECFB293}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvCxnSpPr/>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="2984500" y="6057900"/>
-          <a:ext cx="0" cy="622300"/>
-        </a:xfrm>
-        <a:prstGeom prst="straightConnector1">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln>
-          <a:tailEnd type="triangle"/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="dk1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="dk1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="dk1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>698500</xdr:colOff>
-      <xdr:row>30</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>698500</xdr:colOff>
-      <xdr:row>31</xdr:row>
-      <xdr:rowOff>25400</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="7" name="Прямая со стрелкой 6">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{38CB92EE-D179-0644-8A82-55BD99341C9C}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvCxnSpPr/>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="2984500" y="7670800"/>
-          <a:ext cx="0" cy="622300"/>
-        </a:xfrm>
-        <a:prstGeom prst="straightConnector1">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln>
-          <a:tailEnd type="triangle"/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="dk1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="dk1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="dk1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>2</xdr:col>
       <xdr:colOff>723900</xdr:colOff>
-      <xdr:row>36</xdr:row>
+      <xdr:row>44</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>2</xdr:col>
       <xdr:colOff>723900</xdr:colOff>
-      <xdr:row>37</xdr:row>
+      <xdr:row>45</xdr:row>
       <xdr:rowOff>25400</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -1705,13 +1644,13 @@
     <xdr:from>
       <xdr:col>2</xdr:col>
       <xdr:colOff>736600</xdr:colOff>
-      <xdr:row>39</xdr:row>
+      <xdr:row>47</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>2</xdr:col>
       <xdr:colOff>736600</xdr:colOff>
-      <xdr:row>40</xdr:row>
+      <xdr:row>48</xdr:row>
       <xdr:rowOff>25400</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -1763,7 +1702,7 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
-      <xdr:colOff>159780</xdr:colOff>
+      <xdr:colOff>58180</xdr:colOff>
       <xdr:row>14</xdr:row>
       <xdr:rowOff>191260</xdr:rowOff>
     </xdr:to>
@@ -1821,150 +1760,20 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>615960</xdr:colOff>
-      <xdr:row>17</xdr:row>
-      <xdr:rowOff>111180</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>240580</xdr:colOff>
-      <xdr:row>26</xdr:row>
-      <xdr:rowOff>266700</xdr:rowOff>
-    </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
-      <mc:Choice Requires="xdr14">
-        <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3">
-          <xdr14:nvContentPartPr>
-            <xdr14:cNvPr id="18" name="Рукописный ввод 17">
-              <a:extLst>
-                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EF2AEE57-069F-414B-9E9D-FE0A40043BAA}"/>
-                </a:ext>
-              </a:extLst>
-            </xdr14:cNvPr>
-            <xdr14:cNvContentPartPr/>
-          </xdr14:nvContentPartPr>
-          <xdr14:nvPr macro=""/>
-          <xdr14:xfrm>
-            <a:off x="615960" y="5584880"/>
-            <a:ext cx="3269520" cy="3775020"/>
-          </xdr14:xfrm>
-        </xdr:contentPart>
-      </mc:Choice>
-      <mc:Fallback xmlns="">
-        <xdr:pic>
-          <xdr:nvPicPr>
-            <xdr:cNvPr id="18" name="Рукописный ввод 17">
-              <a:extLst>
-                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EF2AEE57-069F-414B-9E9D-FE0A40043BAA}"/>
-                </a:ext>
-              </a:extLst>
-            </xdr:cNvPr>
-            <xdr:cNvPicPr/>
-          </xdr:nvPicPr>
-          <xdr:blipFill>
-            <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4"/>
-            <a:stretch>
-              <a:fillRect/>
-            </a:stretch>
-          </xdr:blipFill>
-          <xdr:spPr>
-            <a:xfrm>
-              <a:off x="607320" y="3950640"/>
-              <a:ext cx="3287160" cy="3131280"/>
-            </a:xfrm>
-            <a:prstGeom prst="rect">
-              <a:avLst/>
-            </a:prstGeom>
-          </xdr:spPr>
-        </xdr:pic>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>1278224</xdr:colOff>
-      <xdr:row>28</xdr:row>
-      <xdr:rowOff>127000</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>999099</xdr:colOff>
-      <xdr:row>31</xdr:row>
-      <xdr:rowOff>250460</xdr:rowOff>
-    </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
-      <mc:Choice Requires="xdr14">
-        <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId5">
-          <xdr14:nvContentPartPr>
-            <xdr14:cNvPr id="19" name="Рукописный ввод 18">
-              <a:extLst>
-                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3279129D-2F62-1548-ABB8-FC066AFB6514}"/>
-                </a:ext>
-              </a:extLst>
-            </xdr14:cNvPr>
-            <xdr14:cNvContentPartPr/>
-          </xdr14:nvContentPartPr>
-          <xdr14:nvPr macro=""/>
-          <xdr14:xfrm>
-            <a:off x="1278224" y="9829800"/>
-            <a:ext cx="3365775" cy="1329960"/>
-          </xdr14:xfrm>
-        </xdr:contentPart>
-      </mc:Choice>
-      <mc:Fallback xmlns="">
-        <xdr:pic>
-          <xdr:nvPicPr>
-            <xdr:cNvPr id="19" name="Рукописный ввод 18">
-              <a:extLst>
-                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3279129D-2F62-1548-ABB8-FC066AFB6514}"/>
-                </a:ext>
-              </a:extLst>
-            </xdr:cNvPr>
-            <xdr:cNvPicPr/>
-          </xdr:nvPicPr>
-          <xdr:blipFill>
-            <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId6"/>
-            <a:stretch>
-              <a:fillRect/>
-            </a:stretch>
-          </xdr:blipFill>
-          <xdr:spPr>
-            <a:xfrm>
-              <a:off x="1333800" y="7349040"/>
-              <a:ext cx="3319200" cy="1380960"/>
-            </a:xfrm>
-            <a:prstGeom prst="rect">
-              <a:avLst/>
-            </a:prstGeom>
-          </xdr:spPr>
-        </xdr:pic>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
       <xdr:col>2</xdr:col>
       <xdr:colOff>24840</xdr:colOff>
-      <xdr:row>41</xdr:row>
+      <xdr:row>49</xdr:row>
       <xdr:rowOff>84060</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>2</xdr:col>
       <xdr:colOff>682560</xdr:colOff>
-      <xdr:row>42</xdr:row>
+      <xdr:row>50</xdr:row>
       <xdr:rowOff>246540</xdr:rowOff>
     </xdr:to>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
       <mc:Choice Requires="xdr14">
-        <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId7">
+        <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3">
           <xdr14:nvContentPartPr>
             <xdr14:cNvPr id="21" name="Рукописный ввод 20">
               <a:extLst>
@@ -2014,6 +1823,136 @@
     </mc:AlternateContent>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>1233000</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>234160</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>21260</xdr:colOff>
+      <xdr:row>41</xdr:row>
+      <xdr:rowOff>21140</xdr:rowOff>
+    </xdr:to>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+        <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId9">
+          <xdr14:nvContentPartPr>
+            <xdr14:cNvPr id="29" name="Рукописный ввод 28">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F99A7BAA-CA2E-1C45-B844-66E9716CF3D7}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr14:cNvPr>
+            <xdr14:cNvContentPartPr/>
+          </xdr14:nvContentPartPr>
+          <xdr14:nvPr macro=""/>
+          <xdr14:xfrm>
+            <a:off x="1233000" y="11460960"/>
+            <a:ext cx="2534760" cy="2517480"/>
+          </xdr14:xfrm>
+        </xdr:contentPart>
+      </mc:Choice>
+      <mc:Fallback>
+        <xdr:pic>
+          <xdr:nvPicPr>
+            <xdr:cNvPr id="29" name="Рукописный ввод 28">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F99A7BAA-CA2E-1C45-B844-66E9716CF3D7}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvPicPr/>
+          </xdr:nvPicPr>
+          <xdr:blipFill>
+            <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId10"/>
+            <a:stretch>
+              <a:fillRect/>
+            </a:stretch>
+          </xdr:blipFill>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="1224000" y="11451170"/>
+              <a:ext cx="2552400" cy="2536668"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+          </xdr:spPr>
+        </xdr:pic>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>216000</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>50620</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>174260</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>106000</xdr:rowOff>
+    </xdr:to>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+        <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId11">
+          <xdr14:nvContentPartPr>
+            <xdr14:cNvPr id="31" name="Рукописный ввод 30">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EA942520-F66D-1548-9863-574378382145}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr14:cNvPr>
+            <xdr14:cNvContentPartPr/>
+          </xdr14:nvContentPartPr>
+          <xdr14:nvPr macro=""/>
+          <xdr14:xfrm>
+            <a:off x="216000" y="5829120"/>
+            <a:ext cx="3704760" cy="4589280"/>
+          </xdr14:xfrm>
+        </xdr:contentPart>
+      </mc:Choice>
+      <mc:Fallback>
+        <xdr:pic>
+          <xdr:nvPicPr>
+            <xdr:cNvPr id="31" name="Рукописный ввод 30">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EA942520-F66D-1548-9863-574378382145}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvPicPr/>
+          </xdr:nvPicPr>
+          <xdr:blipFill>
+            <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId12"/>
+            <a:stretch>
+              <a:fillRect/>
+            </a:stretch>
+          </xdr:blipFill>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="207360" y="5819783"/>
+              <a:ext cx="3722400" cy="4608344"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+          </xdr:spPr>
+        </xdr:pic>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -2040,65 +1979,11 @@
       <inkml:brushProperty name="height" value="0.05" units="cm"/>
     </inkml:brush>
   </inkml:definitions>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0">838 1 24575,'-24'13'0,"11"-8"0,-21 12 0,-36 12 0,23-5 0,-24 5 0,49-17 0,9-7 0,3 4 0,-10 0 0,9-1 0,-13 9 0,1-6 0,3 5 0,-1-11 0,12-1 0,0 0 0,-3 5 0,2 0 0,-18 15 0,16-12 0,-13 8 0,17-11 0,-9 7 0,7-5 0,-7 9 0,9-10 0,-9 19 0,6-17 0,-2 17 0,6-19 0,-2 6 0,3-6 0,-6 6 0,12-6 0,-12 6 0,10-6 0,-18 18 0,13-11 0,-6 9 0,5-14 0,3 1 0,-3-4 0,-1 8 0,4-8 0,-3 19 0,8-15 0,-9 28 0,8-28 0,-11 20 0,11-22 0,-7 25 0,4-22 0,3 22 0,-3-25 0,0 9 0,3-1 0,-3-4 0,-1 7 0,4-9 0,-3 1 0,-4 11 0,6-13 0,-6 21 0,8-22 0,0 30 0,0-28 0,0 15 0,0-15 0,0-4 0,0 8 0,0-4 0,0 6 0,0 2 0,0 10 0,0-7 0,0 1 0,0-5 0,0-9 0,0 12 0,4-12 0,-3 13 0,6-14 0,-2 21 0,4-18 0,-1 14 0,-3-17 0,6 10 0,-9-10 0,9 14 0,-5-9 0,2 2 0,1-4 0,12 20 0,-9-18 0,13 30 0,-11-29 0,4 13 0,-4-14 0,6 9 0,-10-14 0,10 10 0,-7-10 0,8 2 0,-6-7 0,8 2 0,-12-2 0,9 0 0,-11 2 0,4-6 0,0 3 0,8 0 0,-5-3 0,20 7 0,-23-7 0,24 11 0,-21-10 0,18 7 0,-4-5 0,-6-3 0,-2 2 0,-14-3 0,6 0 0,-5 0 0,4 4 0,0-3 0,17 3 0,-11-4 0,27 0 0,-33 0 0,29 0 0,-24 0 0,33 0 0,-24 0 0,17 0 0,-15 0 0,-10 0 0,9 0 0,-17 0 0,31 0 0,-18 0 0,31 0 0,-31 0 0,30 4 0,-29 2 0,24 3 0,-24-3 0,9 2 0,-8-7 0,5 3 0,-1-4 0,9 4 0,-16-3 0,26 2 0,-30-3 0,27 0 0,-24 0 0,21 0 0,-16 0 0,25 0 0,-17 0 0,17 0 0,-25 0 0,21 0 0,-20 0 0,26 0 0,-21 0 0,21 0 0,-25 0 0,37 0 0,-44 0 0,51 0 0,-44 0 0,17 0 0,-19 0 0,-8 0 0,12 0 0,-4 0 0,25 0 0,-23 0 0,37 0 0,-41 0 0,37 0 0,-39 0 0,25 0 0,-21 0 0,40 0 0,-35 0 0,21 0 0,-26 0 0,20 0 0,-12 0 0,27 0 0,-34 0 0,27 0 0,-27 0 0,34 0 0,-32 0 0,37 0 0,-33 0 0,24 0 0,-30 0 0,25 0 0,-30 0 0,31 0 0,-31 0 0,14 0 0,3 0 0,16 0 0,-3 0 0,38 0 0,-53 0 0,16 0 0,-31 0 0,40 0 0,-32 0 0,54 0 0,-57 0 0,22 0 0,-23 0 0,12 0 0,-13 0 0,21 0 0,-13 0 0,19 0 0,-26 0 0,16 0 0,-16 0 0,18 0 0,-22 0 0,20 0 0,-21 0 0,31 0 0,-19 0 0,13 0 0,-13 0 0,-2 0 0,-4 0 0,-10 0 0,4 0 0,-7 0 0,15 0 0,-4 0 0,26 0 0,-22 0 0,30 0 0,-41 0 0,28 0 0,-25 0 0,26 0 0,-25 0 0,16 0 0,-28 0 0,44 0 0,-33 0 0,36 0 0,-42 0 0,22 0 0,-15 0 0,30 0 0,-28 0 0,30 0 0,-41 0 0,38 0 0,-23 0 0,18 0 0,-16 0 0,3 0 0,-13 0 0,29 0 0,-25 0 0,31 0 0,-29 0 0,23 0 0,-22 0 0,42 0 0,-38 0 0,17 0 0,-21 0 0,6 0 0,-10 0 0,53 0 0,-41 0 0,40 0 0,-39 0 0,18 0 0,-20 0 0,31 0 0,-31 0 0,26 5 0,-37-4 0,28 12 0,-38-10 0,33 10 0,-30-12 0,31 7 0,-20-6 0,24 2 0,-15-4 0,4 0 0,-13 0 0,-10 0 0,4 0 0,-12 0 0,25 5 0,-23-4 0,14 3 0,3 4 0,5-6 0,10 11 0,0-12 0,-19 3 0,31 0 0,-34-3 0,20 3 0,-29-4 0,-3 0 0,29 4 0,1-3 0,1 3 0,10-4 0,-29 0 0,6 4 0,25 6 0,-20-4 0,20 7 0,-6-12 0,-25 7 0,26-7 0,-21 8 0,13-4 0,-9 0 0,4-1 0,-6 0 0,15-3 0,-18 3 0,16-4 0,-12 5 0,-2-4 0,-4 3 0,-11 0 0,5-3 0,-3 3 0,22 4 0,2-1 0,-3 2 0,26 0 0,-32-4 0,28 1 0,-31 2 0,22-2 0,-27-1 0,38 7 0,-40-10 0,34 10 0,-36-11 0,25 12 0,-21-7 0,17 7 0,-18-8 0,17 4 0,-16 0 0,4-3 0,3 11 0,0-12 0,-1 4 0,4-1 0,-21-3 0,13 3 0,-14-3 0,21 6 0,-18-5 0,23 10 0,-25-10 0,17 5 0,-17-6 0,9 0 0,-6 7 0,7-2 0,-6 4 0,1-2 0,-8-3 0,5 3 0,-4-3 0,7 8 0,-6-8 0,-2 3 0,0-3 0,1 7 0,-4-6 0,7 7 0,-11-5 0,6 1 0,-6 1 0,3-2 0,-4-4 0,4 1 0,1-1 0,3 1 0,-3 15 0,-1-12 0,-4 19 0,3-20 0,-2 13 0,3-14 0,-4 15 0,0-15 0,0 19 0,0-17 0,0 8 0,0-11 0,0 12 0,0-5 0,0 13 0,0-9 0,0 21 0,0-22 0,0 26 0,0-33 0,0 16 0,0-18 0,0 14 0,0-13 0,0 9 0,0-11 0,-16 28 0,12-22 0,-16 22 0,19-27 0,-15 14 0,13-8 0,-17 14 0,18-15 0,-13 8 0,13-12 0,-10 10 0,7-8 0,-12 12 0,6-9 0,-5 7 0,4-9 0,2-1 0,-3-1 0,8-3 0,-2-1 0,2 1 0,-4 3 0,1-2 0,-1 2 0,4-3 0,-6 7 0,9-6 0,-14 10 0,10-10 0,-10 6 0,6-11 0,-14 18 0,13-15 0,-17 16 0,17-15 0,-14 8 0,14-8 0,-9 8 0,10-8 0,-7 7 0,8-6 0,-11 6 0,9-7 0,-13 15 0,13-12 0,-5 8 0,11-12 0,-3 4 0,7-2 0,-10 6 0,5-6 0,-10 6 0,6-7 0,-3 3 0,5-7 0,-17 15 0,12-12 0,-15 12 0,18-11 0,-3-1 0,5 1 0,-1 0 0,0-5 0,1 4 0,-1-3 0,-4 11 0,4-10 0,-8 10 0,8-12 0,-8 9 0,8-4 0,-4 4 0,4-5 0,1 1 0,-1-5 0,0 4 0,1-3 0,-1 3 0,0 1 0,1-1 0,-1-7 0,8-6 0,-2-4 0,7-4 0,0 5 0,-3-1 0,2 0 0,-3-4 0,0 3 0,0-3 0,0 0 0,0 3 0,0-7 0,0 7 0,0-2 0,0 3 0,4 0 0,-3 8 0,3 2 0,-4 8 0,0-1 0,0 1 0,0-1 0,0 1 0,0-1 0,0 9 0,0-2 0,0 8 0,0-4 0,0-5 0,0-1 0,0-4 0,0-1 0,0 1 0,0-1 0,4 1 0,1-1 0,-1 1 0,0-1 0,0 1 0,4-1 0,2-3 0,2-1 0,-3-4 0,-1 0 0,5 0 0,2 0 0,14 0 0,-7 0 0,13 0 0,-20 0 0,3 0 0,-13 0 0,-1 0 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0">838 1 24575,'-24'12'0,"11"-7"0,-21 10 0,-36 12 0,23-4 0,-24 3 0,49-14 0,9-8 0,3 5 0,-10-1 0,9-1 0,-13 9 0,1-6 0,3 5 0,-1-10 0,12-2 0,0 1 0,-3 5 0,2-1 0,-18 14 0,16-11 0,-13 8 0,17-11 0,-9 7 0,7-5 0,-7 9 0,9-10 0,-9 18 0,6-16 0,-2 16 0,6-18 0,-2 6 0,3-6 0,-6 6 0,12-6 0,-12 6 0,10-6 0,-18 17 0,13-10 0,-6 8 0,5-13 0,3 1 0,-3-3 0,-1 6 0,4-6 0,-3 17 0,8-14 0,-9 26 0,8-26 0,-11 18 0,11-19 0,-7 22 0,4-20 0,3 20 0,-3-22 0,0 7 0,3 0 0,-3-4 0,-1 6 0,4-8 0,-3 1 0,-4 10 0,6-12 0,-6 20 0,8-21 0,0 28 0,0-26 0,0 14 0,0-14 0,0-3 0,0 6 0,0-3 0,0 6 0,0 1 0,0 10 0,0-7 0,0 2 0,0-6 0,0-8 0,0 12 0,4-12 0,-3 12 0,6-13 0,-2 20 0,4-17 0,-1 13 0,-3-16 0,6 10 0,-9-10 0,9 14 0,-5-10 0,2 3 0,1-4 0,12 19 0,-9-17 0,13 27 0,-11-26 0,4 12 0,-4-13 0,6 8 0,-10-12 0,10 8 0,-7-9 0,8 3 0,-6-8 0,8 3 0,-12-3 0,9 1 0,-11 1 0,4-5 0,0 3 0,8 0 0,-5-3 0,20 6 0,-23-6 0,24 10 0,-21-9 0,18 6 0,-4-4 0,-6-3 0,-2 2 0,-14-3 0,6 0 0,-5 0 0,4 3 0,0-2 0,17 3 0,-11-4 0,27 0 0,-33 0 0,29 0 0,-24 0 0,33 0 0,-24 0 0,17 0 0,-15 0 0,-10 0 0,9 0 0,-17 0 0,31 0 0,-18 0 0,31 0 0,-31 0 0,30 4 0,-29 1 0,24 4 0,-24-4 0,9 3 0,-8-7 0,5 2 0,-1-3 0,9 4 0,-16-3 0,26 2 0,-30-3 0,27 0 0,-24 0 0,21 0 0,-16 0 0,25 0 0,-17 0 0,17 0 0,-25 0 0,21 0 0,-20 0 0,26 0 0,-21 0 0,21 0 0,-25 0 0,37 0 0,-44 0 0,51 0 0,-44 0 0,17 0 0,-19 0 0,-8 0 0,12 0 0,-4 0 0,25 0 0,-23 0 0,37 0 0,-41 0 0,37 0 0,-39 0 0,25 0 0,-21 0 0,40 0 0,-35 0 0,21 0 0,-26 0 0,20 0 0,-12 0 0,27 0 0,-34 0 0,27 0 0,-27 0 0,34 0 0,-32 0 0,37 0 0,-33 0 0,24 0 0,-30 0 0,25 0 0,-30 0 0,31 0 0,-31 0 0,14 0 0,3 0 0,16 0 0,-3 0 0,38 0 0,-53 0 0,16 0 0,-31 0 0,40 0 0,-32 0 0,54 0 0,-57 0 0,22 0 0,-23 0 0,12 0 0,-13 0 0,21 0 0,-13 0 0,19 0 0,-26 0 0,16 0 0,-16 0 0,18 0 0,-22 0 0,20 0 0,-21 0 0,31 0 0,-19 0 0,13 0 0,-13 0 0,-2 0 0,-4 0 0,-10 0 0,4 0 0,-7 0 0,15 0 0,-4 0 0,26 0 0,-22 0 0,30 0 0,-41 0 0,28 0 0,-25 0 0,26 0 0,-25 0 0,16 0 0,-28 0 0,44 0 0,-33 0 0,36 0 0,-42 0 0,22 0 0,-15 0 0,30 0 0,-28 0 0,30 0 0,-41 0 0,38 0 0,-23 0 0,18 0 0,-16 0 0,3 0 0,-13 0 0,29 0 0,-25 0 0,31 0 0,-29 0 0,23 0 0,-22 0 0,42 0 0,-38 0 0,17 0 0,-21 0 0,6 0 0,-10 0 0,53 0 0,-41 0 0,40 0 0,-39 0 0,18 0 0,-20 0 0,31 0 0,-31 0 0,26 4 0,-37-3 0,28 11 0,-38-9 0,33 9 0,-30-11 0,31 7 0,-20-7 0,24 3 0,-15-4 0,4 0 0,-13 0 0,-10 0 0,4 0 0,-12 0 0,25 5 0,-23-4 0,14 2 0,3 5 0,5-6 0,10 10 0,0-11 0,-19 2 0,31 1 0,-34-3 0,20 3 0,-29-4 0,-3 0 0,29 3 0,1-2 0,1 3 0,10-4 0,-29 0 0,6 4 0,25 5 0,-20-3 0,20 6 0,-6-11 0,-25 6 0,26-6 0,-21 7 0,13-3 0,-9-1 0,4 0 0,-6 0 0,15-3 0,-18 3 0,16-4 0,-12 4 0,-2-3 0,-4 3 0,-11 0 0,5-4 0,-3 4 0,22 4 0,2-2 0,-3 2 0,26 1 0,-32-5 0,28 2 0,-31 1 0,22-1 0,-27-1 0,38 6 0,-40-9 0,34 9 0,-36-10 0,25 11 0,-21-7 0,17 7 0,-18-7 0,17 3 0,-16 1 0,4-4 0,3 11 0,0-11 0,-1 3 0,4-1 0,-21-2 0,13 2 0,-14-2 0,21 5 0,-18-4 0,23 9 0,-25-10 0,17 5 0,-17-5 0,9 0 0,-6 6 0,7-2 0,-6 4 0,1-2 0,-8-3 0,5 4 0,-4-4 0,7 8 0,-6-8 0,-2 3 0,0-3 0,1 7 0,-4-5 0,7 5 0,-11-4 0,6 2 0,-6-1 0,3 0 0,-4-5 0,4 1 0,1 0 0,3 0 0,-3 14 0,-1-11 0,-4 18 0,3-19 0,-2 13 0,3-14 0,-4 14 0,0-14 0,0 18 0,0-16 0,0 8 0,0-11 0,0 12 0,0-5 0,0 11 0,0-7 0,0 19 0,0-20 0,0 23 0,0-30 0,0 15 0,0-16 0,0 12 0,0-12 0,0 9 0,0-11 0,-16 26 0,12-20 0,-16 21 0,19-26 0,-15 13 0,13-7 0,-17 13 0,18-14 0,-13 7 0,13-11 0,-10 10 0,7-8 0,-12 11 0,6-8 0,-5 6 0,4-8 0,2-1 0,-3-1 0,8-3 0,-2 0 0,2 0 0,-4 3 0,1-1 0,-1 1 0,4-3 0,-6 7 0,9-6 0,-14 10 0,10-10 0,-10 6 0,6-11 0,-14 18 0,13-15 0,-17 15 0,17-13 0,-14 7 0,14-8 0,-9 8 0,10-8 0,-7 7 0,8-6 0,-11 6 0,9-7 0,-13 14 0,13-10 0,-5 6 0,11-10 0,-3 3 0,7-2 0,-10 6 0,5-6 0,-10 6 0,6-7 0,-3 3 0,5-6 0,-17 14 0,12-12 0,-15 11 0,18-9 0,-3-2 0,5 2 0,-1-1 0,0-4 0,1 3 0,-1-2 0,-4 10 0,4-10 0,-8 10 0,8-11 0,-8 8 0,8-4 0,-4 4 0,4-5 0,1 2 0,-1-5 0,0 3 0,1-2 0,-1 2 0,0 1 0,1 0 0,-1-7 0,8-6 0,-2-3 0,7-4 0,0 4 0,-3 0 0,2 0 0,-3-4 0,0 2 0,0-2 0,0 0 0,0 3 0,0-7 0,0 7 0,0-2 0,0 2 0,4 1 0,-3 7 0,3 2 0,-4 7 0,0 0 0,0 0 0,0 0 0,0 0 0,0-1 0,0 9 0,0-2 0,0 7 0,0-3 0,0-5 0,0-1 0,0-4 0,0 0 0,0 0 0,0-1 0,4 2 0,1-2 0,-1 2 0,0-2 0,0 1 0,4 0 0,2-4 0,2 0 0,-3-4 0,-1 0 0,5 0 0,2 0 0,14 0 0,-7 0 0,13 0 0,-20 0 0,3 0 0,-13 0 0,-1 0 0</inkml:trace>
 </inkml:ink>
 </file>
 
 <file path=xl/ink/ink2.xml><?xml version="1.0" encoding="utf-8"?>
-<inkml:ink xmlns:inkml="http://www.w3.org/2003/InkML">
-  <inkml:definitions>
-    <inkml:context xml:id="ctx0">
-      <inkml:inkSource xml:id="inkSrc0">
-        <inkml:traceFormat>
-          <inkml:channel name="X" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
-          <inkml:channel name="Y" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
-          <inkml:channel name="F" type="integer" max="32767" units="dev"/>
-        </inkml:traceFormat>
-        <inkml:channelProperties>
-          <inkml:channelProperty channel="X" name="resolution" value="1000" units="1/cm"/>
-          <inkml:channelProperty channel="Y" name="resolution" value="1000" units="1/cm"/>
-          <inkml:channelProperty channel="F" name="resolution" value="0" units="1/dev"/>
-        </inkml:channelProperties>
-      </inkml:inkSource>
-      <inkml:timestamp xml:id="ts0" timeString="2020-04-19T12:04:00.028"/>
-    </inkml:context>
-    <inkml:brush xml:id="br0">
-      <inkml:brushProperty name="width" value="0.05" units="cm"/>
-      <inkml:brushProperty name="height" value="0.05" units="cm"/>
-    </inkml:brush>
-  </inkml:definitions>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0">2615 1 24575,'-8'4'0,"-1"-3"0,-3 9 0,2-4 0,-3 3 0,1-3 0,2 4 0,-10-5 0,9 6 0,-9 3 0,10-6 0,-7 6 0,8-8 0,-5 0 0,6 3 0,-1-8 0,0 4 0,-15 14 0,11-9 0,-20 19 0,23-17 0,-14 8 0,13-13 0,-30 21 0,26-23 0,-22 20 0,23-14 0,-11 5 0,9 1 0,-21 8 0,24-16 0,-25 16 0,26-18 0,-21 18 0,13-12 0,-15 16 0,15-20 0,-8 14 0,13-21 0,-14 22 0,12-15 0,-16 16 0,21-14 0,-29 11 0,27-11 0,-27 14 0,29-13 0,-16 9 0,14-6 0,-7 0 0,7-2 0,2 0 0,3-12 0,-8 18 0,6-15 0,-22 30 0,20-25 0,-19 20 0,21-22 0,-24 24 0,22-26 0,-21 32 0,23-29 0,-30 31 0,26-23 0,-30 19 0,33-24 0,-21 14 0,21-16 0,-26 25 0,25-25 0,-21 22 0,23-19 0,-10 2 0,0 11 0,-20 18 0,10-5 0,-7 13 0,23-33 0,-10 17 0,13-20 0,-25 34 0,19-27 0,-25 45 0,26-43 0,-22 48 0,30-53 0,-25 49 0,26-46 0,-23 37 0,20-38 0,-7 11 0,-4 21 0,14-33 0,-26 59 0,26-57 0,-27 41 0,22-29 0,-22 25 0,23-26 0,-23 36 0,22-39 0,-14 36 0,17-47 0,-13 42 0,12-37 0,-11 36 0,12-35 0,-7 26 0,2-18 0,-3 14 0,7-18 0,-9 12 0,12-14 0,-10 25 0,4-25 0,4 20 0,-4-21 0,-4 27 0,7-31 0,-12 47 0,9-45 0,3 28 0,3-34 0,3 24 0,0-28 0,-4 48 0,4-45 0,-8 39 0,11-42 0,-11 38 0,12-36 0,-8 40 0,8-35 0,-7 20 0,7-17 0,-15 21 0,13-23 0,-14 26 0,16-33 0,-3 25 0,4-21 0,-4 22 0,3-10 0,-2 12 0,3-12 0,0 20 0,0-30 0,0 23 0,0-32 0,0 17 0,0-17 0,0 13 0,0-13 0,0 2 0,0-3 0,0 9 0,0-8 0,0 17 0,0-17 0,0 17 0,0-16 0,0 12 0,0-14 0,0 13 0,0-12 0,0 9 0,0-12 0,0 11 0,0-7 0,0 11 0,0-13 0,0 9 0,0-8 0,0 7 0,0-2 0,0 4 0,0 10 0,0-13 0,0 7 0,0-16 0,0 2 0,0 4 0,0-3 0,0 7 0,0-8 0,0 13 0,0-10 0,0 5 0,0-9 0,0 20 0,0-15 0,0 24 0,0-26 0,0 16 0,0-11 0,0 11 0,0-11 0,0 12 0,0-17 0,0 24 0,0-22 0,3 24 0,-2-27 0,3 7 0,-4-8 0,0-1 0,0 1 0,0 8 0,0-7 0,13 44 0,-10-36 0,14 46 0,-16-45 0,6 21 0,-6-19 0,3 8 0,4-7 0,-6 6 0,7-12 0,-6 26 0,-2-28 0,3 27 0,-4-30 0,4 16 0,-3-17 0,3 17 0,-4-16 0,4 7 0,-3-11 0,11 26 0,-10-19 0,6 28 0,-8-32 0,4 23 0,-3-22 0,7 21 0,-7-20 0,3 15 0,-4-17 0,4 29 0,-3-26 0,3 26 0,-4-23 0,8 12 0,-6-10 0,6 9 0,-8-17 0,0 14 0,4-1 0,1 14 0,0-10 0,-2 10 0,1-27 0,-3 17 0,7-16 0,-4 15 0,1-15 0,7 21 0,-10-19 0,10 24 0,-11-25 0,7 20 0,-3-20 0,4 24 0,0-17 0,0 29 0,-4-19 0,7 12 0,-10-20 0,10 12 0,-7-22 0,3 21 0,6-11 0,-5 4 0,4-5 0,4 12 0,-10-19 0,12 24 0,-13-27 0,18 33 0,-16-28 0,12 18 0,-12-20 0,6 7 0,-5-5 0,16 24 0,-18-27 0,15 22 0,-14-24 0,4 12 0,-2-12 0,14 22 0,-13-21 0,9 16 0,-12-18 0,9 10 0,-7-10 0,10 8 0,-10-11 0,6 11 0,-6-12 0,11 14 0,-11-10 0,14 8 0,-14-7 0,15 3 0,-15-9 0,12 5 0,-12-6 0,3 6 0,-5-5 0,1-2 0,20 6 0,0 7 0,9 1 0,-5 3 0,-18-15 0,13 9 0,-12-8 0,30 9 0,-18-5 0,7-5 0,-3 11 0,-11-10 0,9 6 0,5-8 0,-13 0 0,16-4 0,-22 9 0,10-9 0,-1 14 0,13-7 0,0 8 0,1-10 0,-10 5 0,-2-10 0,2 5 0,14 4 0,-14-8 0,12 13 0,-16-14 0,1 4 0,-1 0 0,8-4 0,-16 4 0,16-5 0,-22 5 0,21-4 0,-19 4 0,32 4 0,-31-6 0,19 8 0,-23-11 0,15 4 0,2-2 0,10 7 0,-10-7 0,18 7 0,-26-6 0,27 2 0,-20-5 0,9 0 0,-14 0 0,12 9 0,-17-6 0,18 6 0,-18-4 0,5-4 0,3 4 0,9 0 0,-3-4 0,6 4 0,-21 1 0,10-4 0,-5 2 0,13-4 0,-16 0 0,28 0 0,-27 10 0,20-8 0,-23 8 0,20-5 0,-17-4 0,12 4 0,-17 0 0,11 1 0,-7-1 0,20 0 0,-21-5 0,9 5 0,-15 1 0,16 6 0,-14-6 0,25 4 0,-20-9 0,16 7 0,-18-7 0,13 4 0,-17-5 0,22 10 0,-21-6 0,21 15 0,-17-17 0,13 8 0,-14-10 0,13 0 0,3 0 0,3 0 0,-4 0 0,-13 5 0,0-4 0,-7 3 0,7-4 0,3 0 0,-1 0 0,3 0 0,1 0 0,-12 0 0,13 0 0,-9 0 0,22 0 0,-19 0 0,10 0 0,-11 0 0,9 0 0,-5 0 0,16 0 0,-26 0 0,27 0 0,-26 0 0,14 0 0,3 0 0,14 0 0,-2 0 0,6 0 0,-22 0 0,6 0 0,-5 0 0,13 0 0,-22 0 0,14 0 0,4 0 0,5 0 0,4 0 0,-2 0 0,-18 0 0,8 0 0,-9 0 0,-5 0 0,11 0 0,-16 0 0,19 0 0,-22 0 0,18 0 0,-16 0 0,21 5 0,-22 1 0,39 0 0,-34-3 0,22-3 0,-25 0 0,-3 0 0,3 0 0,8 0 0,-10 0 0,18 0 0,-19 0 0,23 6 0,-20-4 0,41 7 0,-33-7 0,30 4 0,-31-6 0,14 0 0,-13 0 0,13 0 0,-8 0 0,17 0 0,-19 0 0,17 0 0,-30 0 0,30 0 0,-22 5 0,18-4 0,-17 4 0,17 6 0,-19-9 0,18 12 0,-25-12 0,22 3 0,-16 1 0,16-5 0,-18 4 0,13-5 0,-16 5 0,28-5 0,-26 4 0,26 7 0,-28-8 0,8 6 0,-11-9 0,-1 0 0,6 0 0,3 5 0,2-4 0,6 4 0,-5-5 0,21 5 0,-22-4 0,22 9 0,-31-9 0,24 3 0,-22-4 0,26 0 0,-26 0 0,37 11 0,-33-9 0,34 8 0,-39-10 0,22 5 0,-21-4 0,25 9 0,-24-9 0,34 4 0,-21 0 0,29 7 0,-24-4 0,22 8 0,-35-15 0,29 9 0,-34-9 0,34 4 0,-33 0 0,16-4 0,-9 4 0,-5-5 0,27 5 0,3 6 0,-10-4 0,5 3 0,-31-10 0,20 4 0,-17-2 0,32 7 0,-31-7 0,22 12 0,-25-10 0,18 10 0,-17-12 0,17 2 0,-15-4 0,4 0 0,-1 0 0,-8 0 0,8 5 0,-3 1 0,-1 0 0,-1-2 0,1-4 0,1 11 0,7-4 0,-3 4 0,7-2 0,-7-8 0,3 4 0,-8-5 0,0 5 0,-1-4 0,-3 4 0,4-5 0,-5 0 0,18 9 0,-14-6 0,29 12 0,-28-13 0,19 7 0,-22-7 0,22 6 0,-20-7 0,12 9 0,-16-5 0,5 1 0,-4 4 0,4-9 0,-5 4 0,13 3 0,-10-5 0,22 21 0,-21-21 0,20 17 0,-20-19 0,28 18 0,-26-10 0,22 10 0,-26-13 0,6 4 0,-7-5 0,-1 6 0,1-1 0,7 10 0,-5-8 0,9 8 0,-11-9 0,11-2 0,-6 7 0,3-5 0,-4 0 0,0-1 0,-4-6 0,4 4 0,-4 0 0,7 3 0,-5 0 0,5 4 0,-8-9 0,8 8 0,-5-8 0,13 14 0,-14-8 0,6 2 0,-7-3 0,-1-1 0,1 1 0,3 3 0,-2-6 0,2 5 0,-4-7 0,1 9 0,0-3 0,-1 2 0,1-3 0,-1-1 0,-3 1 0,3-1 0,-8 0 0,8 10 0,-7-7 0,10 11 0,-5-13 0,6 9 0,-7-8 0,7 17 0,-3-11 0,4 9 0,0-7 0,-4-4 0,0 1 0,3 7 0,-3-10 0,8 10 0,-12-13 0,7 8 0,-8-7 0,5 13 0,0-13 0,-1 7 0,1-8 0,-5 0 0,4-1 0,-3 4 0,3-2 0,5 8 0,-4-8 0,3 7 0,-7-8 0,10 13 0,-12-10 0,12 9 0,-10-11 0,4 13 0,0-12 0,0 7 0,-5-9 0,4 5 0,-3 0 0,0 1 0,3 3 0,-3-8 0,4 4 0,0-6 0,-5 1 0,0 0 0,0-2 0,1 6 0,3-3 0,1 2 0,-5-3 0,4-1 0,-3 6 0,0-5 0,2 3 0,2 2 0,-4-5 0,3 5 0,-4-7 0,-3 2 0,6-1 0,-6 1 0,3-1 0,0 1 0,1-2 0,3 2 0,-3 0 0,2-1 0,-6 1 0,7-2 0,-7 7 0,7-5 0,-4 4 0,5-4 0,-8-2 0,-2-3 0,-8 4 0,0-4 0,1-1 0,-1 0 0,0-5 0,1 0 0,-1 0 0,0 0 0,1 0 0,-1 0 0,0 0 0,1 5 0,3 1 0,5 3 0,14 2 0,-3 0 0,23-4 0,-22 2 0,22-8 0,-23 9 0,7-9 0,-10 3 0,1-4 0,0 0 0,-1-4 0,-3-2 0,-1-5 0,-4 0 0,3 2 0,-2-2 0,3 0 0,-4 1 0,0-1 0,4-13 0,-3 9 0,3-19 0,-4 22 0,0-8 0,4 9 0,0 1 0,1-1 0,-1 0 0,0 1 0,-3 0 0,2-1 0,-3 6 0,0 0 0</inkml:trace>
-</inkml:ink>
-</file>
-
-<file path=xl/ink/ink3.xml><?xml version="1.0" encoding="utf-8"?>
-<inkml:ink xmlns:inkml="http://www.w3.org/2003/InkML">
-  <inkml:definitions>
-    <inkml:context xml:id="ctx0">
-      <inkml:inkSource xml:id="inkSrc0">
-        <inkml:traceFormat>
-          <inkml:channel name="X" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
-          <inkml:channel name="Y" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
-          <inkml:channel name="F" type="integer" max="32767" units="dev"/>
-        </inkml:traceFormat>
-        <inkml:channelProperties>
-          <inkml:channelProperty channel="X" name="resolution" value="1000" units="1/cm"/>
-          <inkml:channelProperty channel="Y" name="resolution" value="1000" units="1/cm"/>
-          <inkml:channelProperty channel="F" name="resolution" value="0" units="1/dev"/>
-        </inkml:channelProperties>
-      </inkml:inkSource>
-      <inkml:timestamp xml:id="ts0" timeString="2020-04-19T12:04:10.425"/>
-    </inkml:context>
-    <inkml:brush xml:id="br0">
-      <inkml:brushProperty name="width" value="0.05" units="cm"/>
-      <inkml:brushProperty name="height" value="0.05" units="cm"/>
-    </inkml:brush>
-  </inkml:definitions>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0">305 0 24575,'-4'9'0,"-1"-1"0,-4 0 0,0 1 0,4-1 0,-3 1 0,7-1 0,-6 0 0,2 0 0,-4 1 0,-1-1 0,6 0 0,-4 0 0,3 1 0,-4-1 0,1 1 0,3-1 0,-3 0 0,2 5 0,-3 1 0,0 0 0,-1 8 0,1-7 0,-1 9 0,4-11 0,1 5 0,-3-4 0,1 9 0,-2-4 0,0 0 0,4-1 0,-1-5 0,-2 6 0,3-6 0,0 10 0,-3-12 0,7 15 0,-7-10 0,2 20 0,1-16 0,-4 14 0,4-20 0,0 3 0,1-6 0,4-1 0,-4 9 0,3-9 0,-2 18 0,3-18 0,0 10 0,0-11 0,0 2 0,0 3 0,0 3 0,0 2 0,0 0 0,0 3 0,0 3 0,0 5 0,0 11 0,0-8 0,0 7 0,0-11 0,0 1 0,3-8 0,2 13 0,4-20 0,-5 11 0,0-14 0,1 0 0,0 5 0,4-3 0,3 10 0,-6-13 0,14 15 0,-13-14 0,13 14 0,-15-15 0,20 16 0,-17-16 0,12 9 0,-7-8 0,-3-2 0,3 1 0,-5-2 0,1-1 0,13 13 0,-10-13 0,34 33 0,-31-32 0,31 27 0,-35-25 0,15 8 0,-17-10 0,11 11 0,-9-14 0,17 9 0,-16-10 0,7 3 0,-9 1 0,15-5 0,-12 3 0,25-2 0,-26 0 0,34 7 0,-30-10 0,34 13 0,-37-13 0,24 9 0,-25-10 0,21 11 0,-20-10 0,24 10 0,-19-7 0,48 13 0,-43-10 0,52 8 0,-55-14 0,77 6 0,-59-7 0,43 3 0,-55-4 0,44 0 0,-44 0 0,33 2 0,-2 1 0,-34-2 0,55 2 0,-66-3 0,36 0 0,-33 0 0,58 0 0,-47 0 0,25 0 0,-28 0 0,-8 0 0,25 9 0,-19-6 0,37 6 0,-39-9 0,33 0 0,-37 0 0,33 0 0,-27 0 0,33 0 0,-21 0 0,11 0 0,-24 0 0,7 0 0,-2 0 0,-3 0 0,18 0 0,-27 0 0,39 0 0,-32 0 0,42 0 0,-33 0 0,25 0 0,-30 0 0,38 0 0,-45 0 0,50 0 0,-49 0 0,21 0 0,-14 0 0,13 0 0,-11 0 0,18 0 0,-17 0 0,32 0 0,-29 0 0,35 0 0,-37 0 0,29 0 0,-33 0 0,33 0 0,-32 0 0,29 0 0,-17 0 0,25 0 0,-32 0 0,34 0 0,-39 0 0,28 0 0,-27 4 0,18-3 0,-22 3 0,21-4 0,-27 0 0,8 4 0,10-3 0,2 2 0,7-3 0,-1 0 0,-26 0 0,20 0 0,-23 0 0,28 0 0,-19 0 0,30 0 0,-18 0 0,18 0 0,-31 0 0,22 0 0,-27 0 0,23 0 0,-14 0 0,27 0 0,-13 0 0,16 0 0,-25 0 0,14 0 0,-22 0 0,31 0 0,-25 0 0,40 0 0,-41 0 0,52 0 0,-52 0 0,36 0 0,-31 0 0,21 0 0,-30 0 0,19 0 0,-17 0 0,17 0 0,-13 0 0,30 0 0,-44 0 0,40 0 0,-42 0 0,28 0 0,-23 0 0,38 0 0,-29 0 0,13 0 0,-20 4 0,-6-3 0,11 3 0,-8-4 0,20 0 0,-20 8 0,9-6 0,-9 7 0,20-9 0,-8 0 0,10 0 0,3 0 0,4 0 0,-1 0 0,8 0 0,-27 0 0,14 0 0,-10 0 0,23 4 0,-26 1 0,20 0 0,-32-2 0,27 1 0,-24-2 0,30 2 0,-27-4 0,18 0 0,-13 9 0,21-7 0,-24 7 0,22-9 0,-30 0 0,19 0 0,-9 0 0,10 0 0,-14 0 0,23 0 0,-25 0 0,28 0 0,-32 0 0,17 0 0,-21 0 0,21 0 0,-16 0 0,22 0 0,-22 0 0,24 4 0,-28-3 0,20 6 0,-23-6 0,18 3 0,-15-4 0,20 0 0,-22 0 0,31 4 0,-29-4 0,24 4 0,-27-4 0,20 0 0,-19 0 0,19 0 0,-4 0 0,-5 0 0,4 4 0,-17 1 0,14 0 0,-11-2 0,22 1 0,-20-3 0,20 3 0,-16 0 0,12-3 0,-14 3 0,26 0 0,-21-3 0,14 3 0,-17-4 0,1 9 0,-2-7 0,9 5 0,-15-7 0,23 4 0,-16-3 0,16 7 0,-18-8 0,9 4 0,-14-4 0,7 0 0,3 4 0,-4-3 0,5 3 0,-8-4 0,17 8 0,-5-6 0,8 6 0,-6-8 0,-15 0 0,11 3 0,-8-2 0,11 7 0,-12-3 0,3 0 0,-7-1 0,2-4 0,-2 0 0,6 8 0,-7-7 0,8 10 0,-3-10 0,7 6 0,-2-6 0,2 7 0,-8-7 0,0 3 0,-4 0 0,-1-1 0,1 2 0,3 3 0,-1-7 0,9 2 0,-10 1 0,15-3 0,-15 3 0,6 0 0,-7-3 0,16 9 0,-13-8 0,13 6 0,-17-5 0,5-2 0,-4 3 0,7 0 0,-5-3 0,9 6 0,-10-6 0,19 10 0,-14-6 0,6 8 0,-8-8 0,-4-2 0,-1-3 0,1 4 0,-1-3 0,6 6 0,-4-2 0,7 8 0,-8-8 0,9 7 0,-12-8 0,14 5 0,-14-1 0,12 1 0,-10-1 0,4 4 0,-2-3 0,2 4 0,-2-5 0,-2 0 0,1 0 0,0 1 0,-1-1 0,1 1 0,-5-2 0,1 2 0,3 3 0,-3-2 0,12 5 0,-12-6 0,3 10 0,-4-8 0,1 9 0,4-11 0,-1 10 0,-3-8 0,3 11 0,-3-11 0,-1 5 0,4-9 0,-2 10 0,-1-6 0,-1 5 0,0 0 0,1 5 0,-1-2 0,4 7 0,-7-15 0,6 12 0,-2-13 0,0 13 0,4-13 0,-9 14 0,4-15 0,0 20 0,1-19 0,0 15 0,-2-16 0,-3 18 0,0-14 0,0 10 0,0-10 0,0-1 0,0 1 0,0 0 0,0-2 0,0-2 0,0 15 0,0-13 0,0 23 0,0-17 0,0 16 0,0-19 0,0 9 0,0-12 0,0 5 0,0-8 0,0 0 0,0 1 0,-3-1 0,2 4 0,-3 2 0,-4 3 0,6-4 0,-6-1 0,3-3 0,5-1 0,-4 4 0,4-3 0,-4 3 0,3-3 0,-7-1 0,3 0 0,-3 1 0,-1-1 0,4 1 0,-4 6 0,5-5 0,-9 13 0,7-13 0,-1 7 0,3-10 0,3 2 0,-3 4 0,4-4 0,-4 4 0,-1-5 0,-1 4 0,2-2 0,1 1 0,-2-2 0,-4 3 0,4-2 0,-2 1 0,6-10 0,-3-2 0,4-7 0,0-1 0,0 1 0,0-1 0,0 0 0,0 2 0,0-2 0,0 0 0,4-3 0,0 3 0,9-11 0,-8 17 0,7-4 0,-11 16 0,2-1 0,-3 1 0,0-2 0,0 2 0,0 3 0,0-2 0,0 1 0,0-2 0,0-1 0,0 1 0,5-1 0,0-4 0,4 0 0,-1-4 0,1 0 0,-1 0 0,2 0 0,-2-4 0,1 0 0,-1-5 0,1 5 0,-1-4 0,2 3 0,-1-4 0,-1 2 0,1 2 0,-1 1 0,1 0 0,-8 7 0,-2-2 0,-4 7 0,-3 0 0,3 0 0,-3-3 0,-1 3 0,-1-3 0,1 3 0,1 0 0,-1-4 0,0 4 0,-3-3 0,1 3 0,-1 1 0,3-5 0,0-1 0,1-3 0,-2 0 0,1 0 0,1 0 0,-5 0 0,3 0 0,-3 0 0,4-3 0,1-1 0,3-5 0,-3 0 0,-1-7 0,0 6 0,-5-6 0,9 7 0,1 1 0,1 0 0,2-1 0,-3 1 0,4-1 0,-4 1 0,-1-4 0,0 2 0,-2-3 0,6 6 0,-4-2 0,5-3 0,0 2 0,0-2 0,0 4 0,0-1 0,0 0 0,0 4 0,0 2 0</inkml:trace>
-</inkml:ink>
-</file>
-
-<file path=xl/ink/ink4.xml><?xml version="1.0" encoding="utf-8"?>
 <inkml:ink xmlns:inkml="http://www.w3.org/2003/InkML">
   <inkml:definitions>
     <inkml:context xml:id="ctx0">
@@ -2121,7 +2006,61 @@
       <inkml:brushProperty name="height" value="0.05" units="cm"/>
     </inkml:brush>
   </inkml:definitions>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0">1818 593 24575,'5'8'0,"-2"1"0,-3-1 0,0 1 0,0-1 0,0 1 0,0 0 0,0-1 0,0 1 0,0 4 0,0-4 0,0 4 0,0-4 0,0 9 0,0-7 0,0 7 0,0-9 0,0 0 0,0-1 0,0 1 0,0-1 0,-3 5 0,2-4 0,-7 7 0,3-6 0,-4 6 0,5-7 0,0 4 0,4-5 0,0 1 0,0-1 0,0 1 0,-4-1 0,-1 1 0,0-1 0,-2 5 0,2-4 0,-4 4 0,0-5 0,1 4 0,-1-2 0,0 2 0,1-3 0,-1-1 0,0 1 0,1-1 0,-1 1 0,0 0 0,1-1 0,-1 1 0,-11 7 0,8-6 0,-12 6 0,14-7 0,-6-1 0,6-3 0,-10 10 0,9-12 0,-13 13 0,13-15 0,-18 7 0,18-3 0,-17 7 0,13-6 0,-11 5 0,12-10 0,-7 7 0,11-7 0,-2 3 0,-13-4 0,12 0 0,-24 8 0,25-5 0,-25 5 0,24-8 0,-30 0 0,20 4 0,-30-3 0,24 8 0,-22-8 0,34 3 0,-26 0 0,31-3 0,-26 4 0,26-5 0,-26 0 0,22 0 0,-31 0 0,29 0 0,-33 0 0,37 0 0,-24 0 0,27 0 0,-18 0 0,17 0 0,-21-5 0,21 4 0,-21-11 0,17 5 0,-19-6 0,19 4 0,-17-5 0,21 4 0,-16-3 0,17 8 0,-5-3 0,7 7 0,-8-10 0,7 5 0,-7-6 0,9 3 0,-5 4 0,4-3 0,-8-4 0,8 1 0,-12-13 0,11 13 0,-11-13 0,11 13 0,-10-14 0,13 15 0,-12-18 0,13 11 0,-12-17 0,12 17 0,-10-13 0,14 19 0,-10-17 0,7 16 0,-8-17 0,7 19 0,-1-7 0,-1-3 0,-2-3 0,1 0 0,1-1 0,8 14 0,0-6 0,-4 6 0,3-10 0,-3 9 0,4-13 0,0 13 0,0-13 0,0 14 0,0-11 0,0 12 0,0-8 0,0 8 0,0-8 0,0 8 0,0-8 0,4 8 0,1-4 0,0 4 0,2 1 0,-2-9 0,8 2 0,-3-3 0,2 5 0,-4 5 0,5-5 0,0 4 0,0-4 0,0 4 0,7-7 0,-1 1 0,3-3 0,-5 5 0,-8 8 0,-1 1 0,5 0 0,5-5 0,27-10 0,-21 8 0,24-6 0,-24 12 0,-3-5 0,17 1 0,-25 0 0,29-8 0,-30 10 0,17-5 0,-19 8 0,6 3 0,-6-2 0,13-1 0,-7-6 0,5 4 0,-8-2 0,8 4 0,-5-2 0,22-3 0,-17-1 0,16 1 0,-21 4 0,4-3 0,-11 7 0,3-2 0,-10 3 0,1 0 0,-12 0 0,0 0 0,1 0 0,-1 0 0,0 0 0,1 0 0,-1 0 0,0-4 0,1-1 0,-1 0 0,0 1 0,1 4 0,-1 0 0,0 0 0,1 0 0,-1 0 0,0 0 0,1 0 0,-1 0 0,0 0 0,-3 0 0,2 0 0,-3 0 0,5 0 0,7 0 0,14 4 0,-2-3 0,10 4 0,-12-2 0,7 6 0,-6 0 0,6 0 0,-7-5 0,-1 0 0,1-3 0,-1 2 0,5-3 0,-4 0 0,8 0 0,-7 0 0,3 0 0,-5 0 0,9 0 0,-6 0 0,6 4 0,-12 5 0,-5 0 0,-5 3 0,-4-3 0,0 0 0,1-1 0,-1 1 0,-4-5 0,4 4 0,-4-3 0,5 3 0,3-3 0,1-1 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0">1818 545 24575,'5'7'0,"-2"1"0,-3 0 0,0 0 0,0-1 0,0 1 0,0 1 0,0-2 0,0 1 0,0 4 0,0-3 0,0 2 0,0-2 0,0 7 0,0-6 0,0 7 0,0-9 0,0 0 0,0 0 0,0 0 0,0-1 0,-3 5 0,2-3 0,-7 5 0,3-5 0,-4 6 0,5-7 0,0 4 0,4-4 0,0 0 0,0-1 0,0 2 0,-4-2 0,-1 1 0,0 0 0,-2 3 0,2-2 0,-4 3 0,0-5 0,1 4 0,-1-2 0,0 2 0,1-2 0,-1-2 0,0 1 0,1 0 0,-1 0 0,0 0 0,1-1 0,-1 2 0,-11 5 0,8-4 0,-12 4 0,14-6 0,-6 0 0,6-4 0,-10 10 0,9-11 0,-13 12 0,13-14 0,-18 6 0,18-2 0,-17 6 0,13-6 0,-11 5 0,12-9 0,-7 6 0,11-6 0,-2 3 0,-13-4 0,12 0 0,-24 7 0,25-4 0,-25 4 0,24-7 0,-30 0 0,20 4 0,-30-3 0,24 7 0,-22-7 0,34 3 0,-26 0 0,31-4 0,-26 5 0,26-5 0,-26 0 0,22 0 0,-31 0 0,29 0 0,-33 0 0,37 0 0,-24 0 0,27 0 0,-18 0 0,17 0 0,-21-5 0,21 5 0,-21-11 0,17 4 0,-19-5 0,19 4 0,-17-5 0,21 4 0,-16-3 0,17 7 0,-5-2 0,7 6 0,-8-9 0,7 4 0,-7-5 0,9 3 0,-5 4 0,4-4 0,-8-3 0,8 1 0,-12-12 0,11 12 0,-11-12 0,11 12 0,-10-13 0,13 14 0,-12-17 0,13 10 0,-12-15 0,12 16 0,-10-13 0,14 18 0,-10-16 0,7 15 0,-8-16 0,7 18 0,-1-6 0,-1-4 0,-2-2 0,1 0 0,1-1 0,8 13 0,0-6 0,-4 6 0,3-9 0,-3 8 0,4-13 0,0 13 0,0-12 0,0 13 0,0-10 0,0 11 0,0-8 0,0 8 0,0-8 0,0 8 0,0-8 0,4 8 0,1-4 0,0 4 0,2 0 0,-2-7 0,8 1 0,-3-3 0,2 6 0,-4 3 0,5-4 0,0 4 0,0-4 0,0 4 0,7-7 0,-1 1 0,3-2 0,-5 4 0,-8 7 0,-1 2 0,5-1 0,5-4 0,27-10 0,-21 8 0,24-6 0,-24 12 0,-3-5 0,17 0 0,-25 1 0,29-7 0,-30 8 0,17-4 0,-19 7 0,6 4 0,-6-3 0,13-1 0,-7-5 0,5 3 0,-8-1 0,8 3 0,-5-1 0,22-3 0,-17-2 0,16 2 0,-21 4 0,4-4 0,-11 7 0,3-1 0,-10 2 0,1 0 0,-12 0 0,0 0 0,1 0 0,-1 0 0,0 0 0,1 0 0,-1 0 0,0-4 0,1-1 0,-1 1 0,0 0 0,1 4 0,-1 0 0,0 0 0,1 0 0,-1 0 0,0 0 0,1 0 0,-1 0 0,0 0 0,-3 0 0,2 0 0,-3 0 0,5 0 0,7 0 0,14 4 0,-2-3 0,10 3 0,-12-1 0,7 5 0,-6 0 0,6 1 0,-7-6 0,-1 1 0,1-3 0,-1 2 0,5-3 0,-4 0 0,8 0 0,-7 0 0,3 0 0,-5 0 0,9 0 0,-6 0 0,6 3 0,-12 6 0,-5-1 0,-5 3 0,-4-3 0,0 1 0,1-2 0,-1 1 0,-4-4 0,4 3 0,-4-2 0,5 2 0,3-2 0,1-2 0</inkml:trace>
+</inkml:ink>
+</file>
+
+<file path=xl/ink/ink3.xml><?xml version="1.0" encoding="utf-8"?>
+<inkml:ink xmlns:inkml="http://www.w3.org/2003/InkML">
+  <inkml:definitions>
+    <inkml:context xml:id="ctx0">
+      <inkml:inkSource xml:id="inkSrc0">
+        <inkml:traceFormat>
+          <inkml:channel name="X" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
+          <inkml:channel name="Y" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
+          <inkml:channel name="F" type="integer" max="32767" units="dev"/>
+        </inkml:traceFormat>
+        <inkml:channelProperties>
+          <inkml:channelProperty channel="X" name="resolution" value="1000" units="1/cm"/>
+          <inkml:channelProperty channel="Y" name="resolution" value="1000" units="1/cm"/>
+          <inkml:channelProperty channel="F" name="resolution" value="0" units="1/dev"/>
+        </inkml:channelProperties>
+      </inkml:inkSource>
+      <inkml:timestamp xml:id="ts0" timeString="2020-05-11T20:06:52.621"/>
+    </inkml:context>
+    <inkml:brush xml:id="br0">
+      <inkml:brushProperty name="width" value="0.05" units="cm"/>
+      <inkml:brushProperty name="height" value="0.05" units="cm"/>
+    </inkml:brush>
+  </inkml:definitions>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0">1151 0 24575,'-4'4'0,"-9"5"0,2 5 0,-9 5 0,-9 12 0,-8 4 0,0 0 0,-13 5 0,6-6 0,-14 3 0,12 3 0,-16-4 0,21 4 0,-16-3 0,18 3 0,-4-6 0,8-2 0,7-6 0,-6 4 0,12-9 0,-5 4 0,12-12 0,0 5 0,10-9 0,-3 4 0,7-5 0,-4 1 0,5-1 0,0 0 0,0 0 0,0 0 0,0 0 0,0 4 0,0 8 0,-4 4 0,-7 6 0,-7 5 0,-5 3 0,-1 7 0,5 6 0,-3-7 0,4 0 0,0-3 0,-3-9 0,8 4 0,-3-5 0,10-6 0,-4-1 0,5-6 0,-1 0 0,2-4 0,4-2 0,-5 1 0,4-3 0,-4 12 0,1-7 0,3 14 0,-8-9 0,8 3 0,-9 7 0,9-4 0,-10 10 0,10-6 0,-8-1 0,7 1 0,-7-5 0,8 3 0,-3-9 0,-1 9 0,3-8 0,-7 4 0,8-6 0,-4 1 0,1 3 0,3-2 0,-4 3 0,1-5 0,3-4 0,-4 3 0,5-8 0,0 4 0,0-5 0,0 0 0,0 1 0,0-1 0,0 0 0,0 0 0,0 5 0,0 0 0,0 11 0,0 1 0,0 11 0,0-5 0,0 6 0,0-13 0,0-1 0,0-5 0,0 1 0,0-6 0,0 0 0,0-5 0,0 0 0,0 0 0,0 5 0,0 6 0,0 0 0,0 10 0,0-4 0,0 12 0,0-6 0,-5 5 0,4-12 0,-4 5 0,5-9 0,0 9 0,0-10 0,0 10 0,0-10 0,0 5 0,0 0 0,0-5 0,0 5 0,0-6 0,0-4 0,0-1 0,0-5 0,0 0 0,0 1 0,0-1 0,0 0 0,0 1 0,0-1 0,0 5 0,0 0 0,0 11 0,0 0 0,0 7 0,0 4 0,0-9 0,0 8 0,0-10 0,0 1 0,0-7 0,0-1 0,0-8 0,4 4 0,-3-5 0,3 0 0,0 0 0,-3 5 0,3-3 0,1 7 0,-4 2 0,3 0 0,0 5 0,-3-1 0,8-4 0,-8 4 0,4-9 0,-5-1 0,4-5 0,-3 0 0,3 1 0,0-1 0,1 0 0,0 5 0,3 1 0,2 12 0,2 0 0,2 2 0,-3 1 0,-1-10 0,0 5 0,0-6 0,0 1 0,5-1 0,-4 5 0,3-3 0,-4-1 0,0-2 0,-1-7 0,5 7 0,-3-8 0,2 4 0,-4-5 0,0 0 0,0 0 0,-4 1 0,3-1 0,-3 0 0,4 1 0,0-1 0,0 0 0,0 0 0,0 1 0,0-1 0,0 0 0,0 0 0,0 0 0,-4 1 0,3-1 0,-4 0 0,5 0 0,0 1 0,5-1 0,-4 0 0,8 1 0,-7 0 0,8 0 0,-9-1 0,4 1 0,-5-1 0,5 1 0,-4-1 0,4 1 0,0 0 0,-4-1 0,9 1 0,-9-1 0,9 1 0,-9 0 0,4-4 0,-5 2 0,0-6 0,0 3 0,-4 0 0,3-3 0,-3 6 0,4-2 0,0 3 0,0-3 0,5 2 0,1-2 0,0 4 0,9 0 0,-8 0 0,10 1 0,-6-1 0,0 0 0,6 5 0,1-3 0,0 3 0,5-4 0,2 5 0,-1-4 0,7 5 0,-8-7 0,1 6 0,0-4 0,-1 4 0,-5-6 0,4 1 0,-15-1 0,13 0 0,-12 0 0,2 0 0,0-4 0,-5 3 0,1-4 0,-2 1 0,1 3 0,-4-7 0,4 6 0,-5-6 0,0 3 0,0 0 0,0-4 0,0 4 0,0 0 0,0 0 0,0 1 0,5 3 0,1-3 0,5 0 0,-5 3 0,12-3 0,-10 3 0,18-3 0,-14 3 0,5-7 0,-6 7 0,5-7 0,2 8 0,6-8 0,0 8 0,-1-8 0,1 8 0,6-8 0,-6 8 0,7-4 0,-8 0 0,0 4 0,0-8 0,7 8 0,-5-8 0,5 9 0,-7-9 0,0 7 0,8-7 0,-7 4 0,7-1 0,-8-3 0,8 9 0,-12-9 0,9 4 0,-10-1 0,-1-3 0,6 8 0,-11-8 0,5 8 0,-1-4 0,2 0 0,5 4 0,-5-4 0,5 1 0,-11 2 0,5-7 0,-1 3 0,-4 0 0,4-3 0,-5 3 0,0 0 0,0-3 0,5 3 0,-4-4 0,11 5 0,-6 0 0,7 1 0,6 3 0,-5-4 0,5 5 0,-7-4 0,0 2 0,-5-2 0,11 4 0,-11-1 0,20 2 0,-7-1 0,6-4 0,2 4 0,6-3 0,-6 3 0,15 2 0,-15-1 0,6 0 0,8-1 0,-24 0 0,15-5 0,-33-1 0,6 0 0,-6-3 0,0 8 0,0-8 0,4 7 0,-2-3 0,2 4 0,1 1 0,-4-5 0,4 3 0,-5-3 0,1 0 0,-2 3 0,1-3 0,5 5 0,-3-1 0,9-4 0,-4 4 0,-1-4 0,5 1 0,-4 2 0,-1-6 0,5 7 0,-10-4 0,11 0 0,1 4 0,1-4 0,12 6 0,-5-1 0,5 5 0,1-3 0,-1 8 0,0-8 0,2 4 0,-2-6 0,-5 1 0,-2-1 0,-12 0 0,-3-1 0,-4 0 0,5 0 0,-9 0 0,2-1 0,-5-3 0,-2 2 0,7-6 0,-3 7 0,5-3 0,-1 4 0,7-4 0,1 3 0,5-2 0,1 4 0,6 0 0,-5 0 0,6 1 0,-8-2 0,1 1 0,5 5 0,-3 1 0,4 1 0,-12-3 0,4 0 0,-5-4 0,1 9 0,3-9 0,-8 8 0,3-8 0,-5 8 0,6-3 0,-5 3 0,5 1 0,-1 0 0,-4-1 0,5 2 0,-6-2 0,4-4 0,-2 4 0,2-4 0,-4 0 0,-4 3 0,3-6 0,-4 6 0,5-3 0,-5 0 0,3 3 0,6 0 0,-6 3 0,9-2 0,-12-1 0,5-3 0,0 5 0,0-1 0,0-4 0,-5 3 0,4-7 0,-4 3 0,0-4 0,-1-1 0,-5 1 0,0-1 0,-1 0 0,6 1 0,1 0 0,0-1 0,3 1 0,-3 0 0,11 5 0,-5 0 0,12 12 0,-11-6 0,11 6 0,-11-7 0,-1 0 0,-7-5 0,-5-2 0,1-3 0,3-1 0,-2 1 0,3 0 0,-5-1 0,-1 0 0,2 0 0,-5 1 0,3-5 0,-7 4 0,7-7 0,-3 6 0,0-3 0,3 1 0,-7-5 0,-6-1 0,0-2 0,-8-1 0,4 3 0,5-6 0,-4 6 0,3-3 0,-4 4 0,0 0 0,-1 0 0,1 0 0,-5 0 0,4 0 0,-9 0 0,9 0 0,-5 0 0,6 0 0,0 0 0,0 0 0,0 0 0,8 0 0,6 0 0,5 0 0,3 0 0,-4 0 0,0 0 0,0 0 0,0 0 0,0 4 0,0-3 0,0 3 0,0 0 0,0-4 0,0 8 0,0-7 0,0 6 0,0-6 0,0 6 0,-4-2 0,4-1 0,-8 3 0,3-2 0,-1-1 0,2-1 0,-1-6 0,0-2 0,-4-7 0,0 2 0,0-3 0,0 0 0,0 4 0,0-9 0,0 9 0,0-4 0,0 4 0,0 1 0,0-1 0,0 1 0,0 0 0,0-1 0,0 1 0,0 0 0,0 0 0,0 0 0,0 0 0,0 0 0,0 0 0,0 4 0,0 0 0</inkml:trace>
+</inkml:ink>
+</file>
+
+<file path=xl/ink/ink4.xml><?xml version="1.0" encoding="utf-8"?>
+<inkml:ink xmlns:inkml="http://www.w3.org/2003/InkML">
+  <inkml:definitions>
+    <inkml:context xml:id="ctx0">
+      <inkml:inkSource xml:id="inkSrc0">
+        <inkml:traceFormat>
+          <inkml:channel name="X" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
+          <inkml:channel name="Y" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
+          <inkml:channel name="F" type="integer" max="32767" units="dev"/>
+        </inkml:traceFormat>
+        <inkml:channelProperties>
+          <inkml:channelProperty channel="X" name="resolution" value="1000" units="1/cm"/>
+          <inkml:channelProperty channel="Y" name="resolution" value="1000" units="1/cm"/>
+          <inkml:channelProperty channel="F" name="resolution" value="0" units="1/dev"/>
+        </inkml:channelProperties>
+      </inkml:inkSource>
+      <inkml:timestamp xml:id="ts0" timeString="2020-05-11T20:07:39.528"/>
+    </inkml:context>
+    <inkml:brush xml:id="br0">
+      <inkml:brushProperty name="width" value="0.05" units="cm"/>
+      <inkml:brushProperty name="height" value="0.05" units="cm"/>
+    </inkml:brush>
+  </inkml:definitions>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0">3356 1 24575,'-17'0'0,"4"3"0,4 2 0,-4 3 0,11 1 0,-16 0 0,16-1 0,-7 1 0,5-1 0,3 0 0,-8 1 0,4-1 0,-9 1 0,-1 4 0,-1 7 0,-3-1 0,3 5 0,1-6 0,0-4 0,1 4 0,-9 2 0,-7 14 0,0-1 0,-6 7 0,12-9 0,-3-4 0,5 2 0,1-10 0,0 5 0,0 0 0,-5 1 0,4 0 0,-4-1 0,10-5 0,-3-5 0,8 3 0,-3-7 0,5 3 0,3-5 0,-2 0 0,3 1 0,-9 0 0,-1 4 0,-6 1 0,1 5 0,-7 6 0,-2 1 0,-1 7 0,-5 0 0,7-7 0,-1-1 0,3-6 0,11-1 0,1-4 0,4-1 0,1-4 0,0-1 0,-5 5 0,-1 1 0,-5 4 0,0 0 0,4 1 0,-2-1 0,-7 14 0,-4-4 0,-1 10 0,2-7 0,-1 7 0,5-6 0,-14 15 0,0 0 0,5-5 0,-12 16 0,14-11 0,-14 8 0,6-4 0,-5 1 0,7-5 0,4 5 0,-4-4 0,12-5 0,-12 5 0,6-10 0,-1 13 0,-5-8 0,11 13 0,-11-2 0,2 20 0,2-17 0,-6 21 0,11-16 0,-4 11 0,6 2 0,-2 1 0,10-29 0,0-1 0,-5 27 0,1-26 0,2 0 0,4 26 0,-5-20 0,-1 1-478,0 19 478,2-15 0,1-5 0,5-16 0,-4 22 0,12-36 0,-10 8 0,3 6 0,-8-6 478,3 6-478,1-6 0,-5 6 0,10-5 0,-10 4 0,4 1 0,-4-5 0,3 11 0,-2-11 0,8 4 0,-3-5 0,6-7 0,-1 0 0,6-6 0,-4-4 0,8-2 0,-7 1 0,1 7 0,-3 5 0,-1 6 0,-1-1 0,1 1 0,0-1 0,0 1 0,0-1 0,0 1 0,0-1 0,0 1 0,-1-1 0,1 1 0,0-1 0,0 5 0,0-3 0,0 3 0,0-4 0,-1 5 0,1-4 0,-1 11 0,0-5 0,1 0 0,4-1 0,-3 0 0,4-5 0,-6 4 0,0 1 0,1-5 0,0 5 0,4-7 0,-3 7 0,4-5 0,-5 4 0,-1-6 0,1 15 0,0-12 0,0 12 0,5-20 0,1-2 0,1-8 0,3 2 0,-3-7 0,4 7 0,-5-3 0,4 10 0,-8 1 0,3 1 0,-6 9 0,7-9 0,-6 17 0,4-5 0,0 1 0,-3-3 0,9-11 0,-4-2 0,1-5 0,3-4 0,-4-1 0,5-4 0,0 15 0,0 5 0,0 9 0,0 9 0,-5-1 0,3 16 0,-11 25 0,11-23 0,-4-17 0,0 0 0,-2 17 0,-6 16 0,1-10 0,-1-2 0,1-8 0,-6 0 0,5 0 0,-5-7 0,7 4 0,5-11 0,-4 20 0,10-19 0,-4 5 0,5-15 0,0-7 0,0-5 0,0 5 0,0-5 0,0 0 0,0 4 0,0-9 0,0 9 0,0-9 0,0 16 0,0-10 0,0 11 0,0-7 0,0 1 0,0-1 0,0 7 0,0-5 0,0 5 0,4-8 0,-3 2 0,4 5 0,-5-4 0,5 11 0,-3-5 0,3 0 0,-5 4 0,0-9 0,0 2 0,0 4 0,0-8 0,4 2 0,-2-10 0,2 1 0,-4 1 0,0 5 0,5 0 0,-4 0 0,9 0 0,-9 1 0,4-2 0,0 2 0,-4-7 0,9 0 0,-9-6 0,8 0 0,-8 6 0,8-4 0,-3 9 0,4-4 0,1 5 0,0 1 0,0 0 0,-5-1 0,3-5 0,-3-1 0,-1-6 0,4-4 0,-8-1 0,3-5 0,0 1 0,-3-1 0,3 0 0,0 0 0,-3 5 0,3-3 0,0 3 0,-3-5 0,3 0 0,0 1 0,-3-1 0,3 0 0,-4 0 0,0 5 0,0 0 0,4 5 0,2 1 0,3-5 0,1-1 0,-5-5 0,-1 0 0,-4 1 0,3-5 0,-2 3 0,3-2 0,0 3 0,1 0 0,4 0 0,-4 1 0,3-1 0,-3 5 0,0-3 0,4 3 0,-4-5 0,0 0 0,-1 1 0,0-1 0,1 0 0,4 1 0,0-1 0,0 5 0,0-4 0,1 8 0,-1-7 0,-3 7 0,2-7 0,-3 2 0,0-3 0,-1-1 0,0-3 0,-3 2 0,7-6 0,-3 6 0,4-2 0,-4 3 0,3 1 0,-3-1 0,4 5 0,1-3 0,-5 7 0,3-8 0,-3 3 0,4 1 0,1-3 0,-1 3 0,0-5 0,0 1 0,1 3 0,-1-2 0,1 8 0,-1-9 0,1 8 0,-1-7 0,1 7 0,-1-7 0,1 7 0,4-3 0,-3 1 0,3 2 0,0-7 0,1 7 0,1-3 0,-2 0 0,0 0 0,-4-6 0,4 1 0,-5-1 0,0 1 0,1-1 0,-1-3 0,0 2 0,0-2 0,0 0 0,0 2 0,0-2 0,0 0 0,5 2 0,-4-2 0,4 0 0,-5-1 0,0 0 0,0-3 0,0 2 0,0-3 0,-1 0 0,1 4 0,0-3 0,5 7 0,-3-3 0,8 0 0,-4 3 0,5-3 0,6 4 0,-5 1 0,5-5 0,-11 3 0,4-7 0,-4 7 0,5-3 0,-5 4 0,4 0 0,-9-4 0,4 3 0,0-7 0,-3 6 0,3-6 0,-5 6 0,0-2 0,0 0 0,5 3 0,-4-4 0,4 5 0,0 0 0,-4-4 0,4 3 0,-5-4 0,1 1 0,-1-1 0,0-1 0,0-2 0,0 7 0,0-7 0,0 3 0,0-1 0,0-2 0,0 7 0,5-3 0,-4-1 0,4 4 0,-5-7 0,1 7 0,-1-7 0,0 2 0,0-3 0,4 0 0,-7 4 0,6-3 0,-7 2 0,4 1 0,0-3 0,0 6 0,0-6 0,0 3 0,1 0 0,4-3 0,-4 6 0,4-6 0,0 3 0,-4 0 0,9 1 0,-4-1 0,5 5 0,0-4 0,0 0 0,0 3 0,0-7 0,-5 7 0,4-3 0,-8 0 0,8-1 0,-9 0 0,4-3 0,-5 2 0,0-3 0,0 4 0,0-3 0,5 3 0,-4 0 0,9-3 0,-4 6 0,0-6 0,4 8 0,-4-8 0,1 3 0,2 0 0,-7-3 0,8 3 0,-9-4 0,9 4 0,-4-3 0,5 4 0,0-1 0,0-3 0,0 3 0,0-4 0,0 0 0,-4 4 0,2-3 0,-7 2 0,7-3 0,-2 0 0,4 0 0,0 0 0,6 0 0,1 0 0,6 0 0,-6 0 0,5 5 0,-5-4 0,6 3 0,-6 1 0,14 0 0,-17 0 0,5-1 0,-10-4 0,-8 0 0,8 0 0,-9 0 0,9 4 0,-4-3 0,5 3 0,-5-4 0,4 0 0,2 5 0,0-4 0,5 4 0,-6-5 0,6 0 0,-4 0 0,9 4 0,-3-3 0,-1 4 0,4-5 0,-3 4 0,5-3 0,-1 4 0,1-1 0,0-3 0,0 8 0,1-3 0,-2 0 0,1-2 0,7 1 0,-11-4 0,16 9 0,-22-8 0,10 3 0,-13-5 0,-5 3 0,4-2 0,-4 3 0,4-4 0,-4 4 0,-2-3 0,-4 2 0,0-3 0,0 0 0,0 0 0,0 0 0,0 0 0,0 0 0,0 0 0,0 4 0,4-3 0,3 3 0,4-4 0,0 4 0,0-3 0,0 3 0,0-4 0,0 0 0,-6 4 0,0-3 0,0 2 0,2-3 0,4 0 0,0 0 0,5 0 0,3 5 0,11-4 0,-4 4 0,5-1 0,-7-3 0,0 4 0,-6-5 0,-1 0 0,-11 0 0,4 0 0,-4 0 0,5 0 0,0 0 0,0 4 0,0-3 0,0 3 0,0-4 0,0 0 0,0 4 0,-4-3 0,3 3 0,-9 0 0,9-3 0,-4 3 0,0-4 0,3 4 0,-3-3 0,5 3 0,-5-4 0,4 0 0,-4 4 0,0-3 0,4 3 0,-4-4 0,6 4 0,-1-3 0,-1 3 0,1-4 0,0 0 0,6 5 0,-5-4 0,11 3 0,-5-4 0,0 0 0,4 0 0,3 0 0,1 5 0,5-4 0,-7 3 0,0-4 0,0 5 0,6-4 0,-4 4 0,11 0 0,-11-4 0,11 9 0,-12-5 0,5 5 0,-7-4 0,1 3 0,0-8 0,-1 8 0,1-8 0,-1 7 0,1-6 0,0 2 0,-1 0 0,7-3 0,16 8 0,-10-3 0,15 4 0,-26-5 0,11 5 0,-10-9 0,11 9 0,-13-5 0,14 6 0,-7 0 0,1-5 0,6 4 0,-6-4 0,7 5 0,0 0 0,0 0 0,7 0 0,-7 0 0,15 1 0,-8-1 0,19 1 0,-7 0 0,15 1 0,-15-1 0,5 0 0,2 7 0,-8-6 0,5 10 0,-15-11 0,5 4 0,-11-4 0,5-1 0,-14-1 0,4 6 0,-11-5 0,0 5 0,-2-6 0,-5-1 0,6 2 0,0-1 0,-6-1 0,5 1 0,-6 0 0,6 0 0,-5-1 0,4 1 0,-9 0 0,8 4 0,1 1 0,2 0 0,3-2 0,-4-3 0,7 6 0,-5-5 0,12 10 0,-5-9 0,6 3 0,0 1 0,-1-4 0,-4 4 0,4-5 0,-12-2 0,5 2 0,0-1 0,-5 0 0,6 1 0,-13-1 0,5 0 0,-6-1 0,2 1 0,-3 0 0,1-1 0,-4-3 0,4 2 0,-6-7 0,-5 7 0,-1-7 0,-5 3 0,0-1 0,0-2 0,0 3 0,-1 0 0,1-4 0,0 8 0,0-4 0,0 1 0,0 2 0,0-6 0,0 7 0,0-4 0,0 5 0,0-5 0,0 0 0,0 0 0,0-3 0,0 2 0,-4 1 0,2-3 0,-2 2 0,4 1 0,0-3 0,0 6 0,0-6 0,0 3 0,0-4 0,0 4 0,0-3 0,0 2 0,0-3 0,0 0 0,-5 4 0,4-3 0,-3 2 0,4 1 0,0-3 0,0 6 0,0-6 0,0 7 0,5-4 0,-4 1 0,4 3 0,-5-7 0,0 2 0,0 1 0,0-3 0,0 3 0,0 0 0,0-3 0,0 6 0,0-6 0,0 6 0,0-6 0,0 3 0,0 0 0,0-3 0,0 6 0,0-6 0,0 3 0,0-4 0,0 4 0,0-3 0,0 2 0,0 1 0,0-3 0,0 3 0,5 0 0,-4-3 0,9 7 0,-9-7 0,9 7 0,-9-3 0,9 0 0,-9 3 0,9-7 0,-9 6 0,9-6 0,-9 7 0,4-7 0,0 6 0,-4-6 0,4 4 0,0-2 0,-4-2 0,4 3 0,-5 0 0,0-3 0,0 3 0,0 0 0,0-4 0,0 4 0,0-4 0,0 4 0,0-3 0,0 2 0,5-3 0,-4 4 0,4-3 0,0 3 0,-4-4 0,4 3 0,-5-2 0,0 3 0,0-4 0,0 0 0,0 0 0,0 0 0,0 4 0,0-3 0,0 2 0,0-3 0,0 0 0,0 0 0,0 0 0,0 4 0,0-3 0,0 3 0,-1-4 0,1 0 0,0 0 0,-5 3 0,-4-2 0,-5 3 0,-3-4 0,0 0 0,-1 0 0,0 0 0,1 0 0,-1 0 0,0 0 0,1 0 0,-1 0 0,0 0 0,5-4 0,-4 3 0,7-6 0,-8 6 0,4-6 0,-4 3 0,0-1 0,4-2 0,-3 6 0,3-7 0,-4 7 0,0-6 0,0 6 0,4-7 0,-3 4 0,-2-5 0,-1 0 0,-3 0 0,5 5 0,0-4 0,4 4 0,-3-1 0,3-3 0,-4 4 0,0-1 0,0-2 0,4 2 0,-3 0 0,7-2 0,-8 6 0,8-7 0,-7 7 0,4-6 0,-5 6 0,4-6 0,5 6 0,4-3 0,5 7 0,-1 2 0,-3 3 0,3-4 0,-3 3 0,4-2 0,0-1 0,-1 0 0,-3 0 0,3-4 0,-3 8 0,4-4 0,0 1 0,-4 2 0,3-6 0,-4 6 0,5-6 0,-4 6 0,2-6 0,-2 6 0,4-6 0,-1 6 0,0-6 0,1 6 0,-1-6 0,-3 6 0,3-6 0,-4 6 0,5-6 0,-1 6 0,1-6 0,0 2 0,-1 1 0,1-3 0,0 3 0,0-4 0,-1 0 0,-3 4 0,-5-3 0,-5 2 0,-4-3 0,0 0 0,0 0 0,0 0 0,0 0 0,0 0 0,0 0 0,0 0 0,0 0 0,0 0 0,0 4 0,0-3 0,4 6 0,-3-6 0,3 3 0,-4-4 0,-1 0 0,1 0 0,1 0 0,-1 0 0,4 4 0,-3-3 0,4 2 0,-1 1 0,-3-3 0,3 3 0,0-1 0,-2-2 0,2 3 0,-4-1 0,0-2 0,4 7 0,-2-8 0,6 8 0,-7-7 0,7 6 0,-7-6 0,4 3 0,-1-1 0,1-2 0,4 2 0</inkml:trace>
 </inkml:ink>
 </file>
 
@@ -2422,15 +2361,19 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{087CE270-871B-7A4C-8005-D439E96172C9}">
-  <dimension ref="A1:I80"/>
+  <sheetPr>
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
+  <dimension ref="A1:I88"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="Y22" sqref="Y22"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A58" workbookViewId="0">
+      <selection activeCell="M5" sqref="M5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
   <cols>
     <col min="1" max="1" width="19.1640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.1640625" customWidth="1"/>
     <col min="3" max="3" width="17.83203125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="13.5" bestFit="1" customWidth="1"/>
   </cols>
@@ -2463,7 +2406,7 @@
     </row>
     <row r="3" spans="1:9" ht="24">
       <c r="A3" s="16" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="B3" s="16" t="s">
         <v>2</v>
@@ -2478,7 +2421,7 @@
     </row>
     <row r="4" spans="1:9" ht="24">
       <c r="A4" s="16" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="B4" s="16" t="s">
         <v>2</v>
@@ -2493,7 +2436,7 @@
     </row>
     <row r="5" spans="1:9" ht="24">
       <c r="A5" s="16" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="B5" s="16" t="s">
         <v>2</v>
@@ -2527,15 +2470,15 @@
     <row r="8" spans="1:9" ht="24">
       <c r="A8" s="17"/>
       <c r="B8" s="19" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="C8" s="19"/>
       <c r="D8" s="20" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="E8" s="19"/>
       <c r="F8" s="19" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="G8" s="18"/>
     </row>
@@ -2558,7 +2501,7 @@
     </row>
     <row r="10" spans="1:9" ht="24">
       <c r="A10" s="22" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="B10" s="17" t="s">
         <v>82</v>
@@ -2576,7 +2519,9 @@
         <v>82</v>
       </c>
       <c r="G10" s="18"/>
-      <c r="H10" s="2"/>
+      <c r="H10" s="17" t="s">
+        <v>127</v>
+      </c>
       <c r="I10" s="2"/>
     </row>
     <row r="11" spans="1:9" ht="24">
@@ -2627,11 +2572,11 @@
     <row r="14" spans="1:9" ht="24">
       <c r="A14" s="22"/>
       <c r="B14" s="20" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="C14" s="19"/>
       <c r="D14" s="19" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="E14" s="17"/>
       <c r="F14" s="17"/>
@@ -2656,7 +2601,7 @@
     </row>
     <row r="16" spans="1:9" ht="24">
       <c r="A16" s="22" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="B16" s="17" t="s">
         <v>91</v>
@@ -2668,11 +2613,13 @@
         <v>94</v>
       </c>
       <c r="E16" s="23" t="s">
-        <v>95</v>
+        <v>124</v>
       </c>
       <c r="F16" s="17"/>
       <c r="G16" s="18"/>
-      <c r="H16" s="2"/>
+      <c r="H16" s="17" t="s">
+        <v>127</v>
+      </c>
       <c r="I16" s="2"/>
     </row>
     <row r="17" spans="1:9" ht="24">
@@ -2718,14 +2665,14 @@
     </row>
     <row r="20" spans="1:9" ht="24">
       <c r="A20" s="22" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="B20" s="17"/>
       <c r="C20" s="17" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="E20" s="25" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="F20" s="17"/>
       <c r="G20" s="18"/>
@@ -2736,7 +2683,7 @@
       <c r="A21" s="22"/>
       <c r="B21" s="17"/>
       <c r="C21" s="17" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="D21" s="17"/>
       <c r="E21" s="17"/>
@@ -2758,18 +2705,18 @@
     </row>
     <row r="23" spans="1:9" ht="24">
       <c r="A23" s="22" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="B23" s="17"/>
       <c r="C23" s="17" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="D23" s="23" t="s">
-        <v>96</v>
+        <v>125</v>
       </c>
       <c r="E23" s="17"/>
       <c r="F23" s="25" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="G23" s="18"/>
       <c r="H23" s="2"/>
@@ -2779,7 +2726,7 @@
       <c r="A24" s="22"/>
       <c r="B24" s="17"/>
       <c r="C24" s="17" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="D24" s="17"/>
       <c r="E24" s="17"/>
@@ -2790,234 +2737,260 @@
     </row>
     <row r="25" spans="1:9" ht="47" customHeight="1">
       <c r="A25" s="22"/>
-      <c r="B25" s="17"/>
+      <c r="B25" s="19" t="s">
+        <v>103</v>
+      </c>
       <c r="C25" s="17"/>
-      <c r="D25" s="17"/>
+      <c r="D25" s="20" t="s">
+        <v>135</v>
+      </c>
       <c r="E25" s="17"/>
-      <c r="F25" s="17"/>
+      <c r="F25" s="19" t="s">
+        <v>136</v>
+      </c>
       <c r="G25" s="18"/>
       <c r="H25" s="2"/>
       <c r="I25" s="2"/>
     </row>
-    <row r="26" spans="1:9" ht="24">
-      <c r="A26" s="22"/>
-      <c r="B26" s="19" t="s">
-        <v>106</v>
-      </c>
-      <c r="C26" s="19"/>
-      <c r="D26" s="20" t="s">
-        <v>117</v>
-      </c>
-      <c r="E26" s="19"/>
-      <c r="F26" s="19" t="s">
-        <v>106</v>
+    <row r="26" spans="1:9" ht="24" customHeight="1">
+      <c r="A26" s="19" t="s">
+        <v>129</v>
+      </c>
+      <c r="B26" s="21" t="s">
+        <v>139</v>
+      </c>
+      <c r="C26" s="17" t="s">
+        <v>99</v>
+      </c>
+      <c r="D26" s="21" t="s">
+        <v>137</v>
+      </c>
+      <c r="E26" s="17" t="s">
+        <v>130</v>
+      </c>
+      <c r="F26" s="21" t="s">
+        <v>138</v>
       </c>
       <c r="G26" s="18"/>
       <c r="H26" s="2"/>
       <c r="I26" s="2"/>
     </row>
-    <row r="27" spans="1:9" ht="24">
+    <row r="27" spans="1:9" ht="24" customHeight="1">
       <c r="A27" s="22"/>
-      <c r="B27" s="21" t="s">
-        <v>83</v>
-      </c>
-      <c r="C27" s="21"/>
-      <c r="D27" s="21" t="s">
-        <v>86</v>
-      </c>
-      <c r="E27" s="21"/>
-      <c r="F27" s="21" t="s">
-        <v>83</v>
+      <c r="B27" s="17" t="s">
+        <v>140</v>
+      </c>
+      <c r="C27" s="17"/>
+      <c r="D27" s="17" t="s">
+        <v>133</v>
+      </c>
+      <c r="E27" s="17"/>
+      <c r="F27" s="17" t="s">
+        <v>134</v>
       </c>
       <c r="G27" s="18"/>
       <c r="H27" s="2"/>
       <c r="I27" s="2"/>
     </row>
-    <row r="28" spans="1:9" ht="24">
-      <c r="A28" s="22" t="s">
-        <v>111</v>
-      </c>
+    <row r="28" spans="1:9" ht="24" customHeight="1">
+      <c r="A28" s="22"/>
       <c r="B28" s="17" t="s">
-        <v>97</v>
-      </c>
-      <c r="C28" s="17" t="s">
-        <v>85</v>
-      </c>
+        <v>141</v>
+      </c>
+      <c r="C28" s="17"/>
       <c r="D28" s="17" t="s">
-        <v>91</v>
-      </c>
-      <c r="E28" s="17" t="s">
-        <v>88</v>
-      </c>
+        <v>132</v>
+      </c>
+      <c r="E28" s="17"/>
       <c r="F28" s="17" t="s">
-        <v>97</v>
+        <v>131</v>
       </c>
       <c r="G28" s="18"/>
       <c r="H28" s="2"/>
       <c r="I28" s="2"/>
     </row>
-    <row r="29" spans="1:9" ht="24">
+    <row r="29" spans="1:9" ht="24" customHeight="1">
       <c r="A29" s="22"/>
-      <c r="B29" s="17" t="s">
-        <v>98</v>
-      </c>
+      <c r="B29" s="17"/>
       <c r="C29" s="17"/>
-      <c r="D29" s="17" t="s">
-        <v>92</v>
-      </c>
+      <c r="D29" s="17"/>
       <c r="E29" s="17"/>
-      <c r="F29" s="17" t="s">
-        <v>99</v>
-      </c>
+      <c r="F29" s="17"/>
       <c r="G29" s="18"/>
       <c r="H29" s="2"/>
       <c r="I29" s="2"/>
     </row>
     <row r="30" spans="1:9" ht="24">
       <c r="A30" s="22"/>
-      <c r="B30" s="17" t="s">
-        <v>54</v>
-      </c>
-      <c r="C30" s="17"/>
-      <c r="D30" s="17" t="s">
-        <v>93</v>
-      </c>
-      <c r="E30" s="17"/>
-      <c r="F30" s="17" t="s">
-        <v>100</v>
+      <c r="B30" s="19" t="s">
+        <v>103</v>
+      </c>
+      <c r="C30" s="19"/>
+      <c r="D30" s="20" t="s">
+        <v>114</v>
+      </c>
+      <c r="E30" s="19"/>
+      <c r="F30" s="19" t="s">
+        <v>103</v>
       </c>
       <c r="G30" s="18"/>
       <c r="H30" s="2"/>
       <c r="I30" s="2"/>
     </row>
-    <row r="31" spans="1:9" ht="47" customHeight="1">
+    <row r="31" spans="1:9" ht="24">
       <c r="A31" s="22"/>
-      <c r="B31" s="17"/>
-      <c r="C31" s="17"/>
-      <c r="D31" s="17"/>
-      <c r="E31" s="17"/>
-      <c r="F31" s="17"/>
+      <c r="B31" s="21" t="s">
+        <v>83</v>
+      </c>
+      <c r="C31" s="21"/>
+      <c r="D31" s="21" t="s">
+        <v>86</v>
+      </c>
+      <c r="E31" s="21"/>
+      <c r="F31" s="21" t="s">
+        <v>83</v>
+      </c>
       <c r="G31" s="18"/>
       <c r="H31" s="2"/>
       <c r="I31" s="2"/>
     </row>
     <row r="32" spans="1:9" ht="24">
-      <c r="A32" s="22"/>
-      <c r="B32" s="20" t="s">
-        <v>117</v>
-      </c>
-      <c r="C32" s="19"/>
-      <c r="D32" s="19" t="s">
-        <v>106</v>
-      </c>
-      <c r="E32" s="17"/>
-      <c r="F32" s="17"/>
+      <c r="A32" s="22" t="s">
+        <v>108</v>
+      </c>
+      <c r="B32" s="17" t="s">
+        <v>95</v>
+      </c>
+      <c r="C32" s="17" t="s">
+        <v>85</v>
+      </c>
+      <c r="D32" s="17" t="s">
+        <v>91</v>
+      </c>
+      <c r="E32" s="17" t="s">
+        <v>88</v>
+      </c>
+      <c r="F32" s="17" t="s">
+        <v>95</v>
+      </c>
       <c r="G32" s="18"/>
-      <c r="H32" s="2"/>
+      <c r="H32" s="17" t="s">
+        <v>128</v>
+      </c>
       <c r="I32" s="2"/>
     </row>
     <row r="33" spans="1:9" ht="24">
       <c r="A33" s="22"/>
-      <c r="B33" s="21" t="s">
-        <v>86</v>
-      </c>
-      <c r="C33" s="21"/>
-      <c r="D33" s="21" t="s">
-        <v>83</v>
+      <c r="B33" s="17" t="s">
+        <v>96</v>
+      </c>
+      <c r="C33" s="17"/>
+      <c r="D33" s="17" t="s">
+        <v>92</v>
       </c>
       <c r="E33" s="17"/>
-      <c r="F33" s="17"/>
+      <c r="F33" s="17" t="s">
+        <v>97</v>
+      </c>
       <c r="G33" s="18"/>
       <c r="H33" s="2"/>
       <c r="I33" s="2"/>
     </row>
     <row r="34" spans="1:9" ht="24">
-      <c r="A34" s="22" t="s">
-        <v>112</v>
-      </c>
+      <c r="A34" s="22"/>
       <c r="B34" s="17" t="s">
-        <v>91</v>
-      </c>
-      <c r="C34" s="17" t="s">
-        <v>101</v>
-      </c>
+        <v>54</v>
+      </c>
+      <c r="C34" s="17"/>
       <c r="D34" s="17" t="s">
-        <v>102</v>
-      </c>
-      <c r="E34" s="23" t="s">
-        <v>103</v>
-      </c>
-      <c r="F34" s="17"/>
+        <v>93</v>
+      </c>
+      <c r="E34" s="17"/>
+      <c r="F34" s="17" t="s">
+        <v>98</v>
+      </c>
       <c r="G34" s="18"/>
       <c r="H34" s="2"/>
       <c r="I34" s="2"/>
     </row>
-    <row r="35" spans="1:9" ht="24">
+    <row r="35" spans="1:9" ht="47" customHeight="1">
       <c r="A35" s="22"/>
-      <c r="B35" s="17" t="s">
-        <v>98</v>
+      <c r="B35" s="19" t="s">
+        <v>103</v>
       </c>
       <c r="C35" s="17"/>
-      <c r="D35" s="17" t="s">
-        <v>98</v>
+      <c r="D35" s="20" t="s">
+        <v>135</v>
       </c>
       <c r="E35" s="17"/>
-      <c r="F35" s="17"/>
+      <c r="F35" s="19" t="s">
+        <v>136</v>
+      </c>
       <c r="G35" s="18"/>
       <c r="H35" s="2"/>
       <c r="I35" s="2"/>
     </row>
-    <row r="36" spans="1:9" ht="24">
-      <c r="A36" s="22"/>
-      <c r="B36" s="17" t="s">
-        <v>54</v>
-      </c>
-      <c r="C36" s="17"/>
-      <c r="D36" s="17" t="s">
-        <v>54</v>
-      </c>
-      <c r="E36" s="17"/>
-      <c r="F36" s="17"/>
+    <row r="36" spans="1:9" ht="24" customHeight="1">
+      <c r="A36" s="19" t="s">
+        <v>129</v>
+      </c>
+      <c r="B36" s="21" t="s">
+        <v>139</v>
+      </c>
+      <c r="C36" s="17" t="s">
+        <v>99</v>
+      </c>
+      <c r="D36" s="21" t="s">
+        <v>137</v>
+      </c>
+      <c r="E36" s="17" t="s">
+        <v>130</v>
+      </c>
+      <c r="F36" s="21" t="s">
+        <v>138</v>
+      </c>
       <c r="G36" s="18"/>
       <c r="H36" s="2"/>
       <c r="I36" s="2"/>
     </row>
-    <row r="37" spans="1:9" ht="47" customHeight="1">
+    <row r="37" spans="1:9" ht="24" customHeight="1">
       <c r="A37" s="22"/>
-      <c r="B37" s="17"/>
+      <c r="B37" s="17" t="s">
+        <v>140</v>
+      </c>
       <c r="C37" s="17"/>
-      <c r="D37" s="17"/>
+      <c r="D37" s="17" t="s">
+        <v>133</v>
+      </c>
       <c r="E37" s="17"/>
-      <c r="F37" s="17"/>
+      <c r="F37" s="17" t="s">
+        <v>134</v>
+      </c>
       <c r="G37" s="18"/>
       <c r="H37" s="2"/>
       <c r="I37" s="2"/>
     </row>
-    <row r="38" spans="1:9" ht="24">
-      <c r="A38" s="22" t="s">
-        <v>110</v>
-      </c>
-      <c r="B38" s="17"/>
-      <c r="C38" s="17" t="s">
-        <v>122</v>
-      </c>
-      <c r="D38" s="23" t="s">
-        <v>96</v>
+    <row r="38" spans="1:9" ht="24" customHeight="1">
+      <c r="A38" s="22"/>
+      <c r="B38" s="17" t="s">
+        <v>141</v>
+      </c>
+      <c r="C38" s="17"/>
+      <c r="D38" s="17" t="s">
+        <v>132</v>
       </c>
       <c r="E38" s="17"/>
-      <c r="F38" s="25" t="s">
-        <v>118</v>
+      <c r="F38" s="17" t="s">
+        <v>131</v>
       </c>
       <c r="G38" s="18"/>
       <c r="H38" s="2"/>
       <c r="I38" s="2"/>
     </row>
-    <row r="39" spans="1:9" ht="24">
+    <row r="39" spans="1:9" ht="24" customHeight="1">
       <c r="A39" s="22"/>
       <c r="B39" s="17"/>
-      <c r="C39" s="17" t="s">
-        <v>123</v>
-      </c>
+      <c r="C39" s="17"/>
       <c r="D39" s="17"/>
       <c r="E39" s="17"/>
       <c r="F39" s="17"/>
@@ -3025,11 +2998,15 @@
       <c r="H39" s="2"/>
       <c r="I39" s="2"/>
     </row>
-    <row r="40" spans="1:9" ht="47" customHeight="1">
+    <row r="40" spans="1:9" ht="24">
       <c r="A40" s="22"/>
-      <c r="B40" s="17"/>
-      <c r="C40" s="17"/>
-      <c r="D40" s="17"/>
+      <c r="B40" s="20" t="s">
+        <v>114</v>
+      </c>
+      <c r="C40" s="19"/>
+      <c r="D40" s="19" t="s">
+        <v>103</v>
+      </c>
       <c r="E40" s="17"/>
       <c r="F40" s="17"/>
       <c r="G40" s="18"/>
@@ -3037,14 +3014,14 @@
       <c r="I40" s="2"/>
     </row>
     <row r="41" spans="1:9" ht="24">
-      <c r="A41" s="22" t="s">
-        <v>113</v>
-      </c>
-      <c r="B41" s="17"/>
-      <c r="C41" s="17" t="s">
-        <v>126</v>
-      </c>
-      <c r="D41" s="17"/>
+      <c r="A41" s="22"/>
+      <c r="B41" s="21" t="s">
+        <v>86</v>
+      </c>
+      <c r="C41" s="21"/>
+      <c r="D41" s="21" t="s">
+        <v>83</v>
+      </c>
       <c r="E41" s="17"/>
       <c r="F41" s="17"/>
       <c r="G41" s="18"/>
@@ -3052,23 +3029,37 @@
       <c r="I41" s="2"/>
     </row>
     <row r="42" spans="1:9" ht="24">
-      <c r="A42" s="24"/>
-      <c r="B42" s="17"/>
+      <c r="A42" s="22" t="s">
+        <v>109</v>
+      </c>
+      <c r="B42" s="17" t="s">
+        <v>91</v>
+      </c>
       <c r="C42" s="17" t="s">
-        <v>125</v>
-      </c>
-      <c r="D42" s="17"/>
-      <c r="E42" s="17"/>
+        <v>99</v>
+      </c>
+      <c r="D42" s="17" t="s">
+        <v>100</v>
+      </c>
+      <c r="E42" s="23" t="s">
+        <v>126</v>
+      </c>
       <c r="F42" s="17"/>
       <c r="G42" s="18"/>
-      <c r="H42" s="2"/>
+      <c r="H42" s="17" t="s">
+        <v>128</v>
+      </c>
       <c r="I42" s="2"/>
     </row>
     <row r="43" spans="1:9" ht="24">
-      <c r="A43" s="24"/>
-      <c r="B43" s="17"/>
+      <c r="A43" s="22"/>
+      <c r="B43" s="17" t="s">
+        <v>96</v>
+      </c>
       <c r="C43" s="17"/>
-      <c r="D43" s="17"/>
+      <c r="D43" s="17" t="s">
+        <v>96</v>
+      </c>
       <c r="E43" s="17"/>
       <c r="F43" s="17"/>
       <c r="G43" s="18"/>
@@ -3076,18 +3067,22 @@
       <c r="I43" s="2"/>
     </row>
     <row r="44" spans="1:9" ht="24">
-      <c r="A44" s="24"/>
-      <c r="B44" s="17"/>
+      <c r="A44" s="22"/>
+      <c r="B44" s="17" t="s">
+        <v>54</v>
+      </c>
       <c r="C44" s="17"/>
-      <c r="D44" s="17"/>
+      <c r="D44" s="17" t="s">
+        <v>54</v>
+      </c>
       <c r="E44" s="17"/>
       <c r="F44" s="17"/>
       <c r="G44" s="18"/>
       <c r="H44" s="2"/>
       <c r="I44" s="2"/>
     </row>
-    <row r="45" spans="1:9" ht="24">
-      <c r="A45" s="17"/>
+    <row r="45" spans="1:9" ht="47" customHeight="1">
+      <c r="A45" s="22"/>
       <c r="B45" s="17"/>
       <c r="C45" s="17"/>
       <c r="D45" s="17"/>
@@ -3098,607 +3093,712 @@
       <c r="I45" s="2"/>
     </row>
     <row r="46" spans="1:9" ht="24">
-      <c r="A46" s="17"/>
+      <c r="A46" s="22" t="s">
+        <v>107</v>
+      </c>
       <c r="B46" s="17"/>
-      <c r="C46" s="17"/>
-      <c r="D46" s="17"/>
+      <c r="C46" s="17" t="s">
+        <v>119</v>
+      </c>
+      <c r="D46" s="23" t="s">
+        <v>125</v>
+      </c>
       <c r="E46" s="17"/>
-      <c r="F46" s="17"/>
+      <c r="F46" s="25" t="s">
+        <v>115</v>
+      </c>
       <c r="G46" s="18"/>
       <c r="H46" s="2"/>
       <c r="I46" s="2"/>
     </row>
     <row r="47" spans="1:9" ht="24">
-      <c r="A47" s="18"/>
-      <c r="B47" s="18"/>
-      <c r="C47" s="18"/>
-      <c r="D47" s="18"/>
-      <c r="E47" s="18"/>
-      <c r="F47" s="18"/>
+      <c r="A47" s="22"/>
+      <c r="B47" s="17"/>
+      <c r="C47" s="17" t="s">
+        <v>120</v>
+      </c>
+      <c r="D47" s="17"/>
+      <c r="E47" s="17"/>
+      <c r="F47" s="17"/>
       <c r="G47" s="18"/>
       <c r="H47" s="2"/>
       <c r="I47" s="2"/>
     </row>
-    <row r="48" spans="1:9">
-      <c r="A48" s="2"/>
-      <c r="B48" s="2"/>
-      <c r="C48" s="2"/>
-      <c r="D48" s="2"/>
-      <c r="E48" s="2"/>
-      <c r="F48" s="2"/>
-      <c r="G48" s="2"/>
+    <row r="48" spans="1:9" ht="47" customHeight="1">
+      <c r="A48" s="22"/>
+      <c r="B48" s="17"/>
+      <c r="C48" s="17"/>
+      <c r="D48" s="17"/>
+      <c r="E48" s="17"/>
+      <c r="F48" s="17"/>
+      <c r="G48" s="18"/>
       <c r="H48" s="2"/>
       <c r="I48" s="2"/>
     </row>
-    <row r="49" spans="1:9">
-      <c r="A49" s="2"/>
-      <c r="B49" s="2"/>
-      <c r="C49" s="2"/>
-      <c r="D49" s="2"/>
-      <c r="E49" s="2"/>
-      <c r="F49" s="2"/>
-      <c r="G49" s="2"/>
+    <row r="49" spans="1:9" ht="24">
+      <c r="A49" s="22" t="s">
+        <v>110</v>
+      </c>
+      <c r="B49" s="17"/>
+      <c r="C49" s="17" t="s">
+        <v>123</v>
+      </c>
+      <c r="D49" s="17"/>
+      <c r="E49" s="17"/>
+      <c r="F49" s="17"/>
+      <c r="G49" s="18"/>
       <c r="H49" s="2"/>
       <c r="I49" s="2"/>
     </row>
-    <row r="51" spans="1:9">
-      <c r="A51" t="s">
+    <row r="50" spans="1:9" ht="24">
+      <c r="A50" s="24"/>
+      <c r="B50" s="17"/>
+      <c r="C50" s="17" t="s">
+        <v>122</v>
+      </c>
+      <c r="D50" s="17"/>
+      <c r="E50" s="17"/>
+      <c r="F50" s="17"/>
+      <c r="G50" s="18"/>
+      <c r="H50" s="2"/>
+      <c r="I50" s="2"/>
+    </row>
+    <row r="51" spans="1:9" ht="24">
+      <c r="A51" s="24"/>
+      <c r="B51" s="17"/>
+      <c r="C51" s="17"/>
+      <c r="D51" s="17"/>
+      <c r="E51" s="17"/>
+      <c r="F51" s="17"/>
+      <c r="G51" s="18"/>
+      <c r="H51" s="2"/>
+      <c r="I51" s="2"/>
+    </row>
+    <row r="52" spans="1:9" ht="24">
+      <c r="A52" s="24"/>
+      <c r="B52" s="17"/>
+      <c r="C52" s="17"/>
+      <c r="D52" s="17"/>
+      <c r="E52" s="17"/>
+      <c r="F52" s="17"/>
+      <c r="G52" s="18"/>
+      <c r="H52" s="2"/>
+      <c r="I52" s="2"/>
+    </row>
+    <row r="53" spans="1:9" ht="24">
+      <c r="A53" s="17"/>
+      <c r="B53" s="17"/>
+      <c r="C53" s="17"/>
+      <c r="D53" s="17"/>
+      <c r="E53" s="17"/>
+      <c r="F53" s="17"/>
+      <c r="G53" s="18"/>
+      <c r="H53" s="2"/>
+      <c r="I53" s="2"/>
+    </row>
+    <row r="54" spans="1:9" ht="24">
+      <c r="A54" s="17"/>
+      <c r="B54" s="17"/>
+      <c r="C54" s="17"/>
+      <c r="D54" s="17"/>
+      <c r="E54" s="17"/>
+      <c r="F54" s="17"/>
+      <c r="G54" s="18"/>
+      <c r="H54" s="2"/>
+      <c r="I54" s="2"/>
+    </row>
+    <row r="55" spans="1:9" ht="24">
+      <c r="A55" s="18"/>
+      <c r="B55" s="18"/>
+      <c r="C55" s="18"/>
+      <c r="D55" s="18"/>
+      <c r="E55" s="18"/>
+      <c r="F55" s="18"/>
+      <c r="G55" s="18"/>
+      <c r="H55" s="2"/>
+      <c r="I55" s="2"/>
+    </row>
+    <row r="56" spans="1:9">
+      <c r="A56" s="2"/>
+      <c r="B56" s="2"/>
+      <c r="C56" s="2"/>
+      <c r="D56" s="2"/>
+      <c r="E56" s="2"/>
+      <c r="F56" s="2"/>
+      <c r="G56" s="2"/>
+      <c r="H56" s="2"/>
+      <c r="I56" s="2"/>
+    </row>
+    <row r="57" spans="1:9">
+      <c r="A57" s="2"/>
+      <c r="B57" s="2"/>
+      <c r="C57" s="2"/>
+      <c r="D57" s="2"/>
+      <c r="E57" s="2"/>
+      <c r="F57" s="2"/>
+      <c r="G57" s="2"/>
+      <c r="H57" s="2"/>
+      <c r="I57" s="2"/>
+    </row>
+    <row r="59" spans="1:9">
+      <c r="A59" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="52" spans="1:9">
-      <c r="A52" t="s">
+    <row r="60" spans="1:9">
+      <c r="A60" t="s">
         <v>23</v>
       </c>
-      <c r="B52" t="s">
+      <c r="B60" t="s">
         <v>24</v>
       </c>
-      <c r="C52" t="s">
+      <c r="C60" t="s">
         <v>25</v>
       </c>
-      <c r="D52" s="26" t="s">
+      <c r="D60" s="26" t="s">
         <v>26</v>
       </c>
-      <c r="E52" s="26"/>
-      <c r="F52" s="26" t="s">
+      <c r="E60" s="26"/>
+      <c r="F60" s="26" t="s">
         <v>27</v>
       </c>
-      <c r="G52" s="26"/>
-    </row>
-    <row r="53" spans="1:9">
-      <c r="A53">
-        <v>0</v>
-      </c>
-      <c r="B53" t="s">
-        <v>7</v>
-      </c>
-      <c r="C53" t="s">
-        <v>67</v>
-      </c>
-      <c r="D53" s="6" t="s">
-        <v>72</v>
-      </c>
-      <c r="E53" s="2" t="s">
-        <v>73</v>
-      </c>
-      <c r="F53" s="12">
-        <v>0</v>
-      </c>
-      <c r="G53" s="13">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="54" spans="1:9">
-      <c r="A54">
-        <v>1</v>
-      </c>
-      <c r="B54" t="s">
-        <v>8</v>
-      </c>
-      <c r="C54" t="s">
-        <v>66</v>
-      </c>
-      <c r="D54" s="9" t="s">
-        <v>28</v>
-      </c>
-      <c r="E54" s="6" t="s">
-        <v>74</v>
-      </c>
-      <c r="F54" s="12">
-        <v>8</v>
-      </c>
-      <c r="G54" s="13">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="55" spans="1:9">
-      <c r="A55">
-        <v>2</v>
-      </c>
-      <c r="B55" t="s">
-        <v>9</v>
-      </c>
-      <c r="C55" t="s">
-        <v>65</v>
-      </c>
-      <c r="D55" s="2" t="s">
-        <v>75</v>
-      </c>
-      <c r="E55" s="9" t="s">
-        <v>28</v>
-      </c>
-      <c r="F55" s="12">
-        <v>9</v>
-      </c>
-      <c r="G55" s="13">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="56" spans="1:9">
-      <c r="A56">
-        <v>3</v>
-      </c>
-      <c r="B56" t="s">
-        <v>10</v>
-      </c>
-      <c r="C56" t="s">
-        <v>64</v>
-      </c>
-      <c r="D56" s="2" t="s">
-        <v>76</v>
-      </c>
-      <c r="E56" s="8" t="s">
-        <v>29</v>
-      </c>
-      <c r="F56" s="12" t="s">
-        <v>49</v>
-      </c>
-      <c r="G56" s="13">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="57" spans="1:9">
-      <c r="A57">
-        <v>4</v>
-      </c>
-      <c r="B57" t="s">
-        <v>11</v>
-      </c>
-      <c r="C57" t="s">
-        <v>63</v>
-      </c>
-      <c r="D57" s="6" t="s">
-        <v>72</v>
-      </c>
-      <c r="E57" s="2" t="s">
-        <v>77</v>
-      </c>
-      <c r="F57" s="12">
-        <v>0</v>
-      </c>
-      <c r="G57" s="13" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="58" spans="1:9">
-      <c r="A58">
-        <v>5</v>
-      </c>
-      <c r="B58" t="s">
-        <v>12</v>
-      </c>
-      <c r="C58" t="s">
-        <v>62</v>
-      </c>
-      <c r="D58" s="9" t="s">
-        <v>32</v>
-      </c>
-      <c r="E58" s="2" t="s">
-        <v>78</v>
-      </c>
-      <c r="F58" s="12" t="s">
-        <v>48</v>
-      </c>
-      <c r="G58" s="13">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="59" spans="1:9">
-      <c r="A59">
-        <v>6</v>
-      </c>
-      <c r="B59" t="s">
-        <v>13</v>
-      </c>
-      <c r="C59" t="s">
-        <v>61</v>
-      </c>
-      <c r="D59" s="6" t="s">
-        <v>74</v>
-      </c>
-      <c r="E59" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="F59" s="12">
-        <v>4</v>
-      </c>
-      <c r="G59" s="13" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="60" spans="1:9">
-      <c r="A60">
-        <v>7</v>
-      </c>
-      <c r="B60" t="s">
-        <v>14</v>
-      </c>
-      <c r="C60" t="s">
-        <v>62</v>
-      </c>
-      <c r="D60" s="9" t="s">
-        <v>32</v>
-      </c>
-      <c r="E60" s="2" t="s">
-        <v>78</v>
-      </c>
-      <c r="F60" s="12" t="s">
-        <v>48</v>
-      </c>
-      <c r="G60" s="13">
-        <v>2</v>
-      </c>
+      <c r="G60" s="26"/>
     </row>
     <row r="61" spans="1:9">
       <c r="A61">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="B61" t="s">
-        <v>15</v>
+        <v>7</v>
       </c>
       <c r="C61" t="s">
-        <v>59</v>
-      </c>
-      <c r="D61" s="2" t="s">
-        <v>80</v>
-      </c>
-      <c r="E61" s="7" t="s">
-        <v>30</v>
+        <v>67</v>
+      </c>
+      <c r="D61" s="6" t="s">
+        <v>72</v>
+      </c>
+      <c r="E61" s="2" t="s">
+        <v>73</v>
       </c>
       <c r="F61" s="12">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="G61" s="13">
-        <v>7</v>
+        <v>1</v>
       </c>
     </row>
     <row r="62" spans="1:9">
       <c r="A62">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="B62" t="s">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="C62" t="s">
-        <v>60</v>
-      </c>
-      <c r="D62" s="2" t="s">
-        <v>81</v>
-      </c>
-      <c r="E62" s="8" t="s">
-        <v>31</v>
-      </c>
-      <c r="F62" s="12" t="s">
-        <v>50</v>
-      </c>
-      <c r="G62" s="13" t="s">
-        <v>3</v>
+        <v>66</v>
+      </c>
+      <c r="D62" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="E62" s="6" t="s">
+        <v>74</v>
+      </c>
+      <c r="F62" s="12">
+        <v>8</v>
+      </c>
+      <c r="G62" s="13">
+        <v>4</v>
       </c>
     </row>
     <row r="63" spans="1:9">
       <c r="A63">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="B63" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="C63" t="s">
-        <v>71</v>
+        <v>65</v>
       </c>
       <c r="D63" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="E63" s="2" t="s">
-        <v>34</v>
+        <v>75</v>
+      </c>
+      <c r="E63" s="9" t="s">
+        <v>28</v>
       </c>
       <c r="F63" s="12">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="G63" s="13">
-        <v>0</v>
+        <v>8</v>
       </c>
     </row>
     <row r="64" spans="1:9">
       <c r="A64">
-        <v>11</v>
+        <v>3</v>
       </c>
       <c r="B64" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="C64" t="s">
-        <v>71</v>
-      </c>
-      <c r="D64" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="E64" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="F64" s="12">
-        <v>0</v>
+        <v>64</v>
+      </c>
+      <c r="D64" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="E64" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="F64" s="12" t="s">
+        <v>49</v>
       </c>
       <c r="G64" s="13">
-        <v>0</v>
+        <v>9</v>
       </c>
     </row>
     <row r="65" spans="1:7">
       <c r="A65">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="B65" t="s">
-        <v>19</v>
+        <v>11</v>
       </c>
       <c r="C65" t="s">
-        <v>70</v>
-      </c>
-      <c r="D65" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="E65" s="3" t="s">
-        <v>35</v>
+        <v>63</v>
+      </c>
+      <c r="D65" s="6" t="s">
+        <v>72</v>
+      </c>
+      <c r="E65" s="2" t="s">
+        <v>77</v>
       </c>
       <c r="F65" s="12">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G65" s="13" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="66" spans="1:7">
       <c r="A66">
-        <v>13</v>
+        <v>5</v>
       </c>
       <c r="B66" t="s">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="C66" t="s">
-        <v>69</v>
-      </c>
-      <c r="D66" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="E66" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="F66" s="12">
-        <v>1</v>
+        <v>62</v>
+      </c>
+      <c r="D66" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="E66" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="F66" s="12" t="s">
+        <v>48</v>
       </c>
       <c r="G66" s="13">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="67" spans="1:7">
       <c r="A67">
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="B67" t="s">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="C67" t="s">
-        <v>68</v>
-      </c>
-      <c r="D67" s="10" t="s">
-        <v>33</v>
-      </c>
-      <c r="E67" s="11" t="s">
-        <v>31</v>
+        <v>61</v>
+      </c>
+      <c r="D67" s="6" t="s">
+        <v>74</v>
+      </c>
+      <c r="E67" s="2" t="s">
+        <v>79</v>
       </c>
       <c r="F67" s="12">
         <v>4</v>
       </c>
       <c r="G67" s="13" t="s">
-        <v>3</v>
+        <v>48</v>
       </c>
     </row>
     <row r="68" spans="1:7">
       <c r="A68">
+        <v>7</v>
+      </c>
+      <c r="B68" t="s">
+        <v>14</v>
+      </c>
+      <c r="C68" t="s">
+        <v>62</v>
+      </c>
+      <c r="D68" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="E68" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="F68" s="12" t="s">
+        <v>48</v>
+      </c>
+      <c r="G68" s="13">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="69" spans="1:7">
+      <c r="A69">
+        <v>8</v>
+      </c>
+      <c r="B69" t="s">
         <v>15</v>
       </c>
-      <c r="B68" t="s">
+      <c r="C69" t="s">
+        <v>59</v>
+      </c>
+      <c r="D69" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="E69" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="F69" s="12">
+        <v>9</v>
+      </c>
+      <c r="G69" s="13">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="70" spans="1:7">
+      <c r="A70">
+        <v>9</v>
+      </c>
+      <c r="B70" t="s">
+        <v>16</v>
+      </c>
+      <c r="C70" t="s">
+        <v>60</v>
+      </c>
+      <c r="D70" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="E70" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="F70" s="12" t="s">
+        <v>50</v>
+      </c>
+      <c r="G70" s="13" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="71" spans="1:7">
+      <c r="A71">
+        <v>10</v>
+      </c>
+      <c r="B71" t="s">
+        <v>17</v>
+      </c>
+      <c r="C71" t="s">
+        <v>71</v>
+      </c>
+      <c r="D71" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="E71" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="F71" s="12">
+        <v>0</v>
+      </c>
+      <c r="G71" s="13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="1:7">
+      <c r="A72">
+        <v>11</v>
+      </c>
+      <c r="B72" t="s">
+        <v>18</v>
+      </c>
+      <c r="C72" t="s">
+        <v>71</v>
+      </c>
+      <c r="D72" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="E72" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="F72" s="12">
+        <v>0</v>
+      </c>
+      <c r="G72" s="13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="73" spans="1:7">
+      <c r="A73">
+        <v>12</v>
+      </c>
+      <c r="B73" t="s">
+        <v>19</v>
+      </c>
+      <c r="C73" t="s">
+        <v>70</v>
+      </c>
+      <c r="D73" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="E73" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="F73" s="12">
+        <v>1</v>
+      </c>
+      <c r="G73" s="13" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="74" spans="1:7">
+      <c r="A74">
+        <v>13</v>
+      </c>
+      <c r="B74" t="s">
+        <v>20</v>
+      </c>
+      <c r="C74" t="s">
+        <v>69</v>
+      </c>
+      <c r="D74" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="E74" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="F74" s="12">
+        <v>1</v>
+      </c>
+      <c r="G74" s="13">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="75" spans="1:7">
+      <c r="A75">
+        <v>14</v>
+      </c>
+      <c r="B75" t="s">
+        <v>21</v>
+      </c>
+      <c r="C75" t="s">
+        <v>68</v>
+      </c>
+      <c r="D75" s="10" t="s">
+        <v>33</v>
+      </c>
+      <c r="E75" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="F75" s="12">
+        <v>4</v>
+      </c>
+      <c r="G75" s="13" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="76" spans="1:7">
+      <c r="A76">
+        <v>15</v>
+      </c>
+      <c r="B76" t="s">
         <v>22</v>
       </c>
-      <c r="C68" t="s">
+      <c r="C76" t="s">
         <v>71</v>
       </c>
-      <c r="D68" s="4" t="s">
+      <c r="D76" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="E68" s="4" t="s">
+      <c r="E76" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="F68" s="12">
+      <c r="F76" s="12">
         <v>0</v>
       </c>
-      <c r="G68" s="13">
+      <c r="G76" s="13">
         <v>0</v>
       </c>
     </row>
-    <row r="71" spans="1:7">
-      <c r="A71" t="s">
+    <row r="79" spans="1:7">
+      <c r="A79" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="72" spans="1:7">
-      <c r="A72" s="1" t="s">
+    <row r="80" spans="1:7">
+      <c r="A80" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="B72" s="1" t="s">
+      <c r="B80" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="C72" s="1" t="s">
+      <c r="C80" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="D72" s="1" t="s">
+      <c r="D80" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="E72" s="1" t="s">
+      <c r="E80" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="G72" s="5"/>
-    </row>
-    <row r="73" spans="1:7">
-      <c r="A73" s="12">
+      <c r="G80" s="5"/>
+    </row>
+    <row r="81" spans="1:5">
+      <c r="A81" s="12">
         <v>0</v>
       </c>
-      <c r="B73" s="13" t="s">
+      <c r="B81" s="13" t="s">
         <v>38</v>
       </c>
-      <c r="C73" s="15" t="s">
+      <c r="C81" s="15" t="s">
         <v>51</v>
       </c>
-      <c r="D73" s="15" t="s">
+      <c r="D81" s="15" t="s">
         <v>33</v>
       </c>
-      <c r="E73" s="14" t="s">
+      <c r="E81" s="14" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="74" spans="1:7">
-      <c r="A74" s="12">
+    <row r="82" spans="1:5">
+      <c r="A82" s="12">
         <v>1</v>
       </c>
-      <c r="B74" s="13" t="s">
+      <c r="B82" s="13" t="s">
         <v>39</v>
       </c>
-      <c r="C74" s="15" t="s">
+      <c r="C82" s="15" t="s">
         <v>52</v>
       </c>
-      <c r="D74" s="15" t="s">
+      <c r="D82" s="15" t="s">
         <v>46</v>
       </c>
-      <c r="E74" s="14" t="s">
+      <c r="E82" s="14" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="75" spans="1:7">
-      <c r="A75" s="12">
+    <row r="83" spans="1:5">
+      <c r="A83" s="12">
         <v>2</v>
       </c>
-      <c r="B75" s="13" t="s">
+      <c r="B83" s="13" t="s">
         <v>40</v>
       </c>
-      <c r="C75" s="15" t="s">
+      <c r="C83" s="15" t="s">
         <v>53</v>
       </c>
-      <c r="D75" s="15" t="s">
+      <c r="D83" s="15" t="s">
         <v>47</v>
       </c>
-      <c r="E75" s="14" t="s">
+      <c r="E83" s="14" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="76" spans="1:7">
-      <c r="A76" s="12">
+    <row r="84" spans="1:5">
+      <c r="A84" s="12">
         <v>3</v>
       </c>
-      <c r="B76" s="13" t="s">
+      <c r="B84" s="13" t="s">
         <v>41</v>
       </c>
-      <c r="C76" s="14" t="s">
+      <c r="C84" s="14" t="s">
         <v>34</v>
       </c>
-      <c r="D76" s="14" t="s">
+      <c r="D84" s="14" t="s">
         <v>34</v>
       </c>
-      <c r="E76" s="14" t="s">
+      <c r="E84" s="14" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="77" spans="1:7">
-      <c r="A77" s="12">
+    <row r="85" spans="1:5">
+      <c r="A85" s="12">
         <v>4</v>
       </c>
-      <c r="B77" s="13" t="s">
+      <c r="B85" s="13" t="s">
         <v>42</v>
       </c>
-      <c r="C77" s="14" t="s">
+      <c r="C85" s="14" t="s">
         <v>34</v>
       </c>
-      <c r="D77" s="14" t="s">
+      <c r="D85" s="14" t="s">
         <v>34</v>
       </c>
-      <c r="E77" s="14" t="s">
+      <c r="E85" s="14" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="78" spans="1:7">
-      <c r="A78" s="12">
+    <row r="86" spans="1:5">
+      <c r="A86" s="12">
         <v>5</v>
       </c>
-      <c r="B78" s="13" t="s">
+      <c r="B86" s="13" t="s">
         <v>43</v>
       </c>
-      <c r="C78" s="14" t="s">
+      <c r="C86" s="14" t="s">
         <v>34</v>
       </c>
-      <c r="D78" s="14" t="s">
+      <c r="D86" s="14" t="s">
         <v>34</v>
       </c>
-      <c r="E78" s="14" t="s">
+      <c r="E86" s="14" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="79" spans="1:7">
-      <c r="A79" s="12">
+    <row r="87" spans="1:5">
+      <c r="A87" s="12">
         <v>6</v>
       </c>
-      <c r="B79" s="13" t="s">
+      <c r="B87" s="13" t="s">
         <v>44</v>
       </c>
-      <c r="C79" s="14" t="s">
+      <c r="C87" s="14" t="s">
         <v>34</v>
       </c>
-      <c r="D79" s="14" t="s">
+      <c r="D87" s="14" t="s">
         <v>34</v>
       </c>
-      <c r="E79" s="14" t="s">
+      <c r="E87" s="14" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="80" spans="1:7">
-      <c r="A80" s="12">
+    <row r="88" spans="1:5">
+      <c r="A88" s="12">
         <v>7</v>
       </c>
-      <c r="B80" s="13" t="s">
+      <c r="B88" s="13" t="s">
         <v>45</v>
       </c>
-      <c r="C80" s="14" t="s">
+      <c r="C88" s="14" t="s">
         <v>34</v>
       </c>
-      <c r="D80" s="14" t="s">
+      <c r="D88" s="14" t="s">
         <v>34</v>
       </c>
-      <c r="E80" s="14" t="s">
+      <c r="E88" s="14" t="s">
         <v>54</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="2">
-    <mergeCell ref="D52:E52"/>
-    <mergeCell ref="F52:G52"/>
+    <mergeCell ref="D60:E60"/>
+    <mergeCell ref="F60:G60"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" scale="39" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
   <drawing r:id="rId1"/>
 </worksheet>
 </file>